--- a/data/hotels_by_city/Dallas/Dallas_shard_556.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_556.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="726">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2098 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r584924104-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>243544</t>
+  </si>
+  <si>
+    <t>584924104</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Avoid at all costs -</t>
+  </si>
+  <si>
+    <t>Unfortunately due to the weather conditions on the East CoastI had to arrive in Dallas one day early and was placed at this so called Airport Motel to await my flight to Hong Kong.  It was close to two hours for the shuttle bus to arrive after several phone calls.  Pandemonium at the check-in, noise all night, nothing in Food or beverage near, and vending machines on pot luck - at least reception refunded the lost money.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Dallas - Ft Worth Airport North, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Unfortunately due to the weather conditions on the East CoastI had to arrive in Dallas one day early and was placed at this so called Airport Motel to await my flight to Hong Kong.  It was close to two hours for the shuttle bus to arrive after several phone calls.  Pandemonium at the check-in, noise all night, nothing in Food or beverage near, and vending machines on pot luck - at least reception refunded the lost money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r565216070-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>565216070</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>mix feelings</t>
+  </si>
+  <si>
+    <t>layover a night for my next flight. The check in was easy, the room not bad, have pretty much everything needed, such as free WiFi. It is a standard low cost hotel.However, the biggest complain would be the noise, as the sound proof is pretty bad. You could hear people foot step all night long.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r561766953-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>561766953</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Room Quality well beyond my expectations</t>
+  </si>
+  <si>
+    <t>I read some reviews and I was worried that I made a mistake by making a reservation at this Motel, but fortunately my room was clean and spacious for 2 adults.  They have free airport shuttle, which is very convenient.  The front-desk personnel were customer oriented.The Wifi service Works fine and is free of charge.  I didn´t use the outdoor pool but it looked clean and well maintained.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r517705978-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>517705978</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>Room was clean and functional, TV poor, WIFI poor</t>
+  </si>
+  <si>
+    <t>The room was clean and functional. Usual Motel 6.  However, we were not able to get but a few channels on the TV.. WIFI was intermittent and would disconnect frequently.  Vending and ice machine were also broken.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r492268751-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>492268751</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>good for overnight</t>
+  </si>
+  <si>
+    <t>Stayed here overnight on way out of town via the airport. Fairly standard place for this chain motel. Place was clean, water was hot. Bed was so-so. The air conditioning worked fine. All in all about what you should expect from this chain.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r483968028-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>483968028</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed at this hotel on a layover from the airport where we had an early flight. The hotel has a shuttle service that leaves very early in the morning which was convenient for our flight. The room was clean and served its purpose for the evening. Definitely a no thrills hotel but it was clean and in a safe area. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r452195765-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>452195765</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>depends on what you are looking for</t>
+  </si>
+  <si>
+    <t>we stay at this hotel as a cheep option for our trip from dfw airport, rates was good and the best feature is that parking was very cheep and secure, rooms we not good there was  dust and noise . shuttle to the airport was on time, when we came back for our trip they have given up away our reservation that we made 2 weeks ago, letting us with no room.  in conclusion cheep rate but also cheep service, best feature was parking price, don't truest them with keeping your  reservation</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r450301426-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>450301426</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>Place to stay before major travel</t>
+  </si>
+  <si>
+    <t>The shuttle service back from airport was terrible!!!!! We had to wait 55 minute to Been picked up. Called hotel 3 times to see when shuttle would be there to pick us up the driver told them we were not outside which was not true!!!!! The driver acted like it wasn't a big deal and asked if we had called the hotel I said yes 55 minutes ago!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r448123286-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>448123286</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>An alright place to stay</t>
+  </si>
+  <si>
+    <t>Stayed during a layover to Mexico. Very basic. No food (vending machine) and fairly quiet. Nothing really to write home about. If you're looking for a cheap hotel, this is it. It's also clean and smoke free.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r439368998-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>439368998</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Great value motel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My boyfriend and I stayed here for a night while waiting on a connecting flight, and we were pleasantly surprised. This is probably the best Motel 6 either of us have seen. While the room was small, it was clean and modern, and was perfectly suitable for a night's stay. I wouldn't make a vacation out of it, but with complimentary airport pickup/drop off, and an affordable rate, it's a great choice for a night or two near the airport. </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r436882638-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>436882638</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>too spartan for the Hospitality industry.</t>
+  </si>
+  <si>
+    <t>Yes, room was clean but the artificial wood floors must have been done with child labor. Very unprofessional. What passes for mattress must have come from a decommissioned penitentiary facility. Want to seat and watch TV ? Good luck. For $70 a night I would have done better sleeping in my car.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r424424380-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>424424380</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Clean, Quiet, Comfortable and Priced Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a nice, clean motel that's good for those on a budget. I felt safe here and the place is quiet. Check in was easy and fast. There is a pool for the kids and it's very close to Bass Pro Shop! Keep in mind, this is not the Hilton or the Hyatt. You get what you pay for. That being said, it's a nice little motel. There are quite a few flight attendants, pilots and airline employees that stay here, if that tells you anything. Those people stay in motels a lot and word gets around, among them, about where to stay. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r410836527-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>410836527</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>missing magic fingers</t>
+  </si>
+  <si>
+    <t>Room takes me back to childhood road trips.  Shabby bedding, popcorn ceiling, and pealing linoleum floors.  All that is missing is the coin slot next to the bed.  Also, you'd think for a hotel that probably gets a lot of its business when an airline screws up and has to put you up for the night that they'd at least put a cheep little bottle of shampoo in the shower.Guy at the front desk seemed nice enough though.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r402670734-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>402670734</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its been awhile since I've been to a Motel 6. I am glad they are cleaning them up. A good stop for the price. Customer service was good and the room was clean. I had one complaint about a refrigerator and microwave but you cannot have everything. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r396243567-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>396243567</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Affordable No Frills Airport Hotel</t>
+  </si>
+  <si>
+    <t>3.5 Stars no frills affordable hotel. We just stayed overnight because it was very close to the airport and had a 24 hour shuttle. Our flight was at 5am the following day so this location was perfect for us. The first room they gave us had the old loud wall A/C but we didn't mind because it got the room cold. The problem was the barking dog in the room next to us so I asked to move us to another room. They gave us room to the right wing with a view of the pool and this one had a quiet central A/C. The room was spacious enough &amp; clean. Bath had soap only and towels were pretty rough. The hotel didn't have a business center nor front desk that can print your boarding passes but again, this is a no frills hotel with modern rooms. There are no places to eat within walking distance. If you have a rental, go to The Ranch in Las Colinas and there are also other nice restaurants next to it in the same plaza. It's a only a 7 minute drive from hotel via freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>3.5 Stars no frills affordable hotel. We just stayed overnight because it was very close to the airport and had a 24 hour shuttle. Our flight was at 5am the following day so this location was perfect for us. The first room they gave us had the old loud wall A/C but we didn't mind because it got the room cold. The problem was the barking dog in the room next to us so I asked to move us to another room. They gave us room to the right wing with a view of the pool and this one had a quiet central A/C. The room was spacious enough &amp; clean. Bath had soap only and towels were pretty rough. The hotel didn't have a business center nor front desk that can print your boarding passes but again, this is a no frills hotel with modern rooms. There are no places to eat within walking distance. If you have a rental, go to The Ranch in Las Colinas and there are also other nice restaurants next to it in the same plaza. It's a only a 7 minute drive from hotel via freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r392995765-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>392995765</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Dirty &amp; Nasty</t>
+  </si>
+  <si>
+    <t>This hotel is atrocious.  Upon entering the room I found a fountain soda cup lid and straw in the cubby.  Next, when I pulled the sheets back I found hair and a large stain!!  It was truly appalling.  The floor was sticky!!  I immediately got on the phone with travelocity to get me a new hotel.  I left and the hotel refused to refund my money!  I know you are operating a "discount" hotel, I get that!  But you need to, at the very least, clean the room.  There was dust on the cove base (where the floor and wall meet).  The bathroom door had a hole in it.  The moulding around the bathroom door looked like it had soda splashed on it!  I saw all this while on the phone with Travelocity.  And to top it all off, while I was returning to my car with our bags....THERE WAS A DIRTY DIAPER IN THE PARKING LOT!!  Never again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is atrocious.  Upon entering the room I found a fountain soda cup lid and straw in the cubby.  Next, when I pulled the sheets back I found hair and a large stain!!  It was truly appalling.  The floor was sticky!!  I immediately got on the phone with travelocity to get me a new hotel.  I left and the hotel refused to refund my money!  I know you are operating a "discount" hotel, I get that!  But you need to, at the very least, clean the room.  There was dust on the cove base (where the floor and wall meet).  The bathroom door had a hole in it.  The moulding around the bathroom door looked like it had soda splashed on it!  I saw all this while on the phone with Travelocity.  And to top it all off, while I was returning to my car with our bags....THERE WAS A DIRTY DIAPER IN THE PARKING LOT!!  Never again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r392726830-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>392726830</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Great Value!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the past, when I heard "Motel 6", I always cringed a little. But this hotel just looked a little nicer from the outside, so we gave it a try! We were very pleasantly surprised! The rooms had a modern feel and were very clean! The hotel had a very "safe" feel and was within close proximity to the airport and Grapevine Mills Mall. This hotel is amidst several other higher-dollar hotels, but the quality is comparable. I would definitely recommend it to anyone wanting a nice, clean, safe value hotel. </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r392515514-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>392515514</t>
+  </si>
+  <si>
+    <t>Very affordable and convenient</t>
+  </si>
+  <si>
+    <t>Really enjoyed our stay and the rooms were very clean. The front desk staff could've been more familiar with the surrounding areas, but other than that my kids and I enjoyed our stay just well. We look forward to staying again whenever passing through or visiting Texas again in the near future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r376150694-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>376150694</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Perfectly fine</t>
+  </si>
+  <si>
+    <t>I had an 18 hour layover in DFW, and decided to find someplace cheap to spend the night, rather than try to rest on a bench somewhere at the airport. Through TripAdvisor and Booking.com, a room here was $70 including all the taxes. 
+I arrived and was greeted promptly. The room was bare bones - bed, tv, a/c unit, bathroom. But I wasn't looking for luxury, I was looking for clean and cheap. That's what I got here.
+There's no real amenities. No in-room coffeemaker, or little shampoos/conditioners. The floors are laminate, but I didn't really care - I'm sure they're actually much cleaner than all the dust that must get tracked into carpets at other places (how often to you think they actually deep steam clean them anyway). 
+It had clean towels and fresh soaps, clean sheets and a comfy bed. Perfect!
+I'm a woman who was traveling alone, and I felt perfectly safe! I slept well, and was happy to have a bed to relax in while I waited for my flight. The free airport shuttle was great!
+Just a tip:
+When I arrived, the courtesy phones that call the local hotels wasn't working to call the shuttle, I couldn't find any DFW employees to ask about the shuttles, and I didn't have phone service for the US, so I figured since the hotel was only 2 miles away I would just cab it there. I was charged...I had an 18 hour layover in DFW, and decided to find someplace cheap to spend the night, rather than try to rest on a bench somewhere at the airport. Through TripAdvisor and Booking.com, a room here was $70 including all the taxes. I arrived and was greeted promptly. The room was bare bones - bed, tv, a/c unit, bathroom. But I wasn't looking for luxury, I was looking for clean and cheap. That's what I got here.There's no real amenities. No in-room coffeemaker, or little shampoos/conditioners. The floors are laminate, but I didn't really care - I'm sure they're actually much cleaner than all the dust that must get tracked into carpets at other places (how often to you think they actually deep steam clean them anyway). It had clean towels and fresh soaps, clean sheets and a comfy bed. Perfect!I'm a woman who was traveling alone, and I felt perfectly safe! I slept well, and was happy to have a bed to relax in while I waited for my flight. The free airport shuttle was great!Just a tip:When I arrived, the courtesy phones that call the local hotels wasn't working to call the shuttle, I couldn't find any DFW employees to ask about the shuttles, and I didn't have phone service for the US, so I figured since the hotel was only 2 miles away I would just cab it there. I was charged the "minimum airport rate" to take the 3 minute drive 2 miles down the road. So it cost me $40! Just wait for the shuttle!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I had an 18 hour layover in DFW, and decided to find someplace cheap to spend the night, rather than try to rest on a bench somewhere at the airport. Through TripAdvisor and Booking.com, a room here was $70 including all the taxes. 
+I arrived and was greeted promptly. The room was bare bones - bed, tv, a/c unit, bathroom. But I wasn't looking for luxury, I was looking for clean and cheap. That's what I got here.
+There's no real amenities. No in-room coffeemaker, or little shampoos/conditioners. The floors are laminate, but I didn't really care - I'm sure they're actually much cleaner than all the dust that must get tracked into carpets at other places (how often to you think they actually deep steam clean them anyway). 
+It had clean towels and fresh soaps, clean sheets and a comfy bed. Perfect!
+I'm a woman who was traveling alone, and I felt perfectly safe! I slept well, and was happy to have a bed to relax in while I waited for my flight. The free airport shuttle was great!
+Just a tip:
+When I arrived, the courtesy phones that call the local hotels wasn't working to call the shuttle, I couldn't find any DFW employees to ask about the shuttles, and I didn't have phone service for the US, so I figured since the hotel was only 2 miles away I would just cab it there. I was charged...I had an 18 hour layover in DFW, and decided to find someplace cheap to spend the night, rather than try to rest on a bench somewhere at the airport. Through TripAdvisor and Booking.com, a room here was $70 including all the taxes. I arrived and was greeted promptly. The room was bare bones - bed, tv, a/c unit, bathroom. But I wasn't looking for luxury, I was looking for clean and cheap. That's what I got here.There's no real amenities. No in-room coffeemaker, or little shampoos/conditioners. The floors are laminate, but I didn't really care - I'm sure they're actually much cleaner than all the dust that must get tracked into carpets at other places (how often to you think they actually deep steam clean them anyway). It had clean towels and fresh soaps, clean sheets and a comfy bed. Perfect!I'm a woman who was traveling alone, and I felt perfectly safe! I slept well, and was happy to have a bed to relax in while I waited for my flight. The free airport shuttle was great!Just a tip:When I arrived, the courtesy phones that call the local hotels wasn't working to call the shuttle, I couldn't find any DFW employees to ask about the shuttles, and I didn't have phone service for the US, so I figured since the hotel was only 2 miles away I would just cab it there. I was charged the "minimum airport rate" to take the 3 minute drive 2 miles down the road. So it cost me $40! Just wait for the shuttle!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r375671373-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>375671373</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff and a good room</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel on two occasions (2 days apart).  The hotel was convenient for the airport and the price was right.  The guy at reception was friendly and even recognised me on my second visit.  I got a clean comfortable room with a laminate (cold) floor.  All in all not too bad.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r374585858-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>374585858</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>OK For An Overnight - Missed Your Flight...</t>
+  </si>
+  <si>
+    <t>We found this hotel to be a little older than we expected. For the price we weren't expecting a lot. But they offered a free airport shuttle and a place to sleep. All we really wanted was a clean bed.We got a free shuttle and a clean bed.The room was ok but dated. The beds are mattresses on a board base, pillows were a little lumpy. The first time the AC kicked in I thought a garbage truck was working outside in the parking lot. The shower was good, the room was clean and if we were in the same situation - missed flight and thrust into an unexpected overnight stay - we would probably stay here again. However, it is not a place we would book if we were going to stay in the area a few days.MoreShow less</t>
+  </si>
+  <si>
+    <t>We found this hotel to be a little older than we expected. For the price we weren't expecting a lot. But they offered a free airport shuttle and a place to sleep. All we really wanted was a clean bed.We got a free shuttle and a clean bed.The room was ok but dated. The beds are mattresses on a board base, pillows were a little lumpy. The first time the AC kicked in I thought a garbage truck was working outside in the parking lot. The shower was good, the room was clean and if we were in the same situation - missed flight and thrust into an unexpected overnight stay - we would probably stay here again. However, it is not a place we would book if we were going to stay in the area a few days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r357202377-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>357202377</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>cute retro vibe</t>
+  </si>
+  <si>
+    <t>No issues. My flight canceled so instead of driving the 35 miles home at 1 am I got a room here. Loved the retro vibe to room. No carpet in room, so this might be good for those who have allergies. The room seems designed in a way that from my point of view is generally easier to clean. A plus would be a microwave and fridge in room. But yes in a pinch would stay here again.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r356876752-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>356876752</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Great motel</t>
+  </si>
+  <si>
+    <t>It was a clean motel with a nice room. It was close to the airport that even had a free shuttle that ran like every 30 minutes. Staff was friendly and check in was very easy. There wasn't much traffic or noise and the beds and pillows were comfortable. The location wasn't too far from fast food/convenience stores. Nothing in walking distance, but it could have been worse. Also, not too far from Dallas. This will be my go to place when I visit Dallas again. And considering, it was the closest motel 6 to the Airport, it was the cheapest as well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r356542445-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>356542445</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Reasonable stay for one night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent place. Had all the basics right. Good rooms, with climate control and good facilities in the bathroom with regards to water pressure and such. Staff seemed somewhat uninterested but were otherwise decent enough. Good shuttle system to and from airport, though be mindful of the fact that shuttles only come every half an hour or so. Cons - no eating facilities at the motel, and at least a fifteen minute walk from the nearest decent eating joint. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r348017721-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>348017721</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Bring your own pillows</t>
+  </si>
+  <si>
+    <t>I have stayed here twice now. The employees always seem so unhappy like their dog has just died and are annoyed your taking up there time. While the hotel rooms are super clean they are also super small but for the price you can't really fuss. My biggest problem is the fact that they only put two sample size pillows one each bed! and if you have the audacity to ask for one more you will get a roll of the eyes and an Im sorry we don't give out extra pillows. (twice ive been told this) I will be spending the extra $30 and staying across the street my next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I have stayed here twice now. The employees always seem so unhappy like their dog has just died and are annoyed your taking up there time. While the hotel rooms are super clean they are also super small but for the price you can't really fuss. My biggest problem is the fact that they only put two sample size pillows one each bed! and if you have the audacity to ask for one more you will get a roll of the eyes and an Im sorry we don't give out extra pillows. (twice ive been told this) I will be spending the extra $30 and staying across the street my next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r342955760-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>342955760</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Based on the price and what you get, I give this property five stars.  It is not the Ritz but I found it acceptable and comfortable for a night.  I agree with other positive reviews.  Platform was surprisingly comfortable, bathroom was nice, linens were good and nice selection of TV channels.  Room is basic but a nice European/Ikea look.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r337210171-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>337210171</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>Smokey Room - Yuck</t>
+  </si>
+  <si>
+    <t>Check-in process basically set the mood for our stay @ Motel 6. The few words the attendant said to us consisted of 'Name,' 'Credit Card' (in which she ran and processed my card on the spot) and 'Room 229'. She seemed bothered by us asking questions about the airport shuttle, signing up and restaurant recommendations in the area. When we walked into our room we were overwhelmed by the smell of smoke, despite the no-smoking plaque on the door. We went down &amp; spoke to her again and were pleasantly surprised by how quickly and polite she was when we requested a switch. The room itself was small but very clean, beds/pillows mildly comfortable. If you are looking for a quick overnight close to the hotel, this is doable - You get what you pay for!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Check-in process basically set the mood for our stay @ Motel 6. The few words the attendant said to us consisted of 'Name,' 'Credit Card' (in which she ran and processed my card on the spot) and 'Room 229'. She seemed bothered by us asking questions about the airport shuttle, signing up and restaurant recommendations in the area. When we walked into our room we were overwhelmed by the smell of smoke, despite the no-smoking plaque on the door. We went down &amp; spoke to her again and were pleasantly surprised by how quickly and polite she was when we requested a switch. The room itself was small but very clean, beds/pillows mildly comfortable. If you are looking for a quick overnight close to the hotel, this is doable - You get what you pay for!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r330362599-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>330362599</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Good for airport stopover</t>
+  </si>
+  <si>
+    <t>Room was a reasonable size and clean. Beds comfortable. Shuttle bus available to DFW airport.Front desk staff helpful &amp; friendly. Nothing else in the vicinity except other hotels and offices.Only bad thing I saw was that late one evening, I came down to the reception area to use the vending machines and there were 2 mice merrily chasing each other in front of the reception desk.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r318915392-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>318915392</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>You get what you pay for. Are you looking for a cheap place just to crash for the night after a long flight, then Motel 6 is fine...but if you can afford, pay a few extra dollars and get somewhere else. Small room that has been upgraded, but it still smells like an ashtrayMoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Dallas - Ft Worth Airport North, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for. Are you looking for a cheap place just to crash for the night after a long flight, then Motel 6 is fine...but if you can afford, pay a few extra dollars and get somewhere else. Small room that has been upgraded, but it still smells like an ashtrayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r318135985-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>318135985</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Looks modern ....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the better Motel 6 that I've stayed in. The design is modern, the water pressure is good, the staff fairly friendly. The lobby smelled bad, coffee was terrible,  room was not cleaned very well, and there were no washcloths. Luckily we just needed a place to lay our heads for 2 nights, Whataburger and Starbucks are across the parking lot, and we travel with extra rags. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r309261357-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>309261357</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>For low budget this is a great place</t>
+  </si>
+  <si>
+    <t>I needed a cheap place to stay and out of all the low budget places to stay in the area this one is the best.  I stayed at quality inn prior which had a worn feel.  My coworkers suggested motel 6 and I was pleasantly surprised for the cleaner feel and saved $10 more than Quality inn.  The rooms entered from inside the building like a hotel which I liked.  The room standard motel 6 style with linoleum flooring, the beds clean and small and look like they would be uncomfortable but were nice.  The motel itself smelled clean.  The flat screen had many channels on it.  They also had a pool which I did not try but looked nice.  The funny thing was no shampoo but since I do not have hair the soap bar worked just fine.  There will be future times when I need a place near the airport again for work and I will absolutely come here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed a cheap place to stay and out of all the low budget places to stay in the area this one is the best.  I stayed at quality inn prior which had a worn feel.  My coworkers suggested motel 6 and I was pleasantly surprised for the cleaner feel and saved $10 more than Quality inn.  The rooms entered from inside the building like a hotel which I liked.  The room standard motel 6 style with linoleum flooring, the beds clean and small and look like they would be uncomfortable but were nice.  The motel itself smelled clean.  The flat screen had many channels on it.  They also had a pool which I did not try but looked nice.  The funny thing was no shampoo but since I do not have hair the soap bar worked just fine.  There will be future times when I need a place near the airport again for work and I will absolutely come here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r291127358-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>291127358</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was very friendly, nice rooms. They had free coffee for the visitors. Very close to the mall. Only took about ten minutes to get there. The beds weren't very comfortable, I woke up with my back killing me. The pool was small and crowded, and there was floating debre. Other then that it was decent. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r290378915-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>290378915</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>Maria it says it all this young lady was very intelligent helping and very knowledgeable and made my trip a very relaxing and happy time Gold Maria thank you very much the hotel was very clean and the staff was excellent I highly recommended the best motel near the airport thank you again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r284782170-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>284782170</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Might have been better to sleep at the airport.</t>
+  </si>
+  <si>
+    <t>My company sent me on a business trip to Dallas.  Before booking my room, my admin called the front desk, reserved the room on the company credit card and told me that everything had been taken care of.There is a free shuttle from DFW that runs 24 hours.  This is convenient.  Upon arriving, I was told that the facility didn't accept credit cards over the phone and I was in the awkward position of having to wake my boss up to get information.  Eventually this was handled after a long and lengthy process that annoyed everyone.  The room itself might have been ok, but one of the beds had small bugs  crawling in it.  Suffice it to say I barely slept.Please consider staying anywhere else if you want comfort.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team memberDelbert, Thank you for sharing your review. We strive to deliver a great guest experience, b at Motel 6 Dallas - Ft Worth Airport North, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>My company sent me on a business trip to Dallas.  Before booking my room, my admin called the front desk, reserved the room on the company credit card and told me that everything had been taken care of.There is a free shuttle from DFW that runs 24 hours.  This is convenient.  Upon arriving, I was told that the facility didn't accept credit cards over the phone and I was in the awkward position of having to wake my boss up to get information.  Eventually this was handled after a long and lengthy process that annoyed everyone.  The room itself might have been ok, but one of the beds had small bugs  crawling in it.  Suffice it to say I barely slept.Please consider staying anywhere else if you want comfort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r283077577-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>283077577</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Moldy Dormitory</t>
+  </si>
+  <si>
+    <t>First thing I noticed when I walk in was this room reminded me of a college dorm.Then I noticed the huge mold spot on the wall and could not think of a college that would allow students to stay in an unhealthy environment like this.Not really sure what was harder the floor or the bed.I was very tired from travelling and that is the only reason I did not leave and find another hotel.My sinuses have been messed up since I left there.Lesson learned.Never again!!!If the owners don't care anymore about the place than this I can only imagine the things they neglect that you never see.Had a great Wi-Fi signal but the Wi-Fi didn't work so not much good to have a good signal.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Ft Worth Airport North, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>First thing I noticed when I walk in was this room reminded me of a college dorm.Then I noticed the huge mold spot on the wall and could not think of a college that would allow students to stay in an unhealthy environment like this.Not really sure what was harder the floor or the bed.I was very tired from travelling and that is the only reason I did not leave and find another hotel.My sinuses have been messed up since I left there.Lesson learned.Never again!!!If the owners don't care anymore about the place than this I can only imagine the things they neglect that you never see.Had a great Wi-Fi signal but the Wi-Fi didn't work so not much good to have a good signal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r282946977-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>282946977</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed here many times. This is the first time in room 113.There was a miscommunication on my reservation, so I was given this ground floor wchr. accessible room.Wanted to open the window and this is what I found behind the  curtains. It was on each side of the bathroom door and shower floor. The floor boards bounced and this, I believe might be the result of rain water on concrete pad. I will stay again and hope this is corrected. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r274979989-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>274979989</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Was given handicap rm.; sparse furnishings, sheets not very clean,no bedbugs (at least in my room) otherwise ok. No restaurants in walking distance though, no shopping ctrs nearby either. There are at least 7 other hotels in the area this is probably the best value. Save your $ if you don' t need luxury.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r273099199-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>273099199</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>stop over</t>
+  </si>
+  <si>
+    <t>Had a rough start finding pick up point for shuttle hence missed first one and waited longer than I would have liked at 130 am. Price was different then quoted, yet still reasonable enough. Only Handicapped room or Smoking available so took a handicapped room. Which was as other review stated sparse yet very clean. My major complaint which I informed the front desk of was that in the handicapped shower the "chair" had a adjustable leg missing. Also, we were informed by the shuttle driver that the best pick up times for our departure flight would be 815 am, which we confirmed with the front desk. Yet, in the morning when we get to the desk the clip board showed a time of 810 am. Okay I know the want people to be on time yet they should attempt to be consistent it is both confusing and frustrating otherwise.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Had a rough start finding pick up point for shuttle hence missed first one and waited longer than I would have liked at 130 am. Price was different then quoted, yet still reasonable enough. Only Handicapped room or Smoking available so took a handicapped room. Which was as other review stated sparse yet very clean. My major complaint which I informed the front desk of was that in the handicapped shower the "chair" had a adjustable leg missing. Also, we were informed by the shuttle driver that the best pick up times for our departure flight would be 815 am, which we confirmed with the front desk. Yet, in the morning when we get to the desk the clip board showed a time of 810 am. Okay I know the want people to be on time yet they should attempt to be consistent it is both confusing and frustrating otherwise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r272526681-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>272526681</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>Clean n neat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparse but very clean room in an almost European sense. Friendly staff were helpful and attentive.  Definitely the best price in the area. Being one of many hotels near the airport the location felt safe and the room was quiet. I'd definitely stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r260170027-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>260170027</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Inexpensive but Far from City</t>
+  </si>
+  <si>
+    <t>This hotel has been redone like the majority of Motel 6's throughout the country. There is a free airport shuttle however if stops at multiple hotels. I ended up being the only one stopping at Motel 6 and had to verify with the driver that I was in the right location. There are no carpets in the hotel so it is clean but there is a lot of echoing. If you are looking for something cheap and clean near the airport this is a great place for that. If you intend to spend most of your time in Dallas than rent a car.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r258762595-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>258762595</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Hope you like Mexican walkie talkie concerts.</t>
+  </si>
+  <si>
+    <t>The place itself wasn't bad however the walls are paper thin. The employees are loud as hell all through the day and night. Slamming,banging, and talking extremely loud. Then it sounded like they had a track meet or something on the second floor at least once a day.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r257831752-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>257831752</t>
+  </si>
+  <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not very friendly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We arrived at the hotel and the clerk was being rushed. When we got to the counter she was rushing and not taking time to answer our questions. Our remote didn't work told the front desk who said she couldn't do anything. The shuttle didn't take us to our terminal </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r248638561-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>248638561</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rules are rules </t>
+  </si>
+  <si>
+    <t>I didn't find it listed in the free phone after baggage claim and then the phone number I was given was the fax machine. :/ finally got in touch with the hotel transfer was booked for 20-25 minutes, 30 minutes later I ended up paying a different shuttle driver $10 to drop me at the hotel. All at 1am while standing outside in the cold. So not off to a good start. The staff were OK, not super friendly more interested in sweeping the floor then serve me at the desk. I'm on an earlier shuttle back to the airport to get a cup of tea. And why they had as free coffee.... Well one sip left a bad taste in my mouth for 10 minutes. Morale of the story cheap is cheap for a reason.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Ft Worth Airport North, responded to this reviewResponded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2015</t>
+  </si>
+  <si>
+    <t>I didn't find it listed in the free phone after baggage claim and then the phone number I was given was the fax machine. :/ finally got in touch with the hotel transfer was booked for 20-25 minutes, 30 minutes later I ended up paying a different shuttle driver $10 to drop me at the hotel. All at 1am while standing outside in the cold. So not off to a good start. The staff were OK, not super friendly more interested in sweeping the floor then serve me at the desk. I'm on an earlier shuttle back to the airport to get a cup of tea. And why they had as free coffee.... Well one sip left a bad taste in my mouth for 10 minutes. Morale of the story cheap is cheap for a reason.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r245918706-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>245918706</t>
+  </si>
+  <si>
+    <t>12/26/2014</t>
+  </si>
+  <si>
+    <t>Friendly and awesome stay</t>
+  </si>
+  <si>
+    <t>I stayed at this motel for a night stay because I had to catch a flight from DFW airport early in the morning. The price was right, the room was spacious modern and very clean. I parked my car at this hotel for a week at a cheaper rate compared to the airport rate.. Shuttle service to the airport on the way to the airport was awesome. The only disappointment I had was with the shuttle service on the way back. I waited at the airport for over an hour in the cold. Even after we called the front desk and was told they would be in about 20 mins, it took the driver almost an hour to get to us....I would however recommend this hotel to anyone because the price is right and the motel is very clean and comfortable.....MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this motel for a night stay because I had to catch a flight from DFW airport early in the morning. The price was right, the room was spacious modern and very clean. I parked my car at this hotel for a week at a cheaper rate compared to the airport rate.. Shuttle service to the airport on the way to the airport was awesome. The only disappointment I had was with the shuttle service on the way back. I waited at the airport for over an hour in the cold. Even after we called the front desk and was told they would be in about 20 mins, it took the driver almost an hour to get to us....I would however recommend this hotel to anyone because the price is right and the motel is very clean and comfortable.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r245605300-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>245605300</t>
+  </si>
+  <si>
+    <t>12/23/2014</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>Came to motel because I had to get a flight from DFW.  It is close to the airport. However at check in the lady lacked friendliness and professionalism. Also asked for a pillow and blanket. She became agitated because I was taking her away from her phone. no breakfast. Beds were not comfortable. Would not stay again or recommend.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r237461073-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>237461073</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>Delivers everything it promises</t>
+  </si>
+  <si>
+    <t>I rate by expectation: did a particular hotel deliver what is promised?For this Motel 6, the answer is "Yes!"  It's as advertised-- a budget hotel. Rooms are "no frills" (no carpet on floor--which can actually be a cleanliness "plus") no bedskirt (you see the floor beneath the bed--another cleanliness "plus"), no included breakfast (though there is morning coffee in the basic, no-frills lobby).  The rooms are clean, staff service is fine with the front-desk folks quite pleasant helpful with directions into Dallas or to DFW. As an extra bonus, the bed was very comfortable--as good as the "heavenly beds" at other, far more expensive chains. I didn't wake with an aching back, as happens at many other places.Cnsidering how close this is to the airport, the rooms, with windows shut, are amazingly quiet.I've stayed at the nearby Westin, where sounds of airplanes were omnipresent.Do you get what you pay for here? With a price of only $44/night, I'd say you get much more. The only thing I didn't like is the ghastly orange color of the walls If nay it could be blue, or yellow, or anything else! The bathroom, in yellow, and with soft absorbent towels, is bright and attractive.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I rate by expectation: did a particular hotel deliver what is promised?For this Motel 6, the answer is "Yes!"  It's as advertised-- a budget hotel. Rooms are "no frills" (no carpet on floor--which can actually be a cleanliness "plus") no bedskirt (you see the floor beneath the bed--another cleanliness "plus"), no included breakfast (though there is morning coffee in the basic, no-frills lobby).  The rooms are clean, staff service is fine with the front-desk folks quite pleasant helpful with directions into Dallas or to DFW. As an extra bonus, the bed was very comfortable--as good as the "heavenly beds" at other, far more expensive chains. I didn't wake with an aching back, as happens at many other places.Cnsidering how close this is to the airport, the rooms, with windows shut, are amazingly quiet.I've stayed at the nearby Westin, where sounds of airplanes were omnipresent.Do you get what you pay for here? With a price of only $44/night, I'd say you get much more. The only thing I didn't like is the ghastly orange color of the walls If nay it could be blue, or yellow, or anything else! The bathroom, in yellow, and with soft absorbent towels, is bright and attractive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r233907705-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>233907705</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Good for a short stay</t>
+  </si>
+  <si>
+    <t>Close to the airport, shuttle bus service, good warm bath. Clean room. All enough for a 10+ hour stay.The price is also good.The reception does not to smile. But nothing really matter.Good selection.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r228601286-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>228601286</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>Clean, cheap, comfortable, what's not to like?</t>
+  </si>
+  <si>
+    <t>It is close to the airport, and we used their cheap long-term parking and took the free shuttle to the airport. It is exactly what we needed for a quick, clean, inexpensive one-nighter before an early flight. Love it! I would recommend this to anyone.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r222439130-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>222439130</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>better then expected</t>
+  </si>
+  <si>
+    <t>I have to say, I read reviews and I was a little cautious.When I got there, I was pleasantly surprised. The room was very clean! The bathroom very clean. Loved the triangleshaped bathtub. The only thing was, bring a little clock and don'tforget to check out a blowdryer when you check in.Also, The shuttle is a real problem. It is not the hotels fault as theyuse a shuttle that services a lot of hotels. The morning pick up is great,its the pick up from the airport that is a nightmare! Beware, it may take awhileand if you are coming in late....grab a cab. It isn't expensive.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r222252588-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>222252588</t>
+  </si>
+  <si>
+    <t>08/16/2014</t>
+  </si>
+  <si>
+    <t>Violet health code</t>
+  </si>
+  <si>
+    <t>My family, a group of 10 people, stayed at this motel 6 on 8/10/2014.  We checked in at 10:15pm.  A girl who worked at front desk was very racist and unhappy with us because We have 5 rooms to check in at the same time.  She said "You have too many reservation, step on the side".  She took a guy behind me and we have too wait for 20min.   At the time we got to our room almost 11pm at night.We went straight to bed after 10 hours driving. In the morning around 7:20am, I went to bathroom and there is NO WATER. I went to front desk to report it. All they said we are working on it!!!!!!  I told her how can your motel have No Water? how can I flush the toilet or brush my teeth?  She said Sorry!!I spoke to my Chase credit card to report the matter.  They called the motel for 3 times but never was able to talk to the general manager.  Chase told me I need to contact motel 6 from 10:30 to 11am because that is the time the manager will be there. I called motel 6 this am and she is not there.  Motel 6 needed to respond my call before I call BBB and Health department to report this matter.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family, a group of 10 people, stayed at this motel 6 on 8/10/2014.  We checked in at 10:15pm.  A girl who worked at front desk was very racist and unhappy with us because We have 5 rooms to check in at the same time.  She said "You have too many reservation, step on the side".  She took a guy behind me and we have too wait for 20min.   At the time we got to our room almost 11pm at night.We went straight to bed after 10 hours driving. In the morning around 7:20am, I went to bathroom and there is NO WATER. I went to front desk to report it. All they said we are working on it!!!!!!  I told her how can your motel have No Water? how can I flush the toilet or brush my teeth?  She said Sorry!!I spoke to my Chase credit card to report the matter.  They called the motel for 3 times but never was able to talk to the general manager.  Chase told me I need to contact motel 6 from 10:30 to 11am because that is the time the manager will be there. I called motel 6 this am and she is not there.  Motel 6 needed to respond my call before I call BBB and Health department to report this matter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r221461458-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>221461458</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Surprisingly nice!</t>
+  </si>
+  <si>
+    <t>We stayed here in May 2014 to attend a festival at the airport. We needed to take this trip on a budget so we took a chance and booked a room here. It was so clean and modern...we loved it! It wasn't really plush or fancy in any way but what do you expect for less than a hundred a night on a weekend?!Beds were comfortable, bathrooms were clean, tv's were new, and we couldn't hear any of our neighbors. It was great!</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r216256240-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>216256240</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>There are better options south of airport</t>
+  </si>
+  <si>
+    <t>We had a short layover at DFW and booked this property through their website. It looked ok on arrival, it's surrounded by many other airport hotels and motels but upon entering I quickly realised this is a very high turn over motel, kind of get them in and get them out quickly type place.
+Check in not at all friendly with the one lady behind the desk extremely busy taking calls while trying to check us in with many others trying to check in at the same time. No politeness, just a process and no small talk.
+Room booked was on a non smoking floor but upon entering the hallway we could smell cigarette smoke. Room was however smoke free.
+Room was disappointing. Very small and very basic with no frills. Advertised queen bed was actually just a double, no space to store luggage, very limited hanging space which was hidden and easily missed. Bedding was not good quality, sheet almost see through it was that thin and the two pillows very flat. Bathroom is adequate, very clean with extremely good shower pressure but as mentioned the water doesn't drain fast so you are standing in a tub full of water. Towels are small. Room and bathroom however were spotlessly clean.
+I went to reception to request extra pillows, waited 10 minutes while the only staff member checked in others to be told there are no extra pillows.
+Vending machines...We had a short layover at DFW and booked this property through their website. It looked ok on arrival, it's surrounded by many other airport hotels and motels but upon entering I quickly realised this is a very high turn over motel, kind of get them in and get them out quickly type place.Check in not at all friendly with the one lady behind the desk extremely busy taking calls while trying to check us in with many others trying to check in at the same time. No politeness, just a process and no small talk.Room booked was on a non smoking floor but upon entering the hallway we could smell cigarette smoke. Room was however smoke free.Room was disappointing. Very small and very basic with no frills. Advertised queen bed was actually just a double, no space to store luggage, very limited hanging space which was hidden and easily missed. Bedding was not good quality, sheet almost see through it was that thin and the two pillows very flat. Bathroom is adequate, very clean with extremely good shower pressure but as mentioned the water doesn't drain fast so you are standing in a tub full of water. Towels are small. Room and bathroom however were spotlessly clean.I went to reception to request extra pillows, waited 10 minutes while the only staff member checked in others to be told there are no extra pillows.Vending machines on all floors were out of order.Although this property is surrounded by many others there are no dining options nearby. The only choice you have is outsourced room service or tempting fate and crossing the very busy highway and walking 15 minutes to Denny's opposite the Westin Hotel. There is nothing else in walking distance.The week before we stayed in the southern area at Super 8 which was the same price but older property but in a much better location. At least there were several dining options available there.Motel 6 does have a pool but I would not choose to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a short layover at DFW and booked this property through their website. It looked ok on arrival, it's surrounded by many other airport hotels and motels but upon entering I quickly realised this is a very high turn over motel, kind of get them in and get them out quickly type place.
+Check in not at all friendly with the one lady behind the desk extremely busy taking calls while trying to check us in with many others trying to check in at the same time. No politeness, just a process and no small talk.
+Room booked was on a non smoking floor but upon entering the hallway we could smell cigarette smoke. Room was however smoke free.
+Room was disappointing. Very small and very basic with no frills. Advertised queen bed was actually just a double, no space to store luggage, very limited hanging space which was hidden and easily missed. Bedding was not good quality, sheet almost see through it was that thin and the two pillows very flat. Bathroom is adequate, very clean with extremely good shower pressure but as mentioned the water doesn't drain fast so you are standing in a tub full of water. Towels are small. Room and bathroom however were spotlessly clean.
+I went to reception to request extra pillows, waited 10 minutes while the only staff member checked in others to be told there are no extra pillows.
+Vending machines...We had a short layover at DFW and booked this property through their website. It looked ok on arrival, it's surrounded by many other airport hotels and motels but upon entering I quickly realised this is a very high turn over motel, kind of get them in and get them out quickly type place.Check in not at all friendly with the one lady behind the desk extremely busy taking calls while trying to check us in with many others trying to check in at the same time. No politeness, just a process and no small talk.Room booked was on a non smoking floor but upon entering the hallway we could smell cigarette smoke. Room was however smoke free.Room was disappointing. Very small and very basic with no frills. Advertised queen bed was actually just a double, no space to store luggage, very limited hanging space which was hidden and easily missed. Bedding was not good quality, sheet almost see through it was that thin and the two pillows very flat. Bathroom is adequate, very clean with extremely good shower pressure but as mentioned the water doesn't drain fast so you are standing in a tub full of water. Towels are small. Room and bathroom however were spotlessly clean.I went to reception to request extra pillows, waited 10 minutes while the only staff member checked in others to be told there are no extra pillows.Vending machines on all floors were out of order.Although this property is surrounded by many others there are no dining options nearby. The only choice you have is outsourced room service or tempting fate and crossing the very busy highway and walking 15 minutes to Denny's opposite the Westin Hotel. There is nothing else in walking distance.The week before we stayed in the southern area at Super 8 which was the same price but older property but in a much better location. At least there were several dining options available there.Motel 6 does have a pool but I would not choose to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r214486563-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>214486563</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>Bed Bugs!!</t>
+  </si>
+  <si>
+    <t>Just stayed here last night and woke up with bed bug bites. I frequently stay in motels in this area for just one night and while a cheap room often comes with a few less perks, bed bugs should never be tolerated. They can infest your suitcase and then your home. I won't be staying here ever again. Please do yourself a favor and avoid this place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r208022375-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>208022375</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Not bad, not great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms are kind of plain, no carpet or alarm clock. But they are clean, have decent tv's, and good air conditioners. The water pressure in the shower was great too. Not bad for a budget room. Better than sweating at the Red Roof because the air conditioner was older than me. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r205469778-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>205469778</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Very basic motel for the budget-minded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here the night before a flight out of DFW. It was very basic but clean. And cheap. The free airport shuttle was one reason I stayed here. Just make sure you sign up for it when you check in. My room was small and decorated in an Ikea-like style. No carpet, which I think is a bed bug preventative measure. There's nothing within a close walking distance. If you are willing to hoof it there is a gas station/Whataburger. I wouldn't recommend walking alone in the dark because it just felt unsafe. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r205188923-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>205188923</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>Not great....</t>
+  </si>
+  <si>
+    <t>Stayed here for a few nights back in the fall... The beds were the worst... Lots of noise from the hallway didn't sleep well at all... the staff is mediocre only stayed because of free points but surely won't be returning unless nothing else is available</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r200444632-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>200444632</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>You get what you pay for...</t>
+  </si>
+  <si>
+    <t>If you are looking a quick, cheap, clean room for layover or early flight, this is great option.I am a hilton guy all the time. That said, I did not want to spend 150 a night for 4 hours (had to be at DFW at 4:30 am after driving in late - the wife refused to spend the night in terminal)It is no frills but then again it was 54 a night with tax!Very clean, very basic, very close airport. Small rooms and paper thin walls but good option vs sleeping in terminal.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r186655374-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>186655374</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Served its purpose... Needs customer service </t>
+  </si>
+  <si>
+    <t>Arrived at this Motel 6 in need of a room for my next day 6am flight out of Dallas Fort Worth (DFW). Price was great. About $50 for 1 room for myself. Room had the feel of an ikea setup with everything conveniently placed. Room fit the bed and desk. Bathroom shower was all plastic (surprised more hotels/motels don't do that) which I liked.3 Stars given for girl at the front who checked me in, wake-up call and wall thickness. Explanations below.-checked in and asked lady how long it would take to drive to car rental area from here. DialogueEmployee: "I don't know"Myself: "I'm sure you get that question a lot"Employee: "I do, but I don't care to find out"-wake up call was requested for 3am. I got the call at 12am and never again at 3. Luckily I could hardly fall back asleep after the first one and the call was only a backup measure. -could hear my neighbours watching Seinfeld and the pizza guy delivering their pizza. Was hungry and almost asked for a piece.Tips: car rental is south side of airport and a quick back road 15min drive. Great location to airport and right next to a shuttle lot. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Arrived at this Motel 6 in need of a room for my next day 6am flight out of Dallas Fort Worth (DFW). Price was great. About $50 for 1 room for myself. Room had the feel of an ikea setup with everything conveniently placed. Room fit the bed and desk. Bathroom shower was all plastic (surprised more hotels/motels don't do that) which I liked.3 Stars given for girl at the front who checked me in, wake-up call and wall thickness. Explanations below.-checked in and asked lady how long it would take to drive to car rental area from here. DialogueEmployee: "I don't know"Myself: "I'm sure you get that question a lot"Employee: "I do, but I don't care to find out"-wake up call was requested for 3am. I got the call at 12am and never again at 3. Luckily I could hardly fall back asleep after the first one and the call was only a backup measure. -could hear my neighbours watching Seinfeld and the pizza guy delivering their pizza. Was hungry and almost asked for a piece.Tips: car rental is south side of airport and a quick back road 15min drive. Great location to airport and right next to a shuttle lot. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r183008314-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>183008314</t>
+  </si>
+  <si>
+    <t>10/30/2013</t>
+  </si>
+  <si>
+    <t>Great Value for Irving/Grapevine Stay</t>
+  </si>
+  <si>
+    <t>While this Motel 6 is definitely a no-frills establishment, the accommodations were comfortable and much nicer than the majority of Motel 6s you'll find on the road.The price fit just right, but beware, the rooms have no common amenities and functions such as no shampoo, limited towels, a small shower, no bathroom vent fan, no alarm clock and no closet.They have built in a mirror/clothes hanging module and a TV/desk module, but the TV is offset and should have been placed where the mirror is. Makes it hard to view the non-adjustable TV.No breakfast (for the price), but coffee is good. The hallway has a smokey smell if that bothers you.If you don't have a car - don't stay for more than a night. There are no restaurants within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>While this Motel 6 is definitely a no-frills establishment, the accommodations were comfortable and much nicer than the majority of Motel 6s you'll find on the road.The price fit just right, but beware, the rooms have no common amenities and functions such as no shampoo, limited towels, a small shower, no bathroom vent fan, no alarm clock and no closet.They have built in a mirror/clothes hanging module and a TV/desk module, but the TV is offset and should have been placed where the mirror is. Makes it hard to view the non-adjustable TV.No breakfast (for the price), but coffee is good. The hallway has a smokey smell if that bothers you.If you don't have a car - don't stay for more than a night. There are no restaurants within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r174874233-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>174874233</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>Top of the budget locations around DFW</t>
+  </si>
+  <si>
+    <t>This is a new Studio 6 location in what appears to be a new building. The rooms are European style and super functional. The property is very clean, well maintained and comfortable. Lots of good light to read or apply makeup by, and the wi-fi worked perfectly. I especially loved having access to an elevator so I didn't have to drag my heavy bags up a flight of stairs. Off the lobby are vending machines and a microwave. There's a nice pool available, too. Double glazed windows keep the aircraft noise to a minimum.   
+Three things to keep in mind: 
+1. No computer in the lobby for guests. Given that the DFW landing path goes right over the building, there are flight crews milling around in the lobby and the terminals are just a mile away, you would think that more care would be taken with amenities of concern to air travelers. Like a boarding-pass printer. 
+2. There was no closet in my room. If you need to hang a garment you want to wear the next day, draping it over a chair will have to do. 
+3. The staff is not hospitable, friendly or professional. They all behaved like sullen teenagers working in the family business. It's the little things like not writing down the number of the room (I got it wrong and had to go back to get it) and not giving the wifi password. And sounding...This is a new Studio 6 location in what appears to be a new building. The rooms are European style and super functional. The property is very clean, well maintained and comfortable. Lots of good light to read or apply makeup by, and the wi-fi worked perfectly. I especially loved having access to an elevator so I didn't have to drag my heavy bags up a flight of stairs. Off the lobby are vending machines and a microwave. There's a nice pool available, too. Double glazed windows keep the aircraft noise to a minimum.   Three things to keep in mind: 1. No computer in the lobby for guests. Given that the DFW landing path goes right over the building, there are flight crews milling around in the lobby and the terminals are just a mile away, you would think that more care would be taken with amenities of concern to air travelers. Like a boarding-pass printer. 2. There was no closet in my room. If you need to hang a garment you want to wear the next day, draping it over a chair will have to do. 3. The staff is not hospitable, friendly or professional. They all behaved like sullen teenagers working in the family business. It's the little things like not writing down the number of the room (I got it wrong and had to go back to get it) and not giving the wifi password. And sounding annoyed when I called to get it. Overall, however, this new, clean Studio 6 is a good value for budget travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a new Studio 6 location in what appears to be a new building. The rooms are European style and super functional. The property is very clean, well maintained and comfortable. Lots of good light to read or apply makeup by, and the wi-fi worked perfectly. I especially loved having access to an elevator so I didn't have to drag my heavy bags up a flight of stairs. Off the lobby are vending machines and a microwave. There's a nice pool available, too. Double glazed windows keep the aircraft noise to a minimum.   
+Three things to keep in mind: 
+1. No computer in the lobby for guests. Given that the DFW landing path goes right over the building, there are flight crews milling around in the lobby and the terminals are just a mile away, you would think that more care would be taken with amenities of concern to air travelers. Like a boarding-pass printer. 
+2. There was no closet in my room. If you need to hang a garment you want to wear the next day, draping it over a chair will have to do. 
+3. The staff is not hospitable, friendly or professional. They all behaved like sullen teenagers working in the family business. It's the little things like not writing down the number of the room (I got it wrong and had to go back to get it) and not giving the wifi password. And sounding...This is a new Studio 6 location in what appears to be a new building. The rooms are European style and super functional. The property is very clean, well maintained and comfortable. Lots of good light to read or apply makeup by, and the wi-fi worked perfectly. I especially loved having access to an elevator so I didn't have to drag my heavy bags up a flight of stairs. Off the lobby are vending machines and a microwave. There's a nice pool available, too. Double glazed windows keep the aircraft noise to a minimum.   Three things to keep in mind: 1. No computer in the lobby for guests. Given that the DFW landing path goes right over the building, there are flight crews milling around in the lobby and the terminals are just a mile away, you would think that more care would be taken with amenities of concern to air travelers. Like a boarding-pass printer. 2. There was no closet in my room. If you need to hang a garment you want to wear the next day, draping it over a chair will have to do. 3. The staff is not hospitable, friendly or professional. They all behaved like sullen teenagers working in the family business. It's the little things like not writing down the number of the room (I got it wrong and had to go back to get it) and not giving the wifi password. And sounding annoyed when I called to get it. Overall, however, this new, clean Studio 6 is a good value for budget travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r169337100-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>169337100</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Clean economical lodging</t>
+  </si>
+  <si>
+    <t>Check-in was easy and quick. The hotel has limited service but good value. Guests can use the microwave in the lobby. Hair dryers are available from the front desk. Guests can leave cars in the back lot for 4 days for free and after that for $4 per day.  The decor is European contemporary minimal design with laminate floors (easy to keep clean). The bathrooms have a corner tub/shower combo.  Many pilots and flight attendants stay here. You must sign up for the shuttle to the airport so be sure to do so at check-in. M6 shares the shuttle with other hotels so call IMMEDIATELY upon exiting your flight to avoid a l-o-n-g wait. And look for vans with M6 and/or Comfort Inn, Red Roof Inn, HI Exp etc. on the side as the shuttle may or may not have Motel 6 on the side.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Check-in was easy and quick. The hotel has limited service but good value. Guests can use the microwave in the lobby. Hair dryers are available from the front desk. Guests can leave cars in the back lot for 4 days for free and after that for $4 per day.  The decor is European contemporary minimal design with laminate floors (easy to keep clean). The bathrooms have a corner tub/shower combo.  Many pilots and flight attendants stay here. You must sign up for the shuttle to the airport so be sure to do so at check-in. M6 shares the shuttle with other hotels so call IMMEDIATELY upon exiting your flight to avoid a l-o-n-g wait. And look for vans with M6 and/or Comfort Inn, Red Roof Inn, HI Exp etc. on the side as the shuttle may or may not have Motel 6 on the side.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r166857939-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>166857939</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>good deal</t>
+  </si>
+  <si>
+    <t>stylish, awkward location but a real good deal. elevator not great. lobby is small. take this one over the nearby suite 6 if you can. it has  a refridgerator and a microwave but this one is better. front desk clerk not sure of herself.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r166056551-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>166056551</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>Terrific Customer Service</t>
+  </si>
+  <si>
+    <t>My expectations were completely exceeded. Nick at the front desk was amazingly helpful! I approached the desk thinking he might point me in the direction of where I might find help with my car, but he went above and beyond and helped me himself and was so friendly too. I will definitely come back here.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r164386470-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>164386470</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Better than I expected!</t>
+  </si>
+  <si>
+    <t>I stayed at this motel 6 on june 18th. Check-in was quick and easy no problem ,we signed up for our airport shuttle and even booked for another night on our return trip. The hotel room was nice though it did have the slight smell that someone had been smoking in it but we opened up a window and the smell went away quickly. Once again the hotel room was clean the bathroom was clean. Overall a good hotel. 
+Some of the things I didnt like though was the non soundproof rooms! I could litteraly hear everything the person was doing above me! When I asked the front desk clerk she had told me that a mother and her two kids were staying above me. Great! Well after about 8 the kids settled down and the noise quit.
+Also not enough pillows, but I could have easily asked for more so not much of a problem there. 
+The hotel does not have a breakfeast (though they do have coffee) but they do have vending machines that sell danishes etc they also have another that selles ravioli and other items that you could microwave. ( Which by the way the microwave is next to the vending machines). This hotel does not have an ATM machine but there is one at the sleep inn about 50 yards away.
+Overall better than what I expected from a motel 6. Def reccomend this to...I stayed at this motel 6 on june 18th. Check-in was quick and easy no problem ,we signed up for our airport shuttle and even booked for another night on our return trip. The hotel room was nice though it did have the slight smell that someone had been smoking in it but we opened up a window and the smell went away quickly. Once again the hotel room was clean the bathroom was clean. Overall a good hotel. Some of the things I didnt like though was the non soundproof rooms! I could litteraly hear everything the person was doing above me! When I asked the front desk clerk she had told me that a mother and her two kids were staying above me. Great! Well after about 8 the kids settled down and the noise quit.Also not enough pillows, but I could have easily asked for more so not much of a problem there. The hotel does not have a breakfeast (though they do have coffee) but they do have vending machines that sell danishes etc they also have another that selles ravioli and other items that you could microwave. ( Which by the way the microwave is next to the vending machines). This hotel does not have an ATM machine but there is one at the sleep inn about 50 yards away.Overall better than what I expected from a motel 6. Def reccomend this to people who want a nice hotel for a great price!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this motel 6 on june 18th. Check-in was quick and easy no problem ,we signed up for our airport shuttle and even booked for another night on our return trip. The hotel room was nice though it did have the slight smell that someone had been smoking in it but we opened up a window and the smell went away quickly. Once again the hotel room was clean the bathroom was clean. Overall a good hotel. 
+Some of the things I didnt like though was the non soundproof rooms! I could litteraly hear everything the person was doing above me! When I asked the front desk clerk she had told me that a mother and her two kids were staying above me. Great! Well after about 8 the kids settled down and the noise quit.
+Also not enough pillows, but I could have easily asked for more so not much of a problem there. 
+The hotel does not have a breakfeast (though they do have coffee) but they do have vending machines that sell danishes etc they also have another that selles ravioli and other items that you could microwave. ( Which by the way the microwave is next to the vending machines). This hotel does not have an ATM machine but there is one at the sleep inn about 50 yards away.
+Overall better than what I expected from a motel 6. Def reccomend this to...I stayed at this motel 6 on june 18th. Check-in was quick and easy no problem ,we signed up for our airport shuttle and even booked for another night on our return trip. The hotel room was nice though it did have the slight smell that someone had been smoking in it but we opened up a window and the smell went away quickly. Once again the hotel room was clean the bathroom was clean. Overall a good hotel. Some of the things I didnt like though was the non soundproof rooms! I could litteraly hear everything the person was doing above me! When I asked the front desk clerk she had told me that a mother and her two kids were staying above me. Great! Well after about 8 the kids settled down and the noise quit.Also not enough pillows, but I could have easily asked for more so not much of a problem there. The hotel does not have a breakfeast (though they do have coffee) but they do have vending machines that sell danishes etc they also have another that selles ravioli and other items that you could microwave. ( Which by the way the microwave is next to the vending machines). This hotel does not have an ATM machine but there is one at the sleep inn about 50 yards away.Overall better than what I expected from a motel 6. Def reccomend this to people who want a nice hotel for a great price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r160736829-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>160736829</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Overnight stay only</t>
+  </si>
+  <si>
+    <t>My friend and I recently stayed at Motel 6 before an early morning flight.  The hotel seemed a little cold and the attendant was really informal with us.  The room itself was updated, but the A/C was not working properly, so there was a lot of noise all night on top of the hollowness of the room which reverberated every sound.  It also sounded like someone was pounding on the desk throughout the night, needless to say I got very little sleep.This area of DFW is not the safest and there is construction everywhere.  The street that normally takes you straight to remote parking is closed, so be prepared to take the highway around to get to the airport.Maybe the location of the room was just not good, but I would definitely skip this place if you're planning on staying more than one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>My friend and I recently stayed at Motel 6 before an early morning flight.  The hotel seemed a little cold and the attendant was really informal with us.  The room itself was updated, but the A/C was not working properly, so there was a lot of noise all night on top of the hollowness of the room which reverberated every sound.  It also sounded like someone was pounding on the desk throughout the night, needless to say I got very little sleep.This area of DFW is not the safest and there is construction everywhere.  The street that normally takes you straight to remote parking is closed, so be prepared to take the highway around to get to the airport.Maybe the location of the room was just not good, but I would definitely skip this place if you're planning on staying more than one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r159562742-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>159562742</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>Clean &amp; Close</t>
+  </si>
+  <si>
+    <t>Clean, functional room which I used for a one night layover.  The hotel is close to DFW, though my GPS had a little trouble finding it due to road construction at the airport.  It's in a cluster of budget-priced hotels.  Completely adequate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r154961548-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>154961548</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Good value, clean, safe</t>
+  </si>
+  <si>
+    <t>If you want a hotel experience don't stay here.  But if you want a great price for a clean room, friendly staff, and feeling safe coming in late at night its a good deal.  Plenty of hot water.  Internet is decent although it will kick you out if you stream very long on Netflix.  I appreciated that they gave me a late check out do to a flight cancelation.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r154817004-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>154817004</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>Cheap &amp; a place to park your vehicle</t>
+  </si>
+  <si>
+    <t>If you want CHEAP this is it. Bare Necessities for sure, slippery bare floors, my husband almost fell after showering!  small bath towels barely dried him off.  Also  BYOB***Bring Your Own Bottle NO shampoo, NO in room hair dryer (had to ask for one from the front desk)  NO in room coffee.  They do have Vending snack machines in the lobby, that's a good thing since there is only one  near by place to eat.(a burger place &amp; expensive gas station/mini mart)*** On the PLUS Side*** they DO allow guest to leave their vehicles parked out back, up to 4 days for FREE ( Not responsible for theft or damages) and there's a Free shuttle service  to &amp; from the airport. So that makes this a Good Deal!! There was a decent pot of FREE coffee in the lobby in the AM so that helped perk me up!  FYI The Toll road 121 leading to DFW airport &amp; this hotel are under construction with major AM Delays  in &amp; around the airport. If you're heading to DFW for a flight? Give yourself Extra time, You'll need it !MoreShow less</t>
+  </si>
+  <si>
+    <t>If you want CHEAP this is it. Bare Necessities for sure, slippery bare floors, my husband almost fell after showering!  small bath towels barely dried him off.  Also  BYOB***Bring Your Own Bottle NO shampoo, NO in room hair dryer (had to ask for one from the front desk)  NO in room coffee.  They do have Vending snack machines in the lobby, that's a good thing since there is only one  near by place to eat.(a burger place &amp; expensive gas station/mini mart)*** On the PLUS Side*** they DO allow guest to leave their vehicles parked out back, up to 4 days for FREE ( Not responsible for theft or damages) and there's a Free shuttle service  to &amp; from the airport. So that makes this a Good Deal!! There was a decent pot of FREE coffee in the lobby in the AM so that helped perk me up!  FYI The Toll road 121 leading to DFW airport &amp; this hotel are under construction with major AM Delays  in &amp; around the airport. If you're heading to DFW for a flight? Give yourself Extra time, You'll need it !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r153182873-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>153182873</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here the night prior to our flight out to Mexico...The location was very close to DFW airport and they offered free parking for 4 days and 4$ per adtl. day which was a great deal compared to airport parking..All in all the hotel paid for itself just in parking...As far as the room...it was very small but newly renovated...looked like something outta an IKEA ad which was neat...small wasn’t a big deal cause it was only for one night..So if u just need a place to stay and park before a flight i do recommend Motel 6..</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r150292500-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>150292500</t>
+  </si>
+  <si>
+    <t>01/22/2013</t>
+  </si>
+  <si>
+    <t>Almost clean and barely functioning shower</t>
+  </si>
+  <si>
+    <t>Room looked tidy and didn't have any unpleasant odors. However there was hair on the toilet seat and it looked like it had never been replaced since they built the hotel. There was also hair on the pillows.When I went to take a shower in the morning before jetting off to the airport the shower lever was very loose and did not work when turned. If you overturned it (to the point of where you were exposing underlying piping between the lever and the wall) then the water came on, but it just sputtered out with little water pressure.I chose this hotel because it was cheap and had good reviews. Although I liked the price, I disagree with the reviews.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room looked tidy and didn't have any unpleasant odors. However there was hair on the toilet seat and it looked like it had never been replaced since they built the hotel. There was also hair on the pillows.When I went to take a shower in the morning before jetting off to the airport the shower lever was very loose and did not work when turned. If you overturned it (to the point of where you were exposing underlying piping between the lever and the wall) then the water came on, but it just sputtered out with little water pressure.I chose this hotel because it was cheap and had good reviews. Although I liked the price, I disagree with the reviews.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r145859137-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>145859137</t>
+  </si>
+  <si>
+    <t>11/20/2012</t>
+  </si>
+  <si>
+    <t>Good deal nice room.</t>
+  </si>
+  <si>
+    <t>I stay here when I travel to my daughter's.  I always feel safe and the room is nice.  Free parking and airport shuttle is a big factor in my decision to stay at this motel..  I have stayed here several times and always have had a good experience.  The staff is friendly and courteous.  I will definitely stay here again on my next trip.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r145047872-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>145047872</t>
+  </si>
+  <si>
+    <t>11/09/2012</t>
+  </si>
+  <si>
+    <t>Good Nite stay!</t>
+  </si>
+  <si>
+    <t>We have stayed here many times in over the years &amp; have always had a good experience. The remodel is nice too.The beds are good , clean &amp; convenient for DFW.I would recommend this motel to friends &amp; family.The road construction - to the west- is bad, so we did not return to stay at this location this fall.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r141448514-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>141448514</t>
+  </si>
+  <si>
+    <t>09/27/2012</t>
+  </si>
+  <si>
+    <t>No Better Deal</t>
+  </si>
+  <si>
+    <t>This place is clean, affordable, convenient. We like it. The best news is that they take you to and from your plane and let you leave your car at the motel: SUCH A DEAL! I read another review that was not too complimentary; it talked about long check-in line in lobby, but I don't think the loby is large enough to hold much of a line. People on the shuttle told us they had paid $100 at the hotel next door. I like this Motel 6, but my wife and I think it is time for them to rename themself Motel 60. I do remember saying ina Motel 6 in Tennessee in 1969 and paying $6 for the room, but times are a-changing.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is clean, affordable, convenient. We like it. The best news is that they take you to and from your plane and let you leave your car at the motel: SUCH A DEAL! I read another review that was not too complimentary; it talked about long check-in line in lobby, but I don't think the loby is large enough to hold much of a line. People on the shuttle told us they had paid $100 at the hotel next door. I like this Motel 6, but my wife and I think it is time for them to rename themself Motel 60. I do remember saying ina Motel 6 in Tennessee in 1969 and paying $6 for the room, but times are a-changing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r141389772-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>141389772</t>
+  </si>
+  <si>
+    <t>just what i needed</t>
+  </si>
+  <si>
+    <t>I was in dallas just waiting for a flight and I had to book the hotel from the airport. It was easy to book and the shuttle bus from the airport to the hotel is really really easy to take. it is a mini van that has a lot of hotel logos on the outside. The staff was really nice. The hotel does not has restaurant nor anythings, just a couple of vending machines but the offer you the local restaurant menus and you can always buy water. I was going on very long flight so I needed to rest as well as possible, the curtain were very thick and I could rest well. Basically i like it, there is luxury hotel but you do not need more.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in dallas just waiting for a flight and I had to book the hotel from the airport. It was easy to book and the shuttle bus from the airport to the hotel is really really easy to take. it is a mini van that has a lot of hotel logos on the outside. The staff was really nice. The hotel does not has restaurant nor anythings, just a couple of vending machines but the offer you the local restaurant menus and you can always buy water. I was going on very long flight so I needed to rest as well as possible, the curtain were very thick and I could rest well. Basically i like it, there is luxury hotel but you do not need more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r135970016-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>135970016</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Yuck!!</t>
+  </si>
+  <si>
+    <t>So I checked into this motel at 1am and the pimply faced kid behind the counter said there was 1 room left and it was not the smoking room I reserved. He said he had heard earlier that one of the beds in the room I was to be given had been wet. He went to check and make sure it was ok. He came back and said it was fine. He made up the bed with a sheet and 2 brown blankets. Now it was late and I was just there for the one night so I took the room. The kid also mention that if I needed anything like a foot rub, don't hesitate to ask. YUCK!!! That was highly inappropriate. Anyways, I got to the room and was immediately hit but the smell of mildew coming from the a/c unit. It was hard to sleep but I threw the covers over my head and that kinda helped. The only good thing I will say about this place is the bed was comfy and the flooring was nice. Next time I am in town I will spend $10 more and stay at Red Roof.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>So I checked into this motel at 1am and the pimply faced kid behind the counter said there was 1 room left and it was not the smoking room I reserved. He said he had heard earlier that one of the beds in the room I was to be given had been wet. He went to check and make sure it was ok. He came back and said it was fine. He made up the bed with a sheet and 2 brown blankets. Now it was late and I was just there for the one night so I took the room. The kid also mention that if I needed anything like a foot rub, don't hesitate to ask. YUCK!!! That was highly inappropriate. Anyways, I got to the room and was immediately hit but the smell of mildew coming from the a/c unit. It was hard to sleep but I threw the covers over my head and that kinda helped. The only good thing I will say about this place is the bed was comfy and the flooring was nice. Next time I am in town I will spend $10 more and stay at Red Roof.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r134433403-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>134433403</t>
+  </si>
+  <si>
+    <t>07/15/2012</t>
+  </si>
+  <si>
+    <t>Clean and Nice</t>
+  </si>
+  <si>
+    <t>Up dated a few years ago, this Motel 6 is not what you might think a Motel 6 is like.  It is clean, modern and comfortable.  There is a shuttle to and from the airport.  The staff stays on top of things.  It is a great place to stay.  The only downside is that unless you have a car, it can be difficult to find something to eat.  Best bet, eat at the airport before going to the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r133362564-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>133362564</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>Disney World Experience extended by Motel 6!</t>
+  </si>
+  <si>
+    <t>We recently took three teenagers to Disney World and flew out of DFW.  We got two adjoining rooms at Motel 6 #4728 and it was GREAT!  We all loved the modern decor and looked forward to coming back after our trip.  The staff was absolutely awesome!  Nisha was so polite and knowledgeable and accomodating (this girl is going to go far!)  We caught the shuttle to and from the airport and were able to leave our vehicles parked at the hotel while we were gone!  Motel 6 helped make our trip worry-free and hassle-free at a great price! We go to Dallas often to visit our college-age daughter and will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>We recently took three teenagers to Disney World and flew out of DFW.  We got two adjoining rooms at Motel 6 #4728 and it was GREAT!  We all loved the modern decor and looked forward to coming back after our trip.  The staff was absolutely awesome!  Nisha was so polite and knowledgeable and accomodating (this girl is going to go far!)  We caught the shuttle to and from the airport and were able to leave our vehicles parked at the hotel while we were gone!  Motel 6 helped make our trip worry-free and hassle-free at a great price! We go to Dallas often to visit our college-age daughter and will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r133214404-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>133214404</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>I love this motel 6</t>
+  </si>
+  <si>
+    <t>Can't bet the price for this place, especially for the quality this place offers. We keep coming back every time. The front desk was awesome for us.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r130946952-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>130946952</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>If you are stranded at DFW DO NOT think about coming here</t>
+  </si>
+  <si>
+    <t>I had 2 guys who were stranded at DFW due to the weather and had to locate a hotel for them to stay until their flight the next day. Based on the reviews I had read this property was perfect and booked a double room. Then I called to ask for a third party credit card authorization form. Angelica told me that they had changed management from a corporate property to a franchise. She also told me they no longer do the third party credit card charges nor do they allow anyone to check in before their 3pm checkin time. When I questioned her if that policy also included those that were stranded at the airport, she said absolutely. I was a bit shocked at the lack of customer service and cancelled the room immediately. I called the Comfort Inn North and had no problem booking a room, getting a third party credit card authorization form AND a shuttle to pick them up within 10 minutes AND they were able to check in immediately! Now THAT is what I call customer service! Motel 6 could learn a lot from Comfort Inn DFW North!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I had 2 guys who were stranded at DFW due to the weather and had to locate a hotel for them to stay until their flight the next day. Based on the reviews I had read this property was perfect and booked a double room. Then I called to ask for a third party credit card authorization form. Angelica told me that they had changed management from a corporate property to a franchise. She also told me they no longer do the third party credit card charges nor do they allow anyone to check in before their 3pm checkin time. When I questioned her if that policy also included those that were stranded at the airport, she said absolutely. I was a bit shocked at the lack of customer service and cancelled the room immediately. I called the Comfort Inn North and had no problem booking a room, getting a third party credit card authorization form AND a shuttle to pick them up within 10 minutes AND they were able to check in immediately! Now THAT is what I call customer service! Motel 6 could learn a lot from Comfort Inn DFW North!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r127865131-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>127865131</t>
+  </si>
+  <si>
+    <t>04/14/2012</t>
+  </si>
+  <si>
+    <t>Park &amp; Fly</t>
+  </si>
+  <si>
+    <t>The first time I stayed there, I was pretty surprised by the room.  No carpet - a synthetic wood-like floor!?!?  Then it dawned on me - it has GOT to be cleaner than any hotel carpet - neat.  What, no closet?!?!  Hmm, it isn't like I'm moving in, I just need to hang a fewthings up, and there is an area perfect for that - cool.  What's with the bathroom and the corner shaped tub?  I wonder where I can find one of those?  Smart.  The accomodations are not the "usual" hotel style - they are a well thought out "different" that you really appreciate after you stay there.The staff is nice, the prices are right, the shuttle to the airport is efficient, and I can leave my car there for no extra charge!  This is the cleanest Motel 6 you'll ever find, I have told friends about this place, and now they are all addicted - there is no better deal near the DFW airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>The first time I stayed there, I was pretty surprised by the room.  No carpet - a synthetic wood-like floor!?!?  Then it dawned on me - it has GOT to be cleaner than any hotel carpet - neat.  What, no closet?!?!  Hmm, it isn't like I'm moving in, I just need to hang a fewthings up, and there is an area perfect for that - cool.  What's with the bathroom and the corner shaped tub?  I wonder where I can find one of those?  Smart.  The accomodations are not the "usual" hotel style - they are a well thought out "different" that you really appreciate after you stay there.The staff is nice, the prices are right, the shuttle to the airport is efficient, and I can leave my car there for no extra charge!  This is the cleanest Motel 6 you'll ever find, I have told friends about this place, and now they are all addicted - there is no better deal near the DFW airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r126922340-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>126922340</t>
+  </si>
+  <si>
+    <t>03/29/2012</t>
+  </si>
+  <si>
+    <t>Great Price.</t>
+  </si>
+  <si>
+    <t>This is one of the better Motel 6's I have stayed in. The staff is great very helpful &amp; friendly, Has a pool and laundry,very clean. The only draw back is you need to pay $ 2.99 per day for internet.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r123630919-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>123630919</t>
+  </si>
+  <si>
+    <t>01/25/2012</t>
+  </si>
+  <si>
+    <t>Clean, convenient and good value</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel on two occasions in January 2012. This is the best Motel 6 I have ever come across. I think the rooms must have been refurbished in the recent past. The week before I had stayed in one in OKC and it was terrible. The rooms are basic but they are clean and functional which are the main things for me. The floors are covered in wood instead of the usual low grade carpet.The receptionist on my second stay was excellent and offered me a room with two beds so I could do some packing/unpacking of my suitcases on one of them. She was extremely friendly and efficient. The only minus points are the speed of the wifi and the shower in my second room was a much reduced pressure compared to my first. But these really are minor niggles.  If you need to fly out of DFW and just need a room for the night at a budget price I don't think you can do better than this.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel on two occasions in January 2012. This is the best Motel 6 I have ever come across. I think the rooms must have been refurbished in the recent past. The week before I had stayed in one in OKC and it was terrible. The rooms are basic but they are clean and functional which are the main things for me. The floors are covered in wood instead of the usual low grade carpet.The receptionist on my second stay was excellent and offered me a room with two beds so I could do some packing/unpacking of my suitcases on one of them. She was extremely friendly and efficient. The only minus points are the speed of the wifi and the shower in my second room was a much reduced pressure compared to my first. But these really are minor niggles.  If you need to fly out of DFW and just need a room for the night at a budget price I don't think you can do better than this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r123234539-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>123234539</t>
+  </si>
+  <si>
+    <t>01/17/2012</t>
+  </si>
+  <si>
+    <t>Great Place To Stay</t>
+  </si>
+  <si>
+    <t>I recently found myself without a job or place to stay.  When I checked into this motel and told them my story, they made every effort to make what turned out to be an extended stay, very comfortable.  I cannot say enough about the warm and friendly attitude of the staff and management.  All of this along with the newly refreshed rooms made this a very positive experience.  For the money, Motel 6 turns out to be quite the value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r121751067-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>121751067</t>
+  </si>
+  <si>
+    <t>12/14/2011</t>
+  </si>
+  <si>
+    <t>Wow!</t>
+  </si>
+  <si>
+    <t>Let me preface this by saying my experience with Motel 6 has generally not been positive.  Many of them are run-down and in crappy areas.  By any measure, this was my best stay at a Motel 6 ever.  The rooms were very clean and had a European-style to them (I believe I paid around $45).  The service was quick and efficient.  Located only a few miles from the airport, the free shuttle was right on time at 5:15 AM!  For getting in-and-out of DFW, you can't beat this steal of a deal.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r118876442-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>118876442</t>
+  </si>
+  <si>
+    <t>10/03/2011</t>
+  </si>
+  <si>
+    <t>Best Motel 6 Ever!</t>
+  </si>
+  <si>
+    <t>Super surprised to discover this location. I was staying one night and arrived late with no reservation. I was lost and called the motel for directions. The young lady at the desk was very sweet, and stayed on the phone with me to assist me with where I was and how to get there. Room reminded me of several nice rooms I had in a recent trip to Europe. Very modern, clean and roomy. I loved the fact that there was no carpeting. Very clean floor with no terrible smells or that sticky feeling that even the best of motels have when carpeted. Nice large counter top in bathroom with tub liner in the bath and shower that had no missing caulk or leaks. EXCELLENT bed and bedding. This will be my home base any time I go back to Dallas area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Super surprised to discover this location. I was staying one night and arrived late with no reservation. I was lost and called the motel for directions. The young lady at the desk was very sweet, and stayed on the phone with me to assist me with where I was and how to get there. Room reminded me of several nice rooms I had in a recent trip to Europe. Very modern, clean and roomy. I loved the fact that there was no carpeting. Very clean floor with no terrible smells or that sticky feeling that even the best of motels have when carpeted. Nice large counter top in bathroom with tub liner in the bath and shower that had no missing caulk or leaks. EXCELLENT bed and bedding. This will be my home base any time I go back to Dallas area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r118249524-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>118249524</t>
+  </si>
+  <si>
+    <t>09/17/2011</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>Have never stayed in a  Motel 6 before but after reading the reviews on Tripadvisor and needing a hotel at the airport I decided to give this a try and was glad we did.After dropping our rental car at the airport we rang the hotel for collection, we were advised to call again when we got to a specific terminal and gate, which we did, thanks to some great American Airlines staff. The bus arrived within 15 minutes. Donna checked us in quickly, arranged a wake up call and shuttle collection for early the next morning. Our room was clean, with comfy bed and widescreen TV.There isn't much around the motel, apart from other motels and inns. We walked about 15mins to the Sheraton for something to eat , bar food here is quite reasonably priced. Donna also gave us plenty of dine in menus for the local restaurants and we did see at least 3 of these deliveres while we were there. Wake up call was on time and the shuttle arrived prompty. I think the shuttle does service other hotels in the area also so that might explain some of the delays experienced by some guests. For a cheap night stay at the airport you can't really go wrong here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Have never stayed in a  Motel 6 before but after reading the reviews on Tripadvisor and needing a hotel at the airport I decided to give this a try and was glad we did.After dropping our rental car at the airport we rang the hotel for collection, we were advised to call again when we got to a specific terminal and gate, which we did, thanks to some great American Airlines staff. The bus arrived within 15 minutes. Donna checked us in quickly, arranged a wake up call and shuttle collection for early the next morning. Our room was clean, with comfy bed and widescreen TV.There isn't much around the motel, apart from other motels and inns. We walked about 15mins to the Sheraton for something to eat , bar food here is quite reasonably priced. Donna also gave us plenty of dine in menus for the local restaurants and we did see at least 3 of these deliveres while we were there. Wake up call was on time and the shuttle arrived prompty. I think the shuttle does service other hotels in the area also so that might explain some of the delays experienced by some guests. For a cheap night stay at the airport you can't really go wrong here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r118110828-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>118110828</t>
+  </si>
+  <si>
+    <t>09/14/2011</t>
+  </si>
+  <si>
+    <t>Low rate plus free parking = value!</t>
+  </si>
+  <si>
+    <t>I had known of this property for a long time, and was aware that they allowed up to a couple of weeks parking, and we decided to give it a try when we flew out of DFW.  
+It's been decades since I had stayed in a Motel 6, and was not expecting too much.
+The location is right in the heart of several of the DFW north area parking services and other airport hotels.  The lobby is more of a passage way, not much to it at all and certainly nothing impressive ....after all this is a Motel 6.
+However, the room was a pleasant surprise -- kind of a funky decor....think of a dorm room in a Jetsons motif (does this tell my age?).  Upon seeing the platform beds, I was very concerned....it's literally a mattress (no box springs) on top of a platform (like a rubber edged work table at the office) about 12 to 18 inches above the floor -- but it was very comfortable (I can't stand a soft or worn out mattress and this was neither).  We liked the fact that the room was not carpeted...it seemed easier for them to keep clean and everything about the room was clean.   I don't know if the drapes were black-out sufficient, as we had to leave at 4am to catch our flight.
+They offer a shuttle to DFW  (via a contractor) and in the very early hours...I had known of this property for a long time, and was aware that they allowed up to a couple of weeks parking, and we decided to give it a try when we flew out of DFW.  It's been decades since I had stayed in a Motel 6, and was not expecting too much.The location is right in the heart of several of the DFW north area parking services and other airport hotels.  The lobby is more of a passage way, not much to it at all and certainly nothing impressive ....after all this is a Motel 6.However, the room was a pleasant surprise -- kind of a funky decor....think of a dorm room in a Jetsons motif (does this tell my age?).  Upon seeing the platform beds, I was very concerned....it's literally a mattress (no box springs) on top of a platform (like a rubber edged work table at the office) about 12 to 18 inches above the floor -- but it was very comfortable (I can't stand a soft or worn out mattress and this was neither).  We liked the fact that the room was not carpeted...it seemed easier for them to keep clean and everything about the room was clean.   I don't know if the drapes were black-out sufficient, as we had to leave at 4am to catch our flight.They offer a shuttle to DFW  (via a contractor) and in the very early hours and very late hours, it only runs once an hour (at 15 min. after the hour)...so planning ahead is essential if you fall into these times.  On the return, we did have to wait 45 min. or more for pick up atDFW, but again I have to stress that for about $52.00 including tax and parking, you're notgoing to beat it.  The ground floor seemed somewhat noisy, due to the close proximity of some of the rooms to the front desk, and the clerk admitted to me that her voice carried to some of those rooms. Fortunately we were on the 2nd or 3rd floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>I had known of this property for a long time, and was aware that they allowed up to a couple of weeks parking, and we decided to give it a try when we flew out of DFW.  
+It's been decades since I had stayed in a Motel 6, and was not expecting too much.
+The location is right in the heart of several of the DFW north area parking services and other airport hotels.  The lobby is more of a passage way, not much to it at all and certainly nothing impressive ....after all this is a Motel 6.
+However, the room was a pleasant surprise -- kind of a funky decor....think of a dorm room in a Jetsons motif (does this tell my age?).  Upon seeing the platform beds, I was very concerned....it's literally a mattress (no box springs) on top of a platform (like a rubber edged work table at the office) about 12 to 18 inches above the floor -- but it was very comfortable (I can't stand a soft or worn out mattress and this was neither).  We liked the fact that the room was not carpeted...it seemed easier for them to keep clean and everything about the room was clean.   I don't know if the drapes were black-out sufficient, as we had to leave at 4am to catch our flight.
+They offer a shuttle to DFW  (via a contractor) and in the very early hours...I had known of this property for a long time, and was aware that they allowed up to a couple of weeks parking, and we decided to give it a try when we flew out of DFW.  It's been decades since I had stayed in a Motel 6, and was not expecting too much.The location is right in the heart of several of the DFW north area parking services and other airport hotels.  The lobby is more of a passage way, not much to it at all and certainly nothing impressive ....after all this is a Motel 6.However, the room was a pleasant surprise -- kind of a funky decor....think of a dorm room in a Jetsons motif (does this tell my age?).  Upon seeing the platform beds, I was very concerned....it's literally a mattress (no box springs) on top of a platform (like a rubber edged work table at the office) about 12 to 18 inches above the floor -- but it was very comfortable (I can't stand a soft or worn out mattress and this was neither).  We liked the fact that the room was not carpeted...it seemed easier for them to keep clean and everything about the room was clean.   I don't know if the drapes were black-out sufficient, as we had to leave at 4am to catch our flight.They offer a shuttle to DFW  (via a contractor) and in the very early hours and very late hours, it only runs once an hour (at 15 min. after the hour)...so planning ahead is essential if you fall into these times.  On the return, we did have to wait 45 min. or more for pick up atDFW, but again I have to stress that for about $52.00 including tax and parking, you're notgoing to beat it.  The ground floor seemed somewhat noisy, due to the close proximity of some of the rooms to the front desk, and the clerk admitted to me that her voice carried to some of those rooms. Fortunately we were on the 2nd or 3rd floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r112489465-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>112489465</t>
+  </si>
+  <si>
+    <t>06/09/2011</t>
+  </si>
+  <si>
+    <t>First Motel 6 experience and it wont be my last !!</t>
+  </si>
+  <si>
+    <t>This is the first time I have ever stayed at a Motel 6, I guess I have unfairly avoided them, but after reading the reviews on Tripadvisor and particularly for the DFW North establishment, I thought i'd give it a go..  I'm so glad I did.. From the time I arrived, the lone receptionist was dealing with a lot of requests and people waiting. She remained calm and composed, friendly and helpful and never let the pressure detract from her professional level of customer service. After checking in, I went to my room and another surprise, it was totally modern, impecabably clean and looked like it had been recently refurbished. Flat screen TV, modern bathroom, plenty of fresh towels, in other words, all you need. The only thing missing, was a coffee maker, but the hotel offered free coffee in the lobby in the morning up to 1030 I think. Internet was $2.99 for 24 hours and it was fast. Overall, a true 5 star experience and I cant wait to come back. I am a platinum member of Intercontinental Hotel group, so normally stick to the Holiday Inn's (and there was one around the corner from Motel 6), but when returning to DFW, I will stay at this Motel 6, without question !!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>This is the first time I have ever stayed at a Motel 6, I guess I have unfairly avoided them, but after reading the reviews on Tripadvisor and particularly for the DFW North establishment, I thought i'd give it a go..  I'm so glad I did.. From the time I arrived, the lone receptionist was dealing with a lot of requests and people waiting. She remained calm and composed, friendly and helpful and never let the pressure detract from her professional level of customer service. After checking in, I went to my room and another surprise, it was totally modern, impecabably clean and looked like it had been recently refurbished. Flat screen TV, modern bathroom, plenty of fresh towels, in other words, all you need. The only thing missing, was a coffee maker, but the hotel offered free coffee in the lobby in the morning up to 1030 I think. Internet was $2.99 for 24 hours and it was fast. Overall, a true 5 star experience and I cant wait to come back. I am a platinum member of Intercontinental Hotel group, so normally stick to the Holiday Inn's (and there was one around the corner from Motel 6), but when returning to DFW, I will stay at this Motel 6, without question !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r109874274-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>109874274</t>
+  </si>
+  <si>
+    <t>05/25/2011</t>
+  </si>
+  <si>
+    <t>Stayed a week</t>
+  </si>
+  <si>
+    <t>Stayed a week here, and was happy with the renovated rooms. There is no coffee maker in the room but they do provide coffee in the small lobby. There was a small pool that looked better in the pictures and was closed for maintenance while I was there. The flat screen LCD TV is a nice touch and looked great. The entire room has a faux wood flooring but it looks nice and doesnt feel bad either. The bed is a little stiff but I didnt have any trouble sleeping. The rooms do not come with shampoo so plan accordingly. Also there is a $2.99 ( no tax ) Wi-fi card that must be purchased every day or in bulk for you to gain internet access, so if you find this hotel a few bucks cheaper than a hotel that offers free wifi please take the wifi card purchase into account. There is nothing real close to walk to other than a few other hotels. There is a WhataBurger/Gas station about 8 minute walk away, good burgers there and well worth the walk. Overall it was a nice change for the usual Motel 6 rooms and I would stay here again if the Red Roof Inn was every booked full.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>Stayed a week here, and was happy with the renovated rooms. There is no coffee maker in the room but they do provide coffee in the small lobby. There was a small pool that looked better in the pictures and was closed for maintenance while I was there. The flat screen LCD TV is a nice touch and looked great. The entire room has a faux wood flooring but it looks nice and doesnt feel bad either. The bed is a little stiff but I didnt have any trouble sleeping. The rooms do not come with shampoo so plan accordingly. Also there is a $2.99 ( no tax ) Wi-fi card that must be purchased every day or in bulk for you to gain internet access, so if you find this hotel a few bucks cheaper than a hotel that offers free wifi please take the wifi card purchase into account. There is nothing real close to walk to other than a few other hotels. There is a WhataBurger/Gas station about 8 minute walk away, good burgers there and well worth the walk. Overall it was a nice change for the usual Motel 6 rooms and I would stay here again if the Red Roof Inn was every booked full.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r105017391-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>105017391</t>
+  </si>
+  <si>
+    <t>04/22/2011</t>
+  </si>
+  <si>
+    <t>Lovely, Clean, Motel 6, What a value and close to airport !!!</t>
+  </si>
+  <si>
+    <t>These owners deserve a medal, what a marvelous, spotlessly clean and modern Motel 6. I didn't know this brand name had a Motel like this. Small but very boutique looking room and bathroom. Very close to DFW with a free shuttle. Nice, friendly staff, it looks and smells fresh and new as you walk in the door, and all for about $45 a night, God bless them. We usually stay in 4-5 Star hotels and are big travelers so we have seen it all. I was alone and just chose a Motel 6 for convenience between flights, expecting a bit of a dump frankly. This is a superb value, ( No, I don't own the place or have any connection !!!! )MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>These owners deserve a medal, what a marvelous, spotlessly clean and modern Motel 6. I didn't know this brand name had a Motel like this. Small but very boutique looking room and bathroom. Very close to DFW with a free shuttle. Nice, friendly staff, it looks and smells fresh and new as you walk in the door, and all for about $45 a night, God bless them. We usually stay in 4-5 Star hotels and are big travelers so we have seen it all. I was alone and just chose a Motel 6 for convenience between flights, expecting a bit of a dump frankly. This is a superb value, ( No, I don't own the place or have any connection !!!! )More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r94541445-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>94541445</t>
+  </si>
+  <si>
+    <t>01/26/2011</t>
+  </si>
+  <si>
+    <t>Wonderful Stay! Couldn't believe this was a Motel 6</t>
+  </si>
+  <si>
+    <t>My husband and I needed a cheap place to stay one night when we had a layover for a flight. I am an avid researcher when it comes to places we stay, eat, vacation, etc. and was a little leery about staying at a Motel 6. After viewing the pictures of the new renovation though, I decided we could do it for a night.I am SO happy we did! The clerk at the front desk was incredibly helpful in guiding us to a place to eat. Check-in was simple and pain-free (which isn't always the case when you reserve your room online) and the room was excellent for the price. The room was clean - not a hair, bug or stain to be found (and I always inspect thoroughly) - as was the bathroom. The water pressure was surprisingly strong in the shower, which was nice, and the TV had extended cable. The bed was comfortable and when we asked for extra towels, they were delivered promptly.The free shuttle to the airport was a wonderful bonus and arrived right on time.If you need a cheap place to stay for a short or extended time, we highly recommend this hotel. We will be staying here anytime we have a layover in Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>My husband and I needed a cheap place to stay one night when we had a layover for a flight. I am an avid researcher when it comes to places we stay, eat, vacation, etc. and was a little leery about staying at a Motel 6. After viewing the pictures of the new renovation though, I decided we could do it for a night.I am SO happy we did! The clerk at the front desk was incredibly helpful in guiding us to a place to eat. Check-in was simple and pain-free (which isn't always the case when you reserve your room online) and the room was excellent for the price. The room was clean - not a hair, bug or stain to be found (and I always inspect thoroughly) - as was the bathroom. The water pressure was surprisingly strong in the shower, which was nice, and the TV had extended cable. The bed was comfortable and when we asked for extra towels, they were delivered promptly.The free shuttle to the airport was a wonderful bonus and arrived right on time.If you need a cheap place to stay for a short or extended time, we highly recommend this hotel. We will be staying here anytime we have a layover in Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r89059267-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>89059267</t>
+  </si>
+  <si>
+    <t>12/05/2010</t>
+  </si>
+  <si>
+    <t>$42 GREAT FOR DFW LAYOVERS; MINIMAL WAIT FOR FREE SHUTTLE FROM TERMINAL</t>
+  </si>
+  <si>
+    <t>I agree with all the other reviewers; this is great value; I paid discounted internet rate of $36+tax=$41.39. i had small room with full bed; LCD TV has limited channels but enough to pass time.  Called for shuttle from terminal and shuttle [white van with HOTEL SHUTTLE written in geen letters] arrived at DFW terminal within fifteen minutes going to motel and ten minutes for return; shuttle operates 24/7 though verify at check-in. Great place to sleep if you have a long layover; I asked for and got quiet room in back away from freeway noise. Interior corridors and elevator.  Only soap provided so bring own shampoo, etc. Front desk was cordial and efficient enough.  I did not use WI-FI so cannot comment on that.  Drawback is location is not near any restaurant or eating place but you can have take-out delivered.  If you have car and are visiting Dallas/Arlington/Fort Worth on tight budget, I doubt you could find better value.  Very clean; wood floors without carpetingMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>I agree with all the other reviewers; this is great value; I paid discounted internet rate of $36+tax=$41.39. i had small room with full bed; LCD TV has limited channels but enough to pass time.  Called for shuttle from terminal and shuttle [white van with HOTEL SHUTTLE written in geen letters] arrived at DFW terminal within fifteen minutes going to motel and ten minutes for return; shuttle operates 24/7 though verify at check-in. Great place to sleep if you have a long layover; I asked for and got quiet room in back away from freeway noise. Interior corridors and elevator.  Only soap provided so bring own shampoo, etc. Front desk was cordial and efficient enough.  I did not use WI-FI so cannot comment on that.  Drawback is location is not near any restaurant or eating place but you can have take-out delivered.  If you have car and are visiting Dallas/Arlington/Fort Worth on tight budget, I doubt you could find better value.  Very clean; wood floors without carpetingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r88602757-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>88602757</t>
+  </si>
+  <si>
+    <t>11/29/2010</t>
+  </si>
+  <si>
+    <t>Ummm...This is a Motel 6???</t>
+  </si>
+  <si>
+    <t>My fiancee and I decided to visit the Dallas area for a weekend just for relaxation's sake, when it came down to picking a motel I wanted something that would be about an equal distance between Dallas and Fort Worth since we were going to be visiting the museums in both cities. We decided on the motel 6 since it was REALLY cheap and we didn't have much money at the time. When we arrived at the motel we were blown away by the size of the place. We were checked-in in a timely manner and the clerk was very friendly. When we got to our room, we were suprised to see that it was actually very nice. The only real downside to the room was it was a little on the smallside, which wasn't really a problem for us since we weren't in our room most of the time. Another con is you have to pay for wireless internet, and like at most hotels that I have been to, it is a little on the slow side. All-in-all it is a great motel and I will be back. If you need to stay in the Irving/Airport area, this is the place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>My fiancee and I decided to visit the Dallas area for a weekend just for relaxation's sake, when it came down to picking a motel I wanted something that would be about an equal distance between Dallas and Fort Worth since we were going to be visiting the museums in both cities. We decided on the motel 6 since it was REALLY cheap and we didn't have much money at the time. When we arrived at the motel we were blown away by the size of the place. We were checked-in in a timely manner and the clerk was very friendly. When we got to our room, we were suprised to see that it was actually very nice. The only real downside to the room was it was a little on the smallside, which wasn't really a problem for us since we weren't in our room most of the time. Another con is you have to pay for wireless internet, and like at most hotels that I have been to, it is a little on the slow side. All-in-all it is a great motel and I will be back. If you need to stay in the Irving/Airport area, this is the place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r75231102-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>75231102</t>
+  </si>
+  <si>
+    <t>08/14/2010</t>
+  </si>
+  <si>
+    <t>Has Character - In A Good Way</t>
+  </si>
+  <si>
+    <t>I just needed a place to sleep for an overnight connection at DFW.   While I didn't want to spend much knowing I'd only be in the room for about 7-8 hours - most of which would be sleeping, I still did a thorough search ahead of time on Trip Advisor, and the reviews looked promising for this motel.I agree with the positive reviews I read here.   My whole experience was great.  I got a great price booking ahead on the Motel 6 website.   The 24 hour free shuttle service to and from the airport was prompt and a quick drive.  Check in was quick, and the staff was very friendly.  The room was just as pictured.  I had a single room, which was quite small, but clean and I just loved the contemporary decor and design- such a fresh change of pace from the standard flowery drab schemes of most motels.   Had a nice big flat screen TV, too.   It was also spotlessly clean.  I would recommend this place to anyone who needs a place to sleep near DFW.  The value was great, the staff friendly, the location very convenient to the airport, and the rooms are fun for a change!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I just needed a place to sleep for an overnight connection at DFW.   While I didn't want to spend much knowing I'd only be in the room for about 7-8 hours - most of which would be sleeping, I still did a thorough search ahead of time on Trip Advisor, and the reviews looked promising for this motel.I agree with the positive reviews I read here.   My whole experience was great.  I got a great price booking ahead on the Motel 6 website.   The 24 hour free shuttle service to and from the airport was prompt and a quick drive.  Check in was quick, and the staff was very friendly.  The room was just as pictured.  I had a single room, which was quite small, but clean and I just loved the contemporary decor and design- such a fresh change of pace from the standard flowery drab schemes of most motels.   Had a nice big flat screen TV, too.   It was also spotlessly clean.  I would recommend this place to anyone who needs a place to sleep near DFW.  The value was great, the staff friendly, the location very convenient to the airport, and the rooms are fun for a change!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r71993698-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>71993698</t>
+  </si>
+  <si>
+    <t>07/23/2010</t>
+  </si>
+  <si>
+    <t>Just Right.</t>
+  </si>
+  <si>
+    <t>We had been travelling around Texas for a week, staying in hotels from $35 to $70/night, where the $35 were absolutely disgusting, and the $70 were just too expensive. This hotel is located close to the airport, and in a sea of other hotels. We walked along the hotels, and checked out all their prices, as well as visiting a few $35 prior, and had no luck. When we asked how much the Motel 6 was going to be and they said $52, that sounded perfect! When we got up to our room it was even better! They were immaculately clean, had central air, so you could set the temperature and leave it. They had a pool, which we utalized on July 4th, as Dallas was the lamest place on the planet to be for July 4th, and we were flying out on July 5th. They didn't include breakfast, so we didn't feel we were missing anything when we left early for our flight. The bed was comfortable, and the shower was fantastic. Everything was brand new, and so clean. They didn't have free internet either, but it was surrounded by so many other hotels, you could just go and use theirs.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had been travelling around Texas for a week, staying in hotels from $35 to $70/night, where the $35 were absolutely disgusting, and the $70 were just too expensive. This hotel is located close to the airport, and in a sea of other hotels. We walked along the hotels, and checked out all their prices, as well as visiting a few $35 prior, and had no luck. When we asked how much the Motel 6 was going to be and they said $52, that sounded perfect! When we got up to our room it was even better! They were immaculately clean, had central air, so you could set the temperature and leave it. They had a pool, which we utalized on July 4th, as Dallas was the lamest place on the planet to be for July 4th, and we were flying out on July 5th. They didn't include breakfast, so we didn't feel we were missing anything when we left early for our flight. The bed was comfortable, and the shower was fantastic. Everything was brand new, and so clean. They didn't have free internet either, but it was surrounded by so many other hotels, you could just go and use theirs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r69973882-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>69973882</t>
+  </si>
+  <si>
+    <t>07/06/2010</t>
+  </si>
+  <si>
+    <t>Great Value Recently Renovated</t>
+  </si>
+  <si>
+    <t>I've stayed here three times in the past year and a half. They will let you park for up to two weeks while flying out of town.The staff is attentive and friendly.The rooms are fresh with flat screen TVs and recently renovated fixtures and furniture. There is a full bath instead of just a shower stall. There is vinyl or bamboo on the floors instead of carpet.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r60376551-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>60376551</t>
+  </si>
+  <si>
+    <t>04/04/2010</t>
+  </si>
+  <si>
+    <t>A great find</t>
+  </si>
+  <si>
+    <t>We needed a easy, cheap place to stay near the airport as we flew in at 10pm (remember to ring for the free shuttle) and we had a 8:30am flight the next morning.This hotel was perfect. It was cheap ($47), had comfy beds, a big flatscreen and nice shower. Yes, the rooms are small and a little plastic like but it was everything we required for our short stay (there was even free laundry).This place is a great find!</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r57906990-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>57906990</t>
+  </si>
+  <si>
+    <t>03/06/2010</t>
+  </si>
+  <si>
+    <t>Pet unfriendly</t>
+  </si>
+  <si>
+    <t>Nice decor, but pet unfriendly. My dog barked a few times at night and the neighbors complained to the front desk. We left early...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r51313472-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>51313472</t>
+  </si>
+  <si>
+    <t>12/15/2009</t>
+  </si>
+  <si>
+    <t>Ikea Rooms?</t>
+  </si>
+  <si>
+    <t>Even though it looks like the furnishings came from the Ikea catalog I did enjoy the decor. However, the room seemed a bit cramped for space; the designer did at least utilize a flat panel TV. Not a room for a romantic stay but, it is good for a business traveler.</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r48189474-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>48189474</t>
+  </si>
+  <si>
+    <t>10/31/2009</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>Great value if you just need a safe, clean place to sleep. Arrived around midnight and called for the shuttle which arrived in about 10 minutes. The shuttle also serves outlying parking lots and a couple other hotels but got there fairly quickly. Check in was friendly and fast, rooms are small and efficiently designed. Nice flat screen TV with HBO. No nearby restaurants, but lots of retaurant menus with delivery at front desk. Noticed a lot of flight crewpeople coming and going. Will definitely stay again.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r47772877-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>47772877</t>
+  </si>
+  <si>
+    <t>10/26/2009</t>
+  </si>
+  <si>
+    <t>They do leave the "Light On"!!</t>
+  </si>
+  <si>
+    <t>This Motel 6 Exonerats the Ideals of its Founder!  I have stayed at this Motel 6 consistently over the past 3 years they have delivered polite,friendly, courteous service. The rooms are clean, and roomy. Also during this time underwent a remodel and the rooms all have flat screen tv's and the rooms were redone in a euro-style with laminate hardwood floors! Very nice...I cannot say enough good about this Motel 6!! KUDO'S to this Motel, its Manager and the whole Team that works there!! Thank You!  Scott</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r47733911-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>47733911</t>
+  </si>
+  <si>
+    <t>10/25/2009</t>
+  </si>
+  <si>
+    <t>A great place to stay.</t>
+  </si>
+  <si>
+    <t>Favored by airline crew members, this Motel 6 is spotless.  You can't ask for anything better at price you can't beat.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r37704093-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>37704093</t>
+  </si>
+  <si>
+    <t>08/14/2009</t>
+  </si>
+  <si>
+    <t>This place is Grrrreat!!</t>
+  </si>
+  <si>
+    <t>Without a doubt the absolute best motel 6 I have ever stayed in-Rooms  decorated tastefully but simply- Laminate floors,earthy neutral colors.No ratty gummy carpet here.   Premises is clean,well lit and well maintained.Landscaped with flowers and hedges.  The staff is courteous,helpfull and professional-They indeed go out of their way to assure that guests are taken care of.  Hotel is located close to the airport and offers airport shuttle service   Excellent value great hotel for the price- Most certainly sets the standard for OTHER Motel 6's to come up to-  Would I recommend this hotel ? Absolutely!!</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r35881492-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>35881492</t>
+  </si>
+  <si>
+    <t>07/26/2009</t>
+  </si>
+  <si>
+    <t>Great place for traveling out of DFW.</t>
+  </si>
+  <si>
+    <t>This is a great place to stay with newly renovated rooms.  The design of the new rooms is trendy but functional.  The price of the hotel is fantastic at around $50-$60/night.The hotel offers a shuttle so you can leave your car in their parking lot around back and ride to/from the airport.  You can leave your car there for (I think) up to 10 days.  Call to make sure if this is an issue.  I left my car there for 5 days, and found the cost of the hotel room less expensive than paying for off-airport parking.This is a lower cost hotel, so don't expect shampoos, conditioners and what-not.  Also, there are only 4 pillows (2 for each queen) it would have been nice to have 8 pillows.  We did not try to call for more pillows though.  If I need to stay the night near DFW I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>This is a great place to stay with newly renovated rooms.  The design of the new rooms is trendy but functional.  The price of the hotel is fantastic at around $50-$60/night.The hotel offers a shuttle so you can leave your car in their parking lot around back and ride to/from the airport.  You can leave your car there for (I think) up to 10 days.  Call to make sure if this is an issue.  I left my car there for 5 days, and found the cost of the hotel room less expensive than paying for off-airport parking.This is a lower cost hotel, so don't expect shampoos, conditioners and what-not.  Also, there are only 4 pillows (2 for each queen) it would have been nice to have 8 pillows.  We did not try to call for more pillows though.  If I need to stay the night near DFW I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r33300412-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>33300412</t>
+  </si>
+  <si>
+    <t>06/27/2009</t>
+  </si>
+  <si>
+    <t>I'll be back</t>
+  </si>
+  <si>
+    <t>Clean, well located, well organized, --- good value for the dollar. There was a slight problem with the new wifi service but they knew how to fix it. Free local telephone calls from the room.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r30602064-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>30602064</t>
+  </si>
+  <si>
+    <t>05/23/2009</t>
+  </si>
+  <si>
+    <t>Great place to stay when flying out of DFW</t>
+  </si>
+  <si>
+    <t>We were so shocked when we got to our room!  We were not expecting such a nice clean room for $45!  They also let you park for free while you are gone.  The shuttle was right on time to get us and picked us up within 5 min when we got back!  We will stay here every time we fly out of DFW!</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r27922599-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>27922599</t>
+  </si>
+  <si>
+    <t>04/13/2009</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise!</t>
+  </si>
+  <si>
+    <t>In one word; WOW!  Pricing: Got on internet "Click 6" rate of $35.99/night, otherwise would have been $39.99.  Hotel tax in Dallas is a hurtful 15% though; however if you are staying more than 30 days and you pay upfront, tax is waived.  If you don't pay upfront, you will pay tax on the first 30 days, and then from the 31st on, there is no tax.  No weekly rate, but there is a Studio 6 (Motel 6's extended stay) a little further away from the airport.Rooms: Newly remodeled, very nice and clean.  I would say it's a very modern, kind of Japanese-type style.  32" LCD TV WITH AV CONNECTIONS FOR GAMING, WOOD-EFFECT FLOORS, WI-FI AVAILABLE FOR $2.99 PER 24 HOURS, BATHROOM WITH GRANITE COUNTERTOPS AND A RAISED WASH BASIN.Amenities: Pet friendly, no extra charge.  Free a.m. coffee, ice, vending, free local calls, HBO, outdoor pool, airport shuttle, coin laundry.  No in-room micro or fridge available - they suggested their Studio 6 for extended stay.  Only complaint was no chest-of-drawers (2 small, open shelves on wall instead) &amp; area for hanging clothes was small.General: My experience w/ the staff was great.  Smiling, cheery, helpful and friendly.  Check-in was quick and easy.  Noise level was fine - hear a lot of airplanes.  Hallway noise comes through door easily, but didn't notice anything from neighboring rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>In one word; WOW!  Pricing: Got on internet "Click 6" rate of $35.99/night, otherwise would have been $39.99.  Hotel tax in Dallas is a hurtful 15% though; however if you are staying more than 30 days and you pay upfront, tax is waived.  If you don't pay upfront, you will pay tax on the first 30 days, and then from the 31st on, there is no tax.  No weekly rate, but there is a Studio 6 (Motel 6's extended stay) a little further away from the airport.Rooms: Newly remodeled, very nice and clean.  I would say it's a very modern, kind of Japanese-type style.  32" LCD TV WITH AV CONNECTIONS FOR GAMING, WOOD-EFFECT FLOORS, WI-FI AVAILABLE FOR $2.99 PER 24 HOURS, BATHROOM WITH GRANITE COUNTERTOPS AND A RAISED WASH BASIN.Amenities: Pet friendly, no extra charge.  Free a.m. coffee, ice, vending, free local calls, HBO, outdoor pool, airport shuttle, coin laundry.  No in-room micro or fridge available - they suggested their Studio 6 for extended stay.  Only complaint was no chest-of-drawers (2 small, open shelves on wall instead) &amp; area for hanging clothes was small.General: My experience w/ the staff was great.  Smiling, cheery, helpful and friendly.  Check-in was quick and easy.  Noise level was fine - hear a lot of airplanes.  Hallway noise comes through door easily, but didn't notice anything from neighboring rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r25195932-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>25195932</t>
+  </si>
+  <si>
+    <t>02/26/2009</t>
+  </si>
+  <si>
+    <t>What a very pleasant surprise!</t>
+  </si>
+  <si>
+    <t>I must admit, I am a bit of a hotel snob.  To save money, my friend and I decided to stay at the Motel 6 near DFW.  I was expecting the worst and received a very pleasant surprise.  The room was under $50 per night and it was newly remodelled.  The room reminded me of a small loft apartment decorated from IKEA.  It was so cute!  There were a few pleasures lacking, like no fan in the bathroom and no coffee pot in the room, but for the price, you can't beat it.  They provide you with soap, but no shampoo, so make sure to bring your own (which I always do anyway).  Also, no hair dryer.  But like I said, for the price, it was a great deal.  The bed was very comfortable and the room came with a plasma TV and small desk for your computer.  The wireless is not free, but it will only cost you $2.99 for a 24 hour block.  Not bad.  Overall, a very good hotel with great service.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>I must admit, I am a bit of a hotel snob.  To save money, my friend and I decided to stay at the Motel 6 near DFW.  I was expecting the worst and received a very pleasant surprise.  The room was under $50 per night and it was newly remodelled.  The room reminded me of a small loft apartment decorated from IKEA.  It was so cute!  There were a few pleasures lacking, like no fan in the bathroom and no coffee pot in the room, but for the price, you can't beat it.  They provide you with soap, but no shampoo, so make sure to bring your own (which I always do anyway).  Also, no hair dryer.  But like I said, for the price, it was a great deal.  The bed was very comfortable and the room came with a plasma TV and small desk for your computer.  The wireless is not free, but it will only cost you $2.99 for a 24 hour block.  Not bad.  Overall, a very good hotel with great service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r11245983-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>11245983</t>
+  </si>
+  <si>
+    <t>12/04/2007</t>
+  </si>
+  <si>
+    <t>deal for the money</t>
+  </si>
+  <si>
+    <t>Upon check in I was required to wait for 5 minutes while the clerk was talking on the phone trying to get her deposit to work out.  It would have taken  30 seconds for her to put her call on hold and check us in.  We have stayed at this hotel before with no trouble.  It is certainly not spacious, but it is a clean room to stay in.  Everything was exactly what you would expect for 40.00 per night.  The thing I like about this hotel is the interior doors.  We will stay here again if we need to stay in this part of the Metroplex again.  Like I said, not bad for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>Upon check in I was required to wait for 5 minutes while the clerk was talking on the phone trying to get her deposit to work out.  It would have taken  30 seconds for her to put her call on hold and check us in.  We have stayed at this hotel before with no trouble.  It is certainly not spacious, but it is a clean room to stay in.  Everything was exactly what you would expect for 40.00 per night.  The thing I like about this hotel is the interior doors.  We will stay here again if we need to stay in this part of the Metroplex again.  Like I said, not bad for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r7866928-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>7866928</t>
+  </si>
+  <si>
+    <t>06/16/2007</t>
+  </si>
+  <si>
+    <t>great hotel</t>
+  </si>
+  <si>
+    <t>Great motel one of the better motel 6's i stayed in wish it would have had wireless internet but for the price you couldn't beat it only thing really so complane about small beds kinda a bit hard but thats about it friendly staff great location to airport and eating out.</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r1790436-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>1790436</t>
+  </si>
+  <si>
+    <t>04/17/2004</t>
+  </si>
+  <si>
+    <t>First time in Motel 6 - It's a pleasant surprise</t>
+  </si>
+  <si>
+    <t>I have never stayed in a Motel 6. I always have a misconception about this hotel chain about cleanliness. What a pleasant surprise when I stayed for 3 nights in March 2004.1. It is super clean. Things are new. It is not too noisy, although the airport is literally next to it.2. Modern climate control.3. Free unlimited local call.My only complaint is the bed, but hey, this is not Westin's Heavenly bed. It is still OK, and clean, that's the most important.Well done. My perception of Motel 6 has changed entirely.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2740,6961 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>169</v>
+      </c>
+      <c r="O21" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>162</v>
+      </c>
+      <c r="O22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>181</v>
+      </c>
+      <c r="O25" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>197</v>
+      </c>
+      <c r="O26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" t="s">
+        <v>202</v>
+      </c>
+      <c r="L27" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s">
+        <v>208</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" t="s">
+        <v>139</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s">
+        <v>215</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>169</v>
+      </c>
+      <c r="O29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" t="s">
+        <v>219</v>
+      </c>
+      <c r="L30" t="s">
+        <v>220</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>221</v>
+      </c>
+      <c r="X30" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" t="s">
+        <v>228</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>152</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" t="s">
+        <v>233</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>152</v>
+      </c>
+      <c r="O32" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>236</v>
+      </c>
+      <c r="J33" t="s">
+        <v>237</v>
+      </c>
+      <c r="K33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" t="s">
+        <v>239</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>240</v>
+      </c>
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" t="s">
+        <v>245</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>240</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>247</v>
+      </c>
+      <c r="J35" t="s">
+        <v>248</v>
+      </c>
+      <c r="K35" t="s">
+        <v>249</v>
+      </c>
+      <c r="L35" t="s">
+        <v>250</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>240</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>251</v>
+      </c>
+      <c r="X35" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" t="s">
+        <v>256</v>
+      </c>
+      <c r="K36" t="s">
+        <v>257</v>
+      </c>
+      <c r="L36" t="s">
+        <v>258</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>259</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>260</v>
+      </c>
+      <c r="X36" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" t="s">
+        <v>266</v>
+      </c>
+      <c r="L37" t="s">
+        <v>267</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>259</v>
+      </c>
+      <c r="O37" t="s">
+        <v>103</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>269</v>
+      </c>
+      <c r="J38" t="s">
+        <v>270</v>
+      </c>
+      <c r="K38" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" t="s">
+        <v>272</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>274</v>
+      </c>
+      <c r="J39" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" t="s">
+        <v>276</v>
+      </c>
+      <c r="L39" t="s">
+        <v>277</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>278</v>
+      </c>
+      <c r="O39" t="s">
+        <v>139</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>281</v>
+      </c>
+      <c r="J40" t="s">
+        <v>282</v>
+      </c>
+      <c r="K40" t="s">
+        <v>283</v>
+      </c>
+      <c r="L40" t="s">
+        <v>284</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41" t="s">
+        <v>287</v>
+      </c>
+      <c r="K41" t="s">
+        <v>288</v>
+      </c>
+      <c r="L41" t="s">
+        <v>289</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>290</v>
+      </c>
+      <c r="O41" t="s">
+        <v>103</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>292</v>
+      </c>
+      <c r="J42" t="s">
+        <v>293</v>
+      </c>
+      <c r="K42" t="s">
+        <v>294</v>
+      </c>
+      <c r="L42" t="s">
+        <v>295</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>297</v>
+      </c>
+      <c r="J43" t="s">
+        <v>298</v>
+      </c>
+      <c r="K43" t="s">
+        <v>299</v>
+      </c>
+      <c r="L43" t="s">
+        <v>300</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>301</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>302</v>
+      </c>
+      <c r="J44" t="s">
+        <v>303</v>
+      </c>
+      <c r="K44" t="s">
+        <v>304</v>
+      </c>
+      <c r="L44" t="s">
+        <v>305</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>306</v>
+      </c>
+      <c r="O44" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>307</v>
+      </c>
+      <c r="X44" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>310</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>311</v>
+      </c>
+      <c r="J45" t="s">
+        <v>312</v>
+      </c>
+      <c r="K45" t="s">
+        <v>313</v>
+      </c>
+      <c r="L45" t="s">
+        <v>314</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>315</v>
+      </c>
+      <c r="O45" t="s">
+        <v>68</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>318</v>
+      </c>
+      <c r="J46" t="s">
+        <v>319</v>
+      </c>
+      <c r="K46" t="s">
+        <v>320</v>
+      </c>
+      <c r="L46" t="s">
+        <v>321</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>322</v>
+      </c>
+      <c r="O46" t="s">
+        <v>68</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>323</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>324</v>
+      </c>
+      <c r="J47" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" t="s">
+        <v>326</v>
+      </c>
+      <c r="L47" t="s">
+        <v>327</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>328</v>
+      </c>
+      <c r="O47" t="s">
+        <v>103</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>331</v>
+      </c>
+      <c r="J48" t="s">
+        <v>332</v>
+      </c>
+      <c r="K48" t="s">
+        <v>333</v>
+      </c>
+      <c r="L48" t="s">
+        <v>334</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>328</v>
+      </c>
+      <c r="O48" t="s">
+        <v>103</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>335</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>336</v>
+      </c>
+      <c r="J49" t="s">
+        <v>337</v>
+      </c>
+      <c r="K49" t="s">
+        <v>338</v>
+      </c>
+      <c r="L49" t="s">
+        <v>339</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>340</v>
+      </c>
+      <c r="O49" t="s">
+        <v>80</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>341</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>342</v>
+      </c>
+      <c r="J50" t="s">
+        <v>343</v>
+      </c>
+      <c r="K50" t="s">
+        <v>344</v>
+      </c>
+      <c r="L50" t="s">
+        <v>345</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>346</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>347</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>348</v>
+      </c>
+      <c r="J51" t="s">
+        <v>349</v>
+      </c>
+      <c r="K51" t="s">
+        <v>350</v>
+      </c>
+      <c r="L51" t="s">
+        <v>351</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>346</v>
+      </c>
+      <c r="O51" t="s">
+        <v>68</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>353</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>354</v>
+      </c>
+      <c r="J52" t="s">
+        <v>355</v>
+      </c>
+      <c r="K52" t="s">
+        <v>356</v>
+      </c>
+      <c r="L52" t="s">
+        <v>357</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>358</v>
+      </c>
+      <c r="O52" t="s">
+        <v>80</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>359</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>360</v>
+      </c>
+      <c r="J53" t="s">
+        <v>361</v>
+      </c>
+      <c r="K53" t="s">
+        <v>362</v>
+      </c>
+      <c r="L53" t="s">
+        <v>363</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>340</v>
+      </c>
+      <c r="O53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>365</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>366</v>
+      </c>
+      <c r="J54" t="s">
+        <v>367</v>
+      </c>
+      <c r="K54" t="s">
+        <v>368</v>
+      </c>
+      <c r="L54" t="s">
+        <v>369</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>370</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>371</v>
+      </c>
+      <c r="J55" t="s">
+        <v>372</v>
+      </c>
+      <c r="K55" t="s">
+        <v>373</v>
+      </c>
+      <c r="L55" t="s">
+        <v>374</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>358</v>
+      </c>
+      <c r="O55" t="s">
+        <v>103</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>375</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>376</v>
+      </c>
+      <c r="J56" t="s">
+        <v>377</v>
+      </c>
+      <c r="K56" t="s">
+        <v>378</v>
+      </c>
+      <c r="L56" t="s">
+        <v>379</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>380</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>381</v>
+      </c>
+      <c r="J57" t="s">
+        <v>382</v>
+      </c>
+      <c r="K57" t="s">
+        <v>383</v>
+      </c>
+      <c r="L57" t="s">
+        <v>384</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>385</v>
+      </c>
+      <c r="O57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>386</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>387</v>
+      </c>
+      <c r="J58" t="s">
+        <v>388</v>
+      </c>
+      <c r="K58" t="s">
+        <v>389</v>
+      </c>
+      <c r="L58" t="s">
+        <v>390</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>290</v>
+      </c>
+      <c r="O58" t="s">
+        <v>68</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>391</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>392</v>
+      </c>
+      <c r="J59" t="s">
+        <v>393</v>
+      </c>
+      <c r="K59" t="s">
+        <v>394</v>
+      </c>
+      <c r="L59" t="s">
+        <v>395</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>396</v>
+      </c>
+      <c r="O59" t="s">
+        <v>61</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>398</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>399</v>
+      </c>
+      <c r="J60" t="s">
+        <v>400</v>
+      </c>
+      <c r="K60" t="s">
+        <v>401</v>
+      </c>
+      <c r="L60" t="s">
+        <v>402</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>403</v>
+      </c>
+      <c r="O60" t="s">
+        <v>61</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>405</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>406</v>
+      </c>
+      <c r="J61" t="s">
+        <v>407</v>
+      </c>
+      <c r="K61" t="s">
+        <v>408</v>
+      </c>
+      <c r="L61" t="s">
+        <v>409</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>385</v>
+      </c>
+      <c r="O61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>411</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>412</v>
+      </c>
+      <c r="J62" t="s">
+        <v>413</v>
+      </c>
+      <c r="K62" t="s">
+        <v>414</v>
+      </c>
+      <c r="L62" t="s">
+        <v>415</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>416</v>
+      </c>
+      <c r="O62" t="s">
+        <v>80</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>418</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>419</v>
+      </c>
+      <c r="J63" t="s">
+        <v>420</v>
+      </c>
+      <c r="K63" t="s">
+        <v>421</v>
+      </c>
+      <c r="L63" t="s">
+        <v>422</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>423</v>
+      </c>
+      <c r="O63" t="s">
+        <v>61</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>424</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>425</v>
+      </c>
+      <c r="J64" t="s">
+        <v>426</v>
+      </c>
+      <c r="K64" t="s">
+        <v>427</v>
+      </c>
+      <c r="L64" t="s">
+        <v>428</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>429</v>
+      </c>
+      <c r="O64" t="s">
+        <v>103</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>430</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>431</v>
+      </c>
+      <c r="J65" t="s">
+        <v>432</v>
+      </c>
+      <c r="K65" t="s">
+        <v>433</v>
+      </c>
+      <c r="L65" t="s">
+        <v>434</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>429</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>436</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>437</v>
+      </c>
+      <c r="J66" t="s">
+        <v>438</v>
+      </c>
+      <c r="K66" t="s">
+        <v>439</v>
+      </c>
+      <c r="L66" t="s">
+        <v>440</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>441</v>
+      </c>
+      <c r="O66" t="s">
+        <v>139</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>443</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>444</v>
+      </c>
+      <c r="J67" t="s">
+        <v>445</v>
+      </c>
+      <c r="K67" t="s">
+        <v>446</v>
+      </c>
+      <c r="L67" t="s">
+        <v>447</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>441</v>
+      </c>
+      <c r="O67" t="s">
+        <v>103</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>448</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>449</v>
+      </c>
+      <c r="J68" t="s">
+        <v>450</v>
+      </c>
+      <c r="K68" t="s">
+        <v>451</v>
+      </c>
+      <c r="L68" t="s">
+        <v>452</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>453</v>
+      </c>
+      <c r="O68" t="s">
+        <v>61</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>454</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>455</v>
+      </c>
+      <c r="J69" t="s">
+        <v>456</v>
+      </c>
+      <c r="K69" t="s">
+        <v>457</v>
+      </c>
+      <c r="L69" t="s">
+        <v>458</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>453</v>
+      </c>
+      <c r="O69" t="s">
+        <v>80</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>460</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>461</v>
+      </c>
+      <c r="J70" t="s">
+        <v>462</v>
+      </c>
+      <c r="K70" t="s">
+        <v>463</v>
+      </c>
+      <c r="L70" t="s">
+        <v>464</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>465</v>
+      </c>
+      <c r="O70" t="s">
+        <v>80</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>466</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>467</v>
+      </c>
+      <c r="J71" t="s">
+        <v>468</v>
+      </c>
+      <c r="K71" t="s">
+        <v>469</v>
+      </c>
+      <c r="L71" t="s">
+        <v>470</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>465</v>
+      </c>
+      <c r="O71" t="s">
+        <v>103</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>472</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>473</v>
+      </c>
+      <c r="J72" t="s">
+        <v>474</v>
+      </c>
+      <c r="K72" t="s">
+        <v>475</v>
+      </c>
+      <c r="L72" t="s">
+        <v>476</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>477</v>
+      </c>
+      <c r="O72" t="s">
+        <v>68</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>478</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>479</v>
+      </c>
+      <c r="J73" t="s">
+        <v>480</v>
+      </c>
+      <c r="K73" t="s">
+        <v>481</v>
+      </c>
+      <c r="L73" t="s">
+        <v>482</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>483</v>
+      </c>
+      <c r="O73" t="s">
+        <v>139</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>484</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>485</v>
+      </c>
+      <c r="J74" t="s">
+        <v>486</v>
+      </c>
+      <c r="K74" t="s">
+        <v>487</v>
+      </c>
+      <c r="L74" t="s">
+        <v>488</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>477</v>
+      </c>
+      <c r="O74" t="s">
+        <v>80</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>490</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>491</v>
+      </c>
+      <c r="J75" t="s">
+        <v>486</v>
+      </c>
+      <c r="K75" t="s">
+        <v>492</v>
+      </c>
+      <c r="L75" t="s">
+        <v>493</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>423</v>
+      </c>
+      <c r="O75" t="s">
+        <v>103</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>495</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>496</v>
+      </c>
+      <c r="J76" t="s">
+        <v>497</v>
+      </c>
+      <c r="K76" t="s">
+        <v>498</v>
+      </c>
+      <c r="L76" t="s">
+        <v>499</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>500</v>
+      </c>
+      <c r="O76" t="s">
+        <v>103</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>502</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>503</v>
+      </c>
+      <c r="J77" t="s">
+        <v>504</v>
+      </c>
+      <c r="K77" t="s">
+        <v>505</v>
+      </c>
+      <c r="L77" t="s">
+        <v>506</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>500</v>
+      </c>
+      <c r="O77" t="s">
+        <v>103</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>507</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>508</v>
+      </c>
+      <c r="J78" t="s">
+        <v>509</v>
+      </c>
+      <c r="K78" t="s">
+        <v>510</v>
+      </c>
+      <c r="L78" t="s">
+        <v>511</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>483</v>
+      </c>
+      <c r="O78" t="s">
+        <v>68</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>513</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>514</v>
+      </c>
+      <c r="J79" t="s">
+        <v>515</v>
+      </c>
+      <c r="K79" t="s">
+        <v>516</v>
+      </c>
+      <c r="L79" t="s">
+        <v>517</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>483</v>
+      </c>
+      <c r="O79" t="s">
+        <v>68</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>518</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>519</v>
+      </c>
+      <c r="J80" t="s">
+        <v>520</v>
+      </c>
+      <c r="K80" t="s">
+        <v>521</v>
+      </c>
+      <c r="L80" t="s">
+        <v>522</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>523</v>
+      </c>
+      <c r="O80" t="s">
+        <v>61</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>525</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>526</v>
+      </c>
+      <c r="J81" t="s">
+        <v>527</v>
+      </c>
+      <c r="K81" t="s">
+        <v>528</v>
+      </c>
+      <c r="L81" t="s">
+        <v>529</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>530</v>
+      </c>
+      <c r="O81" t="s">
+        <v>61</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>532</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>533</v>
+      </c>
+      <c r="J82" t="s">
+        <v>534</v>
+      </c>
+      <c r="K82" t="s">
+        <v>535</v>
+      </c>
+      <c r="L82" t="s">
+        <v>536</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>537</v>
+      </c>
+      <c r="O82" t="s">
+        <v>80</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>538</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>539</v>
+      </c>
+      <c r="J83" t="s">
+        <v>540</v>
+      </c>
+      <c r="K83" t="s">
+        <v>541</v>
+      </c>
+      <c r="L83" t="s">
+        <v>542</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>543</v>
+      </c>
+      <c r="O83" t="s">
+        <v>103</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>545</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>546</v>
+      </c>
+      <c r="J84" t="s">
+        <v>547</v>
+      </c>
+      <c r="K84" t="s">
+        <v>548</v>
+      </c>
+      <c r="L84" t="s">
+        <v>549</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>543</v>
+      </c>
+      <c r="O84" t="s">
+        <v>103</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>550</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>551</v>
+      </c>
+      <c r="J85" t="s">
+        <v>552</v>
+      </c>
+      <c r="K85" t="s">
+        <v>553</v>
+      </c>
+      <c r="L85" t="s">
+        <v>554</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>555</v>
+      </c>
+      <c r="O85" t="s">
+        <v>103</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>556</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>557</v>
+      </c>
+      <c r="J86" t="s">
+        <v>558</v>
+      </c>
+      <c r="K86" t="s">
+        <v>559</v>
+      </c>
+      <c r="L86" t="s">
+        <v>560</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>561</v>
+      </c>
+      <c r="O86" t="s">
+        <v>103</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>563</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>564</v>
+      </c>
+      <c r="J87" t="s">
+        <v>565</v>
+      </c>
+      <c r="K87" t="s">
+        <v>566</v>
+      </c>
+      <c r="L87" t="s">
+        <v>567</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>561</v>
+      </c>
+      <c r="O87" t="s">
+        <v>80</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>569</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>570</v>
+      </c>
+      <c r="J88" t="s">
+        <v>571</v>
+      </c>
+      <c r="K88" t="s">
+        <v>572</v>
+      </c>
+      <c r="L88" t="s">
+        <v>573</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>574</v>
+      </c>
+      <c r="O88" t="s">
+        <v>80</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>576</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>577</v>
+      </c>
+      <c r="J89" t="s">
+        <v>578</v>
+      </c>
+      <c r="K89" t="s">
+        <v>579</v>
+      </c>
+      <c r="L89" t="s">
+        <v>580</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>581</v>
+      </c>
+      <c r="O89" t="s">
+        <v>103</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>583</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>584</v>
+      </c>
+      <c r="J90" t="s">
+        <v>585</v>
+      </c>
+      <c r="K90" t="s">
+        <v>586</v>
+      </c>
+      <c r="L90" t="s">
+        <v>587</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>588</v>
+      </c>
+      <c r="O90" t="s">
+        <v>61</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>590</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>591</v>
+      </c>
+      <c r="J91" t="s">
+        <v>592</v>
+      </c>
+      <c r="K91" t="s">
+        <v>593</v>
+      </c>
+      <c r="L91" t="s">
+        <v>594</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>595</v>
+      </c>
+      <c r="O91" t="s">
+        <v>103</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>597</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>598</v>
+      </c>
+      <c r="J92" t="s">
+        <v>599</v>
+      </c>
+      <c r="K92" t="s">
+        <v>600</v>
+      </c>
+      <c r="L92" t="s">
+        <v>601</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>602</v>
+      </c>
+      <c r="O92" t="s">
+        <v>80</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>604</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>605</v>
+      </c>
+      <c r="J93" t="s">
+        <v>606</v>
+      </c>
+      <c r="K93" t="s">
+        <v>607</v>
+      </c>
+      <c r="L93" t="s">
+        <v>608</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>609</v>
+      </c>
+      <c r="O93" t="s">
+        <v>103</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>611</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>612</v>
+      </c>
+      <c r="J94" t="s">
+        <v>613</v>
+      </c>
+      <c r="K94" t="s">
+        <v>614</v>
+      </c>
+      <c r="L94" t="s">
+        <v>615</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>602</v>
+      </c>
+      <c r="O94" t="s">
+        <v>80</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>617</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>618</v>
+      </c>
+      <c r="J95" t="s">
+        <v>619</v>
+      </c>
+      <c r="K95" t="s">
+        <v>620</v>
+      </c>
+      <c r="L95" t="s">
+        <v>621</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>622</v>
+      </c>
+      <c r="O95" t="s">
+        <v>61</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>624</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>625</v>
+      </c>
+      <c r="J96" t="s">
+        <v>626</v>
+      </c>
+      <c r="K96" t="s">
+        <v>627</v>
+      </c>
+      <c r="L96" t="s">
+        <v>628</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>602</v>
+      </c>
+      <c r="O96" t="s">
+        <v>139</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>630</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>631</v>
+      </c>
+      <c r="J97" t="s">
+        <v>632</v>
+      </c>
+      <c r="K97" t="s">
+        <v>633</v>
+      </c>
+      <c r="L97" t="s">
+        <v>634</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>635</v>
+      </c>
+      <c r="O97" t="s">
+        <v>103</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>636</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>637</v>
+      </c>
+      <c r="J98" t="s">
+        <v>638</v>
+      </c>
+      <c r="K98" t="s">
+        <v>639</v>
+      </c>
+      <c r="L98" t="s">
+        <v>640</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>641</v>
+      </c>
+      <c r="O98" t="s">
+        <v>80</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>642</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>643</v>
+      </c>
+      <c r="J99" t="s">
+        <v>644</v>
+      </c>
+      <c r="K99" t="s">
+        <v>645</v>
+      </c>
+      <c r="L99" t="s">
+        <v>646</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>641</v>
+      </c>
+      <c r="O99" t="s">
+        <v>80</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>647</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>648</v>
+      </c>
+      <c r="J100" t="s">
+        <v>649</v>
+      </c>
+      <c r="K100" t="s">
+        <v>650</v>
+      </c>
+      <c r="L100" t="s">
+        <v>651</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>652</v>
+      </c>
+      <c r="O100" t="s">
+        <v>103</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>653</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>654</v>
+      </c>
+      <c r="J101" t="s">
+        <v>655</v>
+      </c>
+      <c r="K101" t="s">
+        <v>656</v>
+      </c>
+      <c r="L101" t="s">
+        <v>657</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>658</v>
+      </c>
+      <c r="O101" t="s">
+        <v>103</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>659</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>660</v>
+      </c>
+      <c r="J102" t="s">
+        <v>661</v>
+      </c>
+      <c r="K102" t="s">
+        <v>662</v>
+      </c>
+      <c r="L102" t="s">
+        <v>663</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>658</v>
+      </c>
+      <c r="O102" t="s">
+        <v>61</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>664</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>665</v>
+      </c>
+      <c r="J103" t="s">
+        <v>666</v>
+      </c>
+      <c r="K103" t="s">
+        <v>667</v>
+      </c>
+      <c r="L103" t="s">
+        <v>668</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>658</v>
+      </c>
+      <c r="O103" t="s">
+        <v>61</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>669</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>670</v>
+      </c>
+      <c r="J104" t="s">
+        <v>671</v>
+      </c>
+      <c r="K104" t="s">
+        <v>672</v>
+      </c>
+      <c r="L104" t="s">
+        <v>673</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>674</v>
+      </c>
+      <c r="O104" t="s">
+        <v>61</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>675</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>676</v>
+      </c>
+      <c r="J105" t="s">
+        <v>677</v>
+      </c>
+      <c r="K105" t="s">
+        <v>678</v>
+      </c>
+      <c r="L105" t="s">
+        <v>679</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>680</v>
+      </c>
+      <c r="O105" t="s">
+        <v>68</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>682</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>683</v>
+      </c>
+      <c r="J106" t="s">
+        <v>684</v>
+      </c>
+      <c r="K106" t="s">
+        <v>685</v>
+      </c>
+      <c r="L106" t="s">
+        <v>686</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>687</v>
+      </c>
+      <c r="O106" t="s">
+        <v>61</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>688</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>689</v>
+      </c>
+      <c r="J107" t="s">
+        <v>690</v>
+      </c>
+      <c r="K107" t="s">
+        <v>691</v>
+      </c>
+      <c r="L107" t="s">
+        <v>692</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>693</v>
+      </c>
+      <c r="O107" t="s">
+        <v>80</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>694</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>695</v>
+      </c>
+      <c r="J108" t="s">
+        <v>696</v>
+      </c>
+      <c r="K108" t="s">
+        <v>697</v>
+      </c>
+      <c r="L108" t="s">
+        <v>698</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>699</v>
+      </c>
+      <c r="O108" t="s">
+        <v>61</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>701</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>702</v>
+      </c>
+      <c r="J109" t="s">
+        <v>703</v>
+      </c>
+      <c r="K109" t="s">
+        <v>704</v>
+      </c>
+      <c r="L109" t="s">
+        <v>705</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>706</v>
+      </c>
+      <c r="O109" t="s">
+        <v>80</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>708</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>709</v>
+      </c>
+      <c r="J110" t="s">
+        <v>710</v>
+      </c>
+      <c r="K110" t="s">
+        <v>711</v>
+      </c>
+      <c r="L110" t="s">
+        <v>712</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="s">
+        <v>713</v>
+      </c>
+      <c r="O110" t="s">
+        <v>80</v>
+      </c>
+      <c r="P110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>3</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>715</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>716</v>
+      </c>
+      <c r="J111" t="s">
+        <v>717</v>
+      </c>
+      <c r="K111" t="s">
+        <v>718</v>
+      </c>
+      <c r="L111" t="s">
+        <v>719</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>720</v>
+      </c>
+      <c r="O111" t="s">
+        <v>61</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>33028</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>721</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>722</v>
+      </c>
+      <c r="J112" t="s">
+        <v>723</v>
+      </c>
+      <c r="K112" t="s">
+        <v>724</v>
+      </c>
+      <c r="L112" t="s">
+        <v>725</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>725</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_556.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_556.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="836">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>D9196EGmichaels</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>Unfortunately due to the weather conditions on the East CoastI had to arrive in Dallas one day early and was placed at this so called Airport Motel to await my flight to Hong Kong.  It was close to two hours for the shuttle bus to arrive after several phone calls.  Pandemonium at the check-in, noise all night, nothing in Food or beverage near, and vending machines on pot luck - at least reception refunded the lost money.More</t>
   </si>
   <si>
+    <t>Shu Ting G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r565216070-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>ctornoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r561766953-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>TravelFunFoodSights</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r517705978-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>The room was clean and functional. Usual Motel 6.  However, we were not able to get but a few channels on the TV.. WIFI was intermittent and would disconnect frequently.  Vending and ice machine were also broken.</t>
   </si>
   <si>
+    <t>verdun2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r492268751-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r483968028-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>docalexman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r452195765-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>sherrieb96</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r450301426-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t>The shuttle service back from airport was terrible!!!!! We had to wait 55 minute to Been picked up. Called hotel 3 times to see when shuttle would be there to pick us up the driver told them we were not outside which was not true!!!!! The driver acted like it wasn't a big deal and asked if we had called the hotel I said yes 55 minutes ago!!!!</t>
   </si>
   <si>
+    <t>Anthony P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r448123286-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -330,6 +357,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Amanda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r439368998-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -348,6 +378,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>unclecarbot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r436882638-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -363,6 +396,9 @@
     <t>Yes, room was clean but the artificial wood floors must have been done with child labor. Very unprofessional. What passes for mattress must have come from a decommissioned penitentiary facility. Want to seat and watch TV ? Good luck. For $70 a night I would have done better sleeping in my car.</t>
   </si>
   <si>
+    <t>backpacker1968</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r424424380-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -381,6 +417,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Rsljensen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r410836527-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -399,6 +438,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Frederick B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r402670734-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -417,6 +459,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Angelo R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r396243567-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -441,6 +486,9 @@
     <t>3.5 Stars no frills affordable hotel. We just stayed overnight because it was very close to the airport and had a 24 hour shuttle. Our flight was at 5am the following day so this location was perfect for us. The first room they gave us had the old loud wall A/C but we didn't mind because it got the room cold. The problem was the barking dog in the room next to us so I asked to move us to another room. They gave us room to the right wing with a view of the pool and this one had a quiet central A/C. The room was spacious enough &amp; clean. Bath had soap only and towels were pretty rough. The hotel didn't have a business center nor front desk that can print your boarding passes but again, this is a no frills hotel with modern rooms. There are no places to eat within walking distance. If you have a rental, go to The Ranch in Las Colinas and there are also other nice restaurants next to it in the same plaza. It's a only a 7 minute drive from hotel via freeway.More</t>
   </si>
   <si>
+    <t>Darla W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r392995765-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -459,6 +507,9 @@
     <t>This hotel is atrocious.  Upon entering the room I found a fountain soda cup lid and straw in the cubby.  Next, when I pulled the sheets back I found hair and a large stain!!  It was truly appalling.  The floor was sticky!!  I immediately got on the phone with travelocity to get me a new hotel.  I left and the hotel refused to refund my money!  I know you are operating a "discount" hotel, I get that!  But you need to, at the very least, clean the room.  There was dust on the cove base (where the floor and wall meet).  The bathroom door had a hole in it.  The moulding around the bathroom door looked like it had soda splashed on it!  I saw all this while on the phone with Travelocity.  And to top it all off, while I was returning to my car with our bags....THERE WAS A DIRTY DIAPER IN THE PARKING LOT!!  Never again!!More</t>
   </si>
   <si>
+    <t>JMoseley17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r392726830-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -477,6 +528,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Charles C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r392515514-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -487,6 +541,9 @@
   </si>
   <si>
     <t>Really enjoyed our stay and the rooms were very clean. The front desk staff could've been more familiar with the surrounding areas, but other than that my kids and I enjoyed our stay just well. We look forward to staying again whenever passing through or visiting Texas again in the near future.</t>
+  </si>
+  <si>
+    <t>Danielle M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r376150694-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
@@ -522,6 +579,9 @@
 When I arrived, the courtesy phones that call the local hotels wasn't working to call the shuttle, I couldn't find any DFW employees to ask about the shuttles, and I didn't have phone service for the US, so I figured since the hotel was only 2 miles away I would just cab it there. I was charged...I had an 18 hour layover in DFW, and decided to find someplace cheap to spend the night, rather than try to rest on a bench somewhere at the airport. Through TripAdvisor and Booking.com, a room here was $70 including all the taxes. I arrived and was greeted promptly. The room was bare bones - bed, tv, a/c unit, bathroom. But I wasn't looking for luxury, I was looking for clean and cheap. That's what I got here.There's no real amenities. No in-room coffeemaker, or little shampoos/conditioners. The floors are laminate, but I didn't really care - I'm sure they're actually much cleaner than all the dust that must get tracked into carpets at other places (how often to you think they actually deep steam clean them anyway). It had clean towels and fresh soaps, clean sheets and a comfy bed. Perfect!I'm a woman who was traveling alone, and I felt perfectly safe! I slept well, and was happy to have a bed to relax in while I waited for my flight. The free airport shuttle was great!Just a tip:When I arrived, the courtesy phones that call the local hotels wasn't working to call the shuttle, I couldn't find any DFW employees to ask about the shuttles, and I didn't have phone service for the US, so I figured since the hotel was only 2 miles away I would just cab it there. I was charged the "minimum airport rate" to take the 3 minute drive 2 miles down the road. So it cost me $40! Just wait for the shuttle!More</t>
   </si>
   <si>
+    <t>William W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r375671373-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -540,6 +600,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>mphill9929</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r374585858-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -558,6 +621,9 @@
     <t>We found this hotel to be a little older than we expected. For the price we weren't expecting a lot. But they offered a free airport shuttle and a place to sleep. All we really wanted was a clean bed.We got a free shuttle and a clean bed.The room was ok but dated. The beds are mattresses on a board base, pillows were a little lumpy. The first time the AC kicked in I thought a garbage truck was working outside in the parking lot. The shower was good, the room was clean and if we were in the same situation - missed flight and thrust into an unexpected overnight stay - we would probably stay here again. However, it is not a place we would book if we were going to stay in the area a few days.More</t>
   </si>
   <si>
+    <t>tashalynn29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r357202377-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -576,6 +642,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>jjnlina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r356876752-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -591,6 +660,9 @@
     <t>It was a clean motel with a nice room. It was close to the airport that even had a free shuttle that ran like every 30 minutes. Staff was friendly and check in was very easy. There wasn't much traffic or noise and the beds and pillows were comfortable. The location wasn't too far from fast food/convenience stores. Nothing in walking distance, but it could have been worse. Also, not too far from Dallas. This will be my go to place when I visit Dallas again. And considering, it was the closest motel 6 to the Airport, it was the cheapest as well.</t>
   </si>
   <si>
+    <t>TravellAR8_7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r356542445-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -606,6 +678,9 @@
     <t xml:space="preserve">Decent place. Had all the basics right. Good rooms, with climate control and good facilities in the bathroom with regards to water pressure and such. Staff seemed somewhat uninterested but were otherwise decent enough. Good shuttle system to and from airport, though be mindful of the fact that shuttles only come every half an hour or so. Cons - no eating facilities at the motel, and at least a fifteen minute walk from the nearest decent eating joint. </t>
   </si>
   <si>
+    <t>Candy g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r348017721-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -627,6 +702,9 @@
     <t>I have stayed here twice now. The employees always seem so unhappy like their dog has just died and are annoyed your taking up there time. While the hotel rooms are super clean they are also super small but for the price you can't really fuss. My biggest problem is the fact that they only put two sample size pillows one each bed! and if you have the audacity to ask for one more you will get a roll of the eyes and an Im sorry we don't give out extra pillows. (twice ive been told this) I will be spending the extra $30 and staying across the street my next trip.More</t>
   </si>
   <si>
+    <t>Gary H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r342955760-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -642,6 +720,9 @@
     <t>Based on the price and what you get, I give this property five stars.  It is not the Ritz but I found it acceptable and comfortable for a night.  I agree with other positive reviews.  Platform was surprisingly comfortable, bathroom was nice, linens were good and nice selection of TV channels.  Room is basic but a nice European/Ikea look.</t>
   </si>
   <si>
+    <t>Andrea S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r337210171-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -663,6 +744,9 @@
     <t>Check-in process basically set the mood for our stay @ Motel 6. The few words the attendant said to us consisted of 'Name,' 'Credit Card' (in which she ran and processed my card on the spot) and 'Room 229'. She seemed bothered by us asking questions about the airport shuttle, signing up and restaurant recommendations in the area. When we walked into our room we were overwhelmed by the smell of smoke, despite the no-smoking plaque on the door. We went down &amp; spoke to her again and were pleasantly surprised by how quickly and polite she was when we requested a switch. The room itself was small but very clean, beds/pillows mildly comfortable. If you are looking for a quick overnight close to the hotel, this is doable - You get what you pay for!More</t>
   </si>
   <si>
+    <t>Youngie717</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r330362599-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -678,6 +762,9 @@
     <t>Room was a reasonable size and clean. Beds comfortable. Shuttle bus available to DFW airport.Front desk staff helpful &amp; friendly. Nothing else in the vicinity except other hotels and offices.Only bad thing I saw was that late one evening, I came down to the reception area to use the vending machines and there were 2 mice merrily chasing each other in front of the reception desk.</t>
   </si>
   <si>
+    <t>Yava1983</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r318915392-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -702,6 +789,9 @@
     <t>You get what you pay for. Are you looking for a cheap place just to crash for the night after a long flight, then Motel 6 is fine...but if you can afford, pay a few extra dollars and get somewhere else. Small room that has been upgraded, but it still smells like an ashtrayMore</t>
   </si>
   <si>
+    <t>A D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r318135985-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -717,6 +807,9 @@
     <t xml:space="preserve">One of the better Motel 6 that I've stayed in. The design is modern, the water pressure is good, the staff fairly friendly. The lobby smelled bad, coffee was terrible,  room was not cleaned very well, and there were no washcloths. Luckily we just needed a place to lay our heads for 2 nights, Whataburger and Starbucks are across the parking lot, and we travel with extra rags. </t>
   </si>
   <si>
+    <t>cruiseaholichenry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r309261357-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -735,6 +828,9 @@
     <t>I needed a cheap place to stay and out of all the low budget places to stay in the area this one is the best.  I stayed at quality inn prior which had a worn feel.  My coworkers suggested motel 6 and I was pleasantly surprised for the cleaner feel and saved $10 more than Quality inn.  The rooms entered from inside the building like a hotel which I liked.  The room standard motel 6 style with linoleum flooring, the beds clean and small and look like they would be uncomfortable but were nice.  The motel itself smelled clean.  The flat screen had many channels on it.  They also had a pool which I did not try but looked nice.  The funny thing was no shampoo but since I do not have hair the soap bar worked just fine.  There will be future times when I need a place near the airport again for work and I will absolutely come here again.More</t>
   </si>
   <si>
+    <t>rebeccawells3766</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r291127358-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -753,6 +849,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>007jimmybond</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r290378915-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -768,6 +867,9 @@
     <t>Maria it says it all this young lady was very intelligent helping and very knowledgeable and made my trip a very relaxing and happy time Gold Maria thank you very much the hotel was very clean and the staff was excellent I highly recommended the best motel near the airport thank you again</t>
   </si>
   <si>
+    <t>ochibaba</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r284782170-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -792,6 +894,9 @@
     <t>My company sent me on a business trip to Dallas.  Before booking my room, my admin called the front desk, reserved the room on the company credit card and told me that everything had been taken care of.There is a free shuttle from DFW that runs 24 hours.  This is convenient.  Upon arriving, I was told that the facility didn't accept credit cards over the phone and I was in the awkward position of having to wake my boss up to get information.  Eventually this was handled after a long and lengthy process that annoyed everyone.  The room itself might have been ok, but one of the beds had small bugs  crawling in it.  Suffice it to say I barely slept.Please consider staying anywhere else if you want comfort.More</t>
   </si>
   <si>
+    <t>John J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r283077577-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -819,6 +924,9 @@
     <t>First thing I noticed when I walk in was this room reminded me of a college dorm.Then I noticed the huge mold spot on the wall and could not think of a college that would allow students to stay in an unhealthy environment like this.Not really sure what was harder the floor or the bed.I was very tired from travelling and that is the only reason I did not leave and find another hotel.My sinuses have been messed up since I left there.Lesson learned.Never again!!!If the owners don't care anymore about the place than this I can only imagine the things they neglect that you never see.Had a great Wi-Fi signal but the Wi-Fi didn't work so not much good to have a good signal.More</t>
   </si>
   <si>
+    <t>Pamela A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r282946977-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -834,6 +942,9 @@
     <t xml:space="preserve">I have stayed here many times. This is the first time in room 113.There was a miscommunication on my reservation, so I was given this ground floor wchr. accessible room.Wanted to open the window and this is what I found behind the  curtains. It was on each side of the bathroom door and shower floor. The floor boards bounced and this, I believe might be the result of rain water on concrete pad. I will stay again and hope this is corrected. </t>
   </si>
   <si>
+    <t>Darryl M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r274979989-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -849,6 +960,9 @@
     <t>Was given handicap rm.; sparse furnishings, sheets not very clean,no bedbugs (at least in my room) otherwise ok. No restaurants in walking distance though, no shopping ctrs nearby either. There are at least 7 other hotels in the area this is probably the best value. Save your $ if you don' t need luxury.</t>
   </si>
   <si>
+    <t>1260kowalski</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r273099199-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -870,6 +984,9 @@
     <t>Had a rough start finding pick up point for shuttle hence missed first one and waited longer than I would have liked at 130 am. Price was different then quoted, yet still reasonable enough. Only Handicapped room or Smoking available so took a handicapped room. Which was as other review stated sparse yet very clean. My major complaint which I informed the front desk of was that in the handicapped shower the "chair" had a adjustable leg missing. Also, we were informed by the shuttle driver that the best pick up times for our departure flight would be 815 am, which we confirmed with the front desk. Yet, in the morning when we get to the desk the clip board showed a time of 810 am. Okay I know the want people to be on time yet they should attempt to be consistent it is both confusing and frustrating otherwise.More</t>
   </si>
   <si>
+    <t>Ssn64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r272526681-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -885,6 +1002,9 @@
     <t xml:space="preserve">Sparse but very clean room in an almost European sense. Friendly staff were helpful and attentive.  Definitely the best price in the area. Being one of many hotels near the airport the location felt safe and the room was quiet. I'd definitely stay here again. </t>
   </si>
   <si>
+    <t>amyN3009NI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r260170027-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -903,6 +1023,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>StephenGies</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r258762595-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1041,9 @@
     <t>The place itself wasn't bad however the walls are paper thin. The employees are loud as hell all through the day and night. Slamming,banging, and talking extremely loud. Then it sounded like they had a track meet or something on the second floor at least once a day.</t>
   </si>
   <si>
+    <t>Yreehugnhipee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r257831752-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1059,9 @@
     <t xml:space="preserve">We arrived at the hotel and the clerk was being rushed. When we got to the counter she was rushing and not taking time to answer our questions. Our remote didn't work told the front desk who said she couldn't do anything. The shuttle didn't take us to our terminal </t>
   </si>
   <si>
+    <t>Peter S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r248638561-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1089,9 @@
     <t>I didn't find it listed in the free phone after baggage claim and then the phone number I was given was the fax machine. :/ finally got in touch with the hotel transfer was booked for 20-25 minutes, 30 minutes later I ended up paying a different shuttle driver $10 to drop me at the hotel. All at 1am while standing outside in the cold. So not off to a good start. The staff were OK, not super friendly more interested in sweeping the floor then serve me at the desk. I'm on an earlier shuttle back to the airport to get a cup of tea. And why they had as free coffee.... Well one sip left a bad taste in my mouth for 10 minutes. Morale of the story cheap is cheap for a reason.More</t>
   </si>
   <si>
+    <t>LaFille80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r245918706-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1113,9 @@
     <t>I stayed at this motel for a night stay because I had to catch a flight from DFW airport early in the morning. The price was right, the room was spacious modern and very clean. I parked my car at this hotel for a week at a cheaper rate compared to the airport rate.. Shuttle service to the airport on the way to the airport was awesome. The only disappointment I had was with the shuttle service on the way back. I waited at the airport for over an hour in the cold. Even after we called the front desk and was told they would be in about 20 mins, it took the driver almost an hour to get to us....I would however recommend this hotel to anyone because the price is right and the motel is very clean and comfortable.....More</t>
   </si>
   <si>
+    <t>Savedtothebone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r245605300-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1134,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>calinurse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r237461073-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1020,6 +1158,9 @@
     <t>I rate by expectation: did a particular hotel deliver what is promised?For this Motel 6, the answer is "Yes!"  It's as advertised-- a budget hotel. Rooms are "no frills" (no carpet on floor--which can actually be a cleanliness "plus") no bedskirt (you see the floor beneath the bed--another cleanliness "plus"), no included breakfast (though there is morning coffee in the basic, no-frills lobby).  The rooms are clean, staff service is fine with the front-desk folks quite pleasant helpful with directions into Dallas or to DFW. As an extra bonus, the bed was very comfortable--as good as the "heavenly beds" at other, far more expensive chains. I didn't wake with an aching back, as happens at many other places.Cnsidering how close this is to the airport, the rooms, with windows shut, are amazingly quiet.I've stayed at the nearby Westin, where sounds of airplanes were omnipresent.Do you get what you pay for here? With a price of only $44/night, I'd say you get much more. The only thing I didn't like is the ghastly orange color of the walls If nay it could be blue, or yellow, or anything else! The bathroom, in yellow, and with soft absorbent towels, is bright and attractive.More</t>
   </si>
   <si>
+    <t>Morgan Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r233907705-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1035,6 +1176,9 @@
     <t>Close to the airport, shuttle bus service, good warm bath. Clean room. All enough for a 10+ hour stay.The price is also good.The reception does not to smile. But nothing really matter.Good selection.</t>
   </si>
   <si>
+    <t>BriK0n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r228601286-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1197,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Michelle P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r222439130-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1218,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Lee02116</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r222252588-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1089,6 +1239,9 @@
     <t>My family, a group of 10 people, stayed at this motel 6 on 8/10/2014.  We checked in at 10:15pm.  A girl who worked at front desk was very racist and unhappy with us because We have 5 rooms to check in at the same time.  She said "You have too many reservation, step on the side".  She took a guy behind me and we have too wait for 20min.   At the time we got to our room almost 11pm at night.We went straight to bed after 10 hours driving. In the morning around 7:20am, I went to bathroom and there is NO WATER. I went to front desk to report it. All they said we are working on it!!!!!!  I told her how can your motel have No Water? how can I flush the toilet or brush my teeth?  She said Sorry!!I spoke to my Chase credit card to report the matter.  They called the motel for 3 times but never was able to talk to the general manager.  Chase told me I need to contact motel 6 from 10:30 to 11am because that is the time the manager will be there. I called motel 6 this am and she is not there.  Motel 6 needed to respond my call before I call BBB and Health department to report this matter.More</t>
   </si>
   <si>
+    <t>Darrad79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r221461458-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1105,6 +1258,9 @@
   </si>
   <si>
     <t>May 2014</t>
+  </si>
+  <si>
+    <t>andyoz</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r216256240-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
@@ -1135,6 +1291,9 @@
 Vending machines...We had a short layover at DFW and booked this property through their website. It looked ok on arrival, it's surrounded by many other airport hotels and motels but upon entering I quickly realised this is a very high turn over motel, kind of get them in and get them out quickly type place.Check in not at all friendly with the one lady behind the desk extremely busy taking calls while trying to check us in with many others trying to check in at the same time. No politeness, just a process and no small talk.Room booked was on a non smoking floor but upon entering the hallway we could smell cigarette smoke. Room was however smoke free.Room was disappointing. Very small and very basic with no frills. Advertised queen bed was actually just a double, no space to store luggage, very limited hanging space which was hidden and easily missed. Bedding was not good quality, sheet almost see through it was that thin and the two pillows very flat. Bathroom is adequate, very clean with extremely good shower pressure but as mentioned the water doesn't drain fast so you are standing in a tub full of water. Towels are small. Room and bathroom however were spotlessly clean.I went to reception to request extra pillows, waited 10 minutes while the only staff member checked in others to be told there are no extra pillows.Vending machines on all floors were out of order.Although this property is surrounded by many others there are no dining options nearby. The only choice you have is outsourced room service or tempting fate and crossing the very busy highway and walking 15 minutes to Denny's opposite the Westin Hotel. There is nothing else in walking distance.The week before we stayed in the southern area at Super 8 which was the same price but older property but in a much better location. At least there were several dining options available there.Motel 6 does have a pool but I would not choose to stay here again.More</t>
   </si>
   <si>
+    <t>NickSea13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r214486563-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1150,6 +1309,9 @@
     <t>Just stayed here last night and woke up with bed bug bites. I frequently stay in motels in this area for just one night and while a cheap room often comes with a few less perks, bed bugs should never be tolerated. They can infest your suitcase and then your home. I won't be staying here ever again. Please do yourself a favor and avoid this place.</t>
   </si>
   <si>
+    <t>Travis S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r208022375-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1165,6 +1327,9 @@
     <t xml:space="preserve">Rooms are kind of plain, no carpet or alarm clock. But they are clean, have decent tv's, and good air conditioners. The water pressure in the shower was great too. Not bad for a budget room. Better than sweating at the Red Roof because the air conditioner was older than me. </t>
   </si>
   <si>
+    <t>kit444</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r205469778-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1180,6 +1345,9 @@
     <t xml:space="preserve">I stayed here the night before a flight out of DFW. It was very basic but clean. And cheap. The free airport shuttle was one reason I stayed here. Just make sure you sign up for it when you check in. My room was small and decorated in an Ikea-like style. No carpet, which I think is a bed bug preventative measure. There's nothing within a close walking distance. If you are willing to hoof it there is a gas station/Whataburger. I wouldn't recommend walking alone in the dark because it just felt unsafe. </t>
   </si>
   <si>
+    <t>TexasGal74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r205188923-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1366,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Robert C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r200444632-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1213,6 +1384,9 @@
     <t>If you are looking a quick, cheap, clean room for layover or early flight, this is great option.I am a hilton guy all the time. That said, I did not want to spend 150 a night for 4 hours (had to be at DFW at 4:30 am after driving in late - the wife refused to spend the night in terminal)It is no frills but then again it was 54 a night with tax!Very clean, very basic, very close airport. Small rooms and paper thin walls but good option vs sleeping in terminal.</t>
   </si>
   <si>
+    <t>FirstAmendment</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r186655374-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1234,6 +1408,9 @@
     <t>Arrived at this Motel 6 in need of a room for my next day 6am flight out of Dallas Fort Worth (DFW). Price was great. About $50 for 1 room for myself. Room had the feel of an ikea setup with everything conveniently placed. Room fit the bed and desk. Bathroom shower was all plastic (surprised more hotels/motels don't do that) which I liked.3 Stars given for girl at the front who checked me in, wake-up call and wall thickness. Explanations below.-checked in and asked lady how long it would take to drive to car rental area from here. DialogueEmployee: "I don't know"Myself: "I'm sure you get that question a lot"Employee: "I do, but I don't care to find out"-wake up call was requested for 3am. I got the call at 12am and never again at 3. Luckily I could hardly fall back asleep after the first one and the call was only a backup measure. -could hear my neighbours watching Seinfeld and the pizza guy delivering their pizza. Was hungry and almost asked for a piece.Tips: car rental is south side of airport and a quick back road 15min drive. Great location to airport and right next to a shuttle lot. More</t>
   </si>
   <si>
+    <t>JamesPMason</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r183008314-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1253,6 +1430,9 @@
   </si>
   <si>
     <t>While this Motel 6 is definitely a no-frills establishment, the accommodations were comfortable and much nicer than the majority of Motel 6s you'll find on the road.The price fit just right, but beware, the rooms have no common amenities and functions such as no shampoo, limited towels, a small shower, no bathroom vent fan, no alarm clock and no closet.They have built in a mirror/clothes hanging module and a TV/desk module, but the TV is offset and should have been placed where the mirror is. Makes it hard to view the non-adjustable TV.No breakfast (for the price), but coffee is good. The hallway has a smokey smell if that bothers you.If you don't have a car - don't stay for more than a night. There are no restaurants within walking distance.More</t>
+  </si>
+  <si>
+    <t>MsCable</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r174874233-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
@@ -1281,6 +1461,9 @@
 3. The staff is not hospitable, friendly or professional. They all behaved like sullen teenagers working in the family business. It's the little things like not writing down the number of the room (I got it wrong and had to go back to get it) and not giving the wifi password. And sounding...This is a new Studio 6 location in what appears to be a new building. The rooms are European style and super functional. The property is very clean, well maintained and comfortable. Lots of good light to read or apply makeup by, and the wi-fi worked perfectly. I especially loved having access to an elevator so I didn't have to drag my heavy bags up a flight of stairs. Off the lobby are vending machines and a microwave. There's a nice pool available, too. Double glazed windows keep the aircraft noise to a minimum.   Three things to keep in mind: 1. No computer in the lobby for guests. Given that the DFW landing path goes right over the building, there are flight crews milling around in the lobby and the terminals are just a mile away, you would think that more care would be taken with amenities of concern to air travelers. Like a boarding-pass printer. 2. There was no closet in my room. If you need to hang a garment you want to wear the next day, draping it over a chair will have to do. 3. The staff is not hospitable, friendly or professional. They all behaved like sullen teenagers working in the family business. It's the little things like not writing down the number of the room (I got it wrong and had to go back to get it) and not giving the wifi password. And sounding annoyed when I called to get it. Overall, however, this new, clean Studio 6 is a good value for budget travelers.More</t>
   </si>
   <si>
+    <t>travelbrat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r169337100-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1302,6 +1485,9 @@
     <t>Check-in was easy and quick. The hotel has limited service but good value. Guests can use the microwave in the lobby. Hair dryers are available from the front desk. Guests can leave cars in the back lot for 4 days for free and after that for $4 per day.  The decor is European contemporary minimal design with laminate floors (easy to keep clean). The bathrooms have a corner tub/shower combo.  Many pilots and flight attendants stay here. You must sign up for the shuttle to the airport so be sure to do so at check-in. M6 shares the shuttle with other hotels so call IMMEDIATELY upon exiting your flight to avoid a l-o-n-g wait. And look for vans with M6 and/or Comfort Inn, Red Roof Inn, HI Exp etc. on the side as the shuttle may or may not have Motel 6 on the side.More</t>
   </si>
   <si>
+    <t>m v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r166857939-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1320,6 +1506,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Heather H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r166056551-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1336,6 +1525,9 @@
   </si>
   <si>
     <t>June 2013</t>
+  </si>
+  <si>
+    <t>ADVISORUnitedStates</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r164386470-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
@@ -1364,6 +1556,9 @@
 Overall better than what I expected from a motel 6. Def reccomend this to...I stayed at this motel 6 on june 18th. Check-in was quick and easy no problem ,we signed up for our airport shuttle and even booked for another night on our return trip. The hotel room was nice though it did have the slight smell that someone had been smoking in it but we opened up a window and the smell went away quickly. Once again the hotel room was clean the bathroom was clean. Overall a good hotel. Some of the things I didnt like though was the non soundproof rooms! I could litteraly hear everything the person was doing above me! When I asked the front desk clerk she had told me that a mother and her two kids were staying above me. Great! Well after about 8 the kids settled down and the noise quit.Also not enough pillows, but I could have easily asked for more so not much of a problem there. The hotel does not have a breakfeast (though they do have coffee) but they do have vending machines that sell danishes etc they also have another that selles ravioli and other items that you could microwave. ( Which by the way the microwave is next to the vending machines). This hotel does not have an ATM machine but there is one at the sleep inn about 50 yards away.Overall better than what I expected from a motel 6. Def reccomend this to people who want a nice hotel for a great price!More</t>
   </si>
   <si>
+    <t>CrystalMBA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r160736829-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1385,6 +1580,9 @@
     <t>My friend and I recently stayed at Motel 6 before an early morning flight.  The hotel seemed a little cold and the attendant was really informal with us.  The room itself was updated, but the A/C was not working properly, so there was a lot of noise all night on top of the hollowness of the room which reverberated every sound.  It also sounded like someone was pounding on the desk throughout the night, needless to say I got very little sleep.This area of DFW is not the safest and there is construction everywhere.  The street that normally takes you straight to remote parking is closed, so be prepared to take the highway around to get to the airport.Maybe the location of the room was just not good, but I would definitely skip this place if you're planning on staying more than one night.More</t>
   </si>
   <si>
+    <t>TwinsFanInOz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r159562742-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1400,6 +1598,9 @@
     <t>Clean, functional room which I used for a one night layover.  The hotel is close to DFW, though my GPS had a little trouble finding it due to road construction at the airport.  It's in a cluster of budget-priced hotels.  Completely adequate.</t>
   </si>
   <si>
+    <t>Nevadagirl710</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r154961548-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1418,6 +1619,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>MrsBearluv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r154817004-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1436,6 +1640,9 @@
     <t>If you want CHEAP this is it. Bare Necessities for sure, slippery bare floors, my husband almost fell after showering!  small bath towels barely dried him off.  Also  BYOB***Bring Your Own Bottle NO shampoo, NO in room hair dryer (had to ask for one from the front desk)  NO in room coffee.  They do have Vending snack machines in the lobby, that's a good thing since there is only one  near by place to eat.(a burger place &amp; expensive gas station/mini mart)*** On the PLUS Side*** they DO allow guest to leave their vehicles parked out back, up to 4 days for FREE ( Not responsible for theft or damages) and there's a Free shuttle service  to &amp; from the airport. So that makes this a Good Deal!! There was a decent pot of FREE coffee in the lobby in the AM so that helped perk me up!  FYI The Toll road 121 leading to DFW airport &amp; this hotel are under construction with major AM Delays  in &amp; around the airport. If you're heading to DFW for a flight? Give yourself Extra time, You'll need it !More</t>
   </si>
   <si>
+    <t>Jason S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r153182873-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1454,6 +1661,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Aaron K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r150292500-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1472,6 +1682,9 @@
     <t>Room looked tidy and didn't have any unpleasant odors. However there was hair on the toilet seat and it looked like it had never been replaced since they built the hotel. There was also hair on the pillows.When I went to take a shower in the morning before jetting off to the airport the shower lever was very loose and did not work when turned. If you overturned it (to the point of where you were exposing underlying piping between the lever and the wall) then the water came on, but it just sputtered out with little water pressure.I chose this hotel because it was cheap and had good reviews. Although I liked the price, I disagree with the reviews.More</t>
   </si>
   <si>
+    <t>Valarie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r145859137-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1490,6 +1703,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>dan t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r145047872-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1508,6 +1724,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>KDP_Texas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r141448514-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1526,6 +1745,9 @@
     <t>This place is clean, affordable, convenient. We like it. The best news is that they take you to and from your plane and let you leave your car at the motel: SUCH A DEAL! I read another review that was not too complimentary; it talked about long check-in line in lobby, but I don't think the loby is large enough to hold much of a line. People on the shuttle told us they had paid $100 at the hotel next door. I like this Motel 6, but my wife and I think it is time for them to rename themself Motel 60. I do remember saying ina Motel 6 in Tennessee in 1969 and paying $6 for the room, but times are a-changing.More</t>
   </si>
   <si>
+    <t>zaph89</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r141389772-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1541,6 +1763,9 @@
     <t>I was in dallas just waiting for a flight and I had to book the hotel from the airport. It was easy to book and the shuttle bus from the airport to the hotel is really really easy to take. it is a mini van that has a lot of hotel logos on the outside. The staff was really nice. The hotel does not has restaurant nor anythings, just a couple of vending machines but the offer you the local restaurant menus and you can always buy water. I was going on very long flight so I needed to rest as well as possible, the curtain were very thick and I could rest well. Basically i like it, there is luxury hotel but you do not need more.More</t>
   </si>
   <si>
+    <t>SarahErwin21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r135970016-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1562,6 +1787,9 @@
     <t>So I checked into this motel at 1am and the pimply faced kid behind the counter said there was 1 room left and it was not the smoking room I reserved. He said he had heard earlier that one of the beds in the room I was to be given had been wet. He went to check and make sure it was ok. He came back and said it was fine. He made up the bed with a sheet and 2 brown blankets. Now it was late and I was just there for the one night so I took the room. The kid also mention that if I needed anything like a foot rub, don't hesitate to ask. YUCK!!! That was highly inappropriate. Anyways, I got to the room and was immediately hit but the smell of mildew coming from the a/c unit. It was hard to sleep but I threw the covers over my head and that kinda helped. The only good thing I will say about this place is the bed was comfy and the flooring was nice. Next time I am in town I will spend $10 more and stay at Red Roof.More</t>
   </si>
   <si>
+    <t>LeftCoaster67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r134433403-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1577,6 +1805,9 @@
     <t>Up dated a few years ago, this Motel 6 is not what you might think a Motel 6 is like.  It is clean, modern and comfortable.  There is a shuttle to and from the airport.  The staff stays on top of things.  It is a great place to stay.  The only downside is that unless you have a car, it can be difficult to find something to eat.  Best bet, eat at the airport before going to the hotel.</t>
   </si>
   <si>
+    <t>BetsyAnne79109</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r133362564-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1595,6 +1826,9 @@
     <t>We recently took three teenagers to Disney World and flew out of DFW.  We got two adjoining rooms at Motel 6 #4728 and it was GREAT!  We all loved the modern decor and looked forward to coming back after our trip.  The staff was absolutely awesome!  Nisha was so polite and knowledgeable and accomodating (this girl is going to go far!)  We caught the shuttle to and from the airport and were able to leave our vehicles parked at the hotel while we were gone!  Motel 6 helped make our trip worry-free and hassle-free at a great price! We go to Dallas often to visit our college-age daughter and will stay here again!More</t>
   </si>
   <si>
+    <t>Underdog737</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r133214404-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1610,6 +1844,9 @@
     <t>Can't bet the price for this place, especially for the quality this place offers. We keep coming back every time. The front desk was awesome for us.</t>
   </si>
   <si>
+    <t>Brenda A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r130946952-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1631,6 +1868,9 @@
     <t>I had 2 guys who were stranded at DFW due to the weather and had to locate a hotel for them to stay until their flight the next day. Based on the reviews I had read this property was perfect and booked a double room. Then I called to ask for a third party credit card authorization form. Angelica told me that they had changed management from a corporate property to a franchise. She also told me they no longer do the third party credit card charges nor do they allow anyone to check in before their 3pm checkin time. When I questioned her if that policy also included those that were stranded at the airport, she said absolutely. I was a bit shocked at the lack of customer service and cancelled the room immediately. I called the Comfort Inn North and had no problem booking a room, getting a third party credit card authorization form AND a shuttle to pick them up within 10 minutes AND they were able to check in immediately! Now THAT is what I call customer service! Motel 6 could learn a lot from Comfort Inn DFW North!More</t>
   </si>
   <si>
+    <t>Decatur-Longhorn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r127865131-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1652,6 +1892,9 @@
     <t>The first time I stayed there, I was pretty surprised by the room.  No carpet - a synthetic wood-like floor!?!?  Then it dawned on me - it has GOT to be cleaner than any hotel carpet - neat.  What, no closet?!?!  Hmm, it isn't like I'm moving in, I just need to hang a fewthings up, and there is an area perfect for that - cool.  What's with the bathroom and the corner shaped tub?  I wonder where I can find one of those?  Smart.  The accomodations are not the "usual" hotel style - they are a well thought out "different" that you really appreciate after you stay there.The staff is nice, the prices are right, the shuttle to the airport is efficient, and I can leave my car there for no extra charge!  This is the cleanest Motel 6 you'll ever find, I have told friends about this place, and now they are all addicted - there is no better deal near the DFW airport.More</t>
   </si>
   <si>
+    <t>LeonardD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r126922340-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1670,6 +1913,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>JorJas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r123630919-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1691,6 +1937,9 @@
     <t>I stayed at this hotel on two occasions in January 2012. This is the best Motel 6 I have ever come across. I think the rooms must have been refurbished in the recent past. The week before I had stayed in one in OKC and it was terrible. The rooms are basic but they are clean and functional which are the main things for me. The floors are covered in wood instead of the usual low grade carpet.The receptionist on my second stay was excellent and offered me a room with two beds so I could do some packing/unpacking of my suitcases on one of them. She was extremely friendly and efficient. The only minus points are the speed of the wifi and the shower in my second room was a much reduced pressure compared to my first. But these really are minor niggles.  If you need to fly out of DFW and just need a room for the night at a budget price I don't think you can do better than this.More</t>
   </si>
   <si>
+    <t>Travel G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r123234539-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1706,6 +1955,9 @@
     <t>I recently found myself without a job or place to stay.  When I checked into this motel and told them my story, they made every effort to make what turned out to be an extended stay, very comfortable.  I cannot say enough about the warm and friendly attitude of the staff and management.  All of this along with the newly refreshed rooms made this a very positive experience.  For the money, Motel 6 turns out to be quite the value.</t>
   </si>
   <si>
+    <t>LoveNeverDies</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r121751067-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1724,6 +1976,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>naturalinokc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r118876442-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1745,6 +2000,9 @@
     <t>Super surprised to discover this location. I was staying one night and arrived late with no reservation. I was lost and called the motel for directions. The young lady at the desk was very sweet, and stayed on the phone with me to assist me with where I was and how to get there. Room reminded me of several nice rooms I had in a recent trip to Europe. Very modern, clean and roomy. I loved the fact that there was no carpeting. Very clean floor with no terrible smells or that sticky feeling that even the best of motels have when carpeted. Nice large counter top in bathroom with tub liner in the bath and shower that had no missing caulk or leaks. EXCELLENT bed and bedding. This will be my home base any time I go back to Dallas area.More</t>
   </si>
   <si>
+    <t>AmandaJCal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r118249524-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1761,6 +2019,9 @@
   </si>
   <si>
     <t>Have never stayed in a  Motel 6 before but after reading the reviews on Tripadvisor and needing a hotel at the airport I decided to give this a try and was glad we did.After dropping our rental car at the airport we rang the hotel for collection, we were advised to call again when we got to a specific terminal and gate, which we did, thanks to some great American Airlines staff. The bus arrived within 15 minutes. Donna checked us in quickly, arranged a wake up call and shuttle collection for early the next morning. Our room was clean, with comfy bed and widescreen TV.There isn't much around the motel, apart from other motels and inns. We walked about 15mins to the Sheraton for something to eat , bar food here is quite reasonably priced. Donna also gave us plenty of dine in menus for the local restaurants and we did see at least 3 of these deliveres while we were there. Wake up call was on time and the shuttle arrived prompty. I think the shuttle does service other hotels in the area also so that might explain some of the delays experienced by some guests. For a cheap night stay at the airport you can't really go wrong here.More</t>
+  </si>
+  <si>
+    <t>findthefairway</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r118110828-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
@@ -1792,6 +2053,9 @@
 They offer a shuttle to DFW  (via a contractor) and in the very early hours...I had known of this property for a long time, and was aware that they allowed up to a couple of weeks parking, and we decided to give it a try when we flew out of DFW.  It's been decades since I had stayed in a Motel 6, and was not expecting too much.The location is right in the heart of several of the DFW north area parking services and other airport hotels.  The lobby is more of a passage way, not much to it at all and certainly nothing impressive ....after all this is a Motel 6.However, the room was a pleasant surprise -- kind of a funky decor....think of a dorm room in a Jetsons motif (does this tell my age?).  Upon seeing the platform beds, I was very concerned....it's literally a mattress (no box springs) on top of a platform (like a rubber edged work table at the office) about 12 to 18 inches above the floor -- but it was very comfortable (I can't stand a soft or worn out mattress and this was neither).  We liked the fact that the room was not carpeted...it seemed easier for them to keep clean and everything about the room was clean.   I don't know if the drapes were black-out sufficient, as we had to leave at 4am to catch our flight.They offer a shuttle to DFW  (via a contractor) and in the very early hours and very late hours, it only runs once an hour (at 15 min. after the hour)...so planning ahead is essential if you fall into these times.  On the return, we did have to wait 45 min. or more for pick up atDFW, but again I have to stress that for about $52.00 including tax and parking, you're notgoing to beat it.  The ground floor seemed somewhat noisy, due to the close proximity of some of the rooms to the front desk, and the clerk admitted to me that her voice carried to some of those rooms. Fortunately we were on the 2nd or 3rd floor.More</t>
   </si>
   <si>
+    <t>Musclebearnz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r112489465-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1813,6 +2077,9 @@
     <t>This is the first time I have ever stayed at a Motel 6, I guess I have unfairly avoided them, but after reading the reviews on Tripadvisor and particularly for the DFW North establishment, I thought i'd give it a go..  I'm so glad I did.. From the time I arrived, the lone receptionist was dealing with a lot of requests and people waiting. She remained calm and composed, friendly and helpful and never let the pressure detract from her professional level of customer service. After checking in, I went to my room and another surprise, it was totally modern, impecabably clean and looked like it had been recently refurbished. Flat screen TV, modern bathroom, plenty of fresh towels, in other words, all you need. The only thing missing, was a coffee maker, but the hotel offered free coffee in the lobby in the morning up to 1030 I think. Internet was $2.99 for 24 hours and it was fast. Overall, a true 5 star experience and I cant wait to come back. I am a platinum member of Intercontinental Hotel group, so normally stick to the Holiday Inn's (and there was one around the corner from Motel 6), but when returning to DFW, I will stay at this Motel 6, without question !!More</t>
   </si>
   <si>
+    <t>noah_ingle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r109874274-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1834,6 +2101,9 @@
     <t>Stayed a week here, and was happy with the renovated rooms. There is no coffee maker in the room but they do provide coffee in the small lobby. There was a small pool that looked better in the pictures and was closed for maintenance while I was there. The flat screen LCD TV is a nice touch and looked great. The entire room has a faux wood flooring but it looks nice and doesnt feel bad either. The bed is a little stiff but I didnt have any trouble sleeping. The rooms do not come with shampoo so plan accordingly. Also there is a $2.99 ( no tax ) Wi-fi card that must be purchased every day or in bulk for you to gain internet access, so if you find this hotel a few bucks cheaper than a hotel that offers free wifi please take the wifi card purchase into account. There is nothing real close to walk to other than a few other hotels. There is a WhataBurger/Gas station about 8 minute walk away, good burgers there and well worth the walk. Overall it was a nice change for the usual Motel 6 rooms and I would stay here again if the Red Roof Inn was every booked full.More</t>
   </si>
   <si>
+    <t>Worldtreader1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r105017391-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1855,6 +2125,9 @@
     <t>These owners deserve a medal, what a marvelous, spotlessly clean and modern Motel 6. I didn't know this brand name had a Motel like this. Small but very boutique looking room and bathroom. Very close to DFW with a free shuttle. Nice, friendly staff, it looks and smells fresh and new as you walk in the door, and all for about $45 a night, God bless them. We usually stay in 4-5 Star hotels and are big travelers so we have seen it all. I was alone and just chose a Motel 6 for convenience between flights, expecting a bit of a dump frankly. This is a superb value, ( No, I don't own the place or have any connection !!!! )More</t>
   </si>
   <si>
+    <t>cheapclassytraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r94541445-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1876,6 +2149,9 @@
     <t>My husband and I needed a cheap place to stay one night when we had a layover for a flight. I am an avid researcher when it comes to places we stay, eat, vacation, etc. and was a little leery about staying at a Motel 6. After viewing the pictures of the new renovation though, I decided we could do it for a night.I am SO happy we did! The clerk at the front desk was incredibly helpful in guiding us to a place to eat. Check-in was simple and pain-free (which isn't always the case when you reserve your room online) and the room was excellent for the price. The room was clean - not a hair, bug or stain to be found (and I always inspect thoroughly) - as was the bathroom. The water pressure was surprisingly strong in the shower, which was nice, and the TV had extended cable. The bed was comfortable and when we asked for extra towels, they were delivered promptly.The free shuttle to the airport was a wonderful bonus and arrived right on time.If you need a cheap place to stay for a short or extended time, we highly recommend this hotel. We will be staying here anytime we have a layover in Dallas.More</t>
   </si>
   <si>
+    <t>PULAOKHAO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r89059267-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1897,6 +2173,9 @@
     <t>I agree with all the other reviewers; this is great value; I paid discounted internet rate of $36+tax=$41.39. i had small room with full bed; LCD TV has limited channels but enough to pass time.  Called for shuttle from terminal and shuttle [white van with HOTEL SHUTTLE written in geen letters] arrived at DFW terminal within fifteen minutes going to motel and ten minutes for return; shuttle operates 24/7 though verify at check-in. Great place to sleep if you have a long layover; I asked for and got quiet room in back away from freeway noise. Interior corridors and elevator.  Only soap provided so bring own shampoo, etc. Front desk was cordial and efficient enough.  I did not use WI-FI so cannot comment on that.  Drawback is location is not near any restaurant or eating place but you can have take-out delivered.  If you have car and are visiting Dallas/Arlington/Fort Worth on tight budget, I doubt you could find better value.  Very clean; wood floors without carpetingMore</t>
   </si>
   <si>
+    <t>Jonathanbarber</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r88602757-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1915,6 +2194,9 @@
     <t>My fiancee and I decided to visit the Dallas area for a weekend just for relaxation's sake, when it came down to picking a motel I wanted something that would be about an equal distance between Dallas and Fort Worth since we were going to be visiting the museums in both cities. We decided on the motel 6 since it was REALLY cheap and we didn't have much money at the time. When we arrived at the motel we were blown away by the size of the place. We were checked-in in a timely manner and the clerk was very friendly. When we got to our room, we were suprised to see that it was actually very nice. The only real downside to the room was it was a little on the smallside, which wasn't really a problem for us since we weren't in our room most of the time. Another con is you have to pay for wireless internet, and like at most hotels that I have been to, it is a little on the slow side. All-in-all it is a great motel and I will be back. If you need to stay in the Irving/Airport area, this is the place to stay!More</t>
   </si>
   <si>
+    <t>Hazines_World</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r75231102-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1936,6 +2218,9 @@
     <t>I just needed a place to sleep for an overnight connection at DFW.   While I didn't want to spend much knowing I'd only be in the room for about 7-8 hours - most of which would be sleeping, I still did a thorough search ahead of time on Trip Advisor, and the reviews looked promising for this motel.I agree with the positive reviews I read here.   My whole experience was great.  I got a great price booking ahead on the Motel 6 website.   The 24 hour free shuttle service to and from the airport was prompt and a quick drive.  Check in was quick, and the staff was very friendly.  The room was just as pictured.  I had a single room, which was quite small, but clean and I just loved the contemporary decor and design- such a fresh change of pace from the standard flowery drab schemes of most motels.   Had a nice big flat screen TV, too.   It was also spotlessly clean.  I would recommend this place to anyone who needs a place to sleep near DFW.  The value was great, the staff friendly, the location very convenient to the airport, and the rooms are fun for a change!More</t>
   </si>
   <si>
+    <t>miraclepie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r71993698-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1954,6 +2239,9 @@
     <t>We had been travelling around Texas for a week, staying in hotels from $35 to $70/night, where the $35 were absolutely disgusting, and the $70 were just too expensive. This hotel is located close to the airport, and in a sea of other hotels. We walked along the hotels, and checked out all their prices, as well as visiting a few $35 prior, and had no luck. When we asked how much the Motel 6 was going to be and they said $52, that sounded perfect! When we got up to our room it was even better! They were immaculately clean, had central air, so you could set the temperature and leave it. They had a pool, which we utalized on July 4th, as Dallas was the lamest place on the planet to be for July 4th, and we were flying out on July 5th. They didn't include breakfast, so we didn't feel we were missing anything when we left early for our flight. The bed was comfortable, and the shower was fantastic. Everything was brand new, and so clean. They didn't have free internet either, but it was surrounded by so many other hotels, you could just go and use theirs.More</t>
   </si>
   <si>
+    <t>Wrosie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r69973882-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1972,6 +2260,9 @@
     <t>June 2010</t>
   </si>
   <si>
+    <t>kandtsa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r60376551-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1990,6 +2281,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>munchies214</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r57906990-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -2005,6 +2299,9 @@
     <t>Nice decor, but pet unfriendly. My dog barked a few times at night and the neighbors complained to the front desk. We left early...</t>
   </si>
   <si>
+    <t>sawadeesng</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r51313472-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -2023,6 +2320,9 @@
     <t>December 2009</t>
   </si>
   <si>
+    <t>altexbird</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r48189474-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -2041,6 +2341,9 @@
     <t>October 2009</t>
   </si>
   <si>
+    <t>scott861962</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r47772877-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -2071,6 +2374,9 @@
     <t>Favored by airline crew members, this Motel 6 is spotless.  You can't ask for anything better at price you can't beat.</t>
   </si>
   <si>
+    <t>opensky61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r37704093-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -2089,6 +2395,9 @@
     <t>August 2009</t>
   </si>
   <si>
+    <t>digitalsabre</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r35881492-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -2110,6 +2419,9 @@
     <t>This is a great place to stay with newly renovated rooms.  The design of the new rooms is trendy but functional.  The price of the hotel is fantastic at around $50-$60/night.The hotel offers a shuttle so you can leave your car in their parking lot around back and ride to/from the airport.  You can leave your car there for (I think) up to 10 days.  Call to make sure if this is an issue.  I left my car there for 5 days, and found the cost of the hotel room less expensive than paying for off-airport parking.This is a lower cost hotel, so don't expect shampoos, conditioners and what-not.  Also, there are only 4 pillows (2 for each queen) it would have been nice to have 8 pillows.  We did not try to call for more pillows though.  If I need to stay the night near DFW I will stay here again.More</t>
   </si>
   <si>
+    <t>ventoboy30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r33300412-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -2128,6 +2440,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>mrs_weaver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r30602064-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -2146,6 +2461,9 @@
     <t>May 2009</t>
   </si>
   <si>
+    <t>Carpenter_gurl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r27922599-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -2167,6 +2485,9 @@
     <t>In one word; WOW!  Pricing: Got on internet "Click 6" rate of $35.99/night, otherwise would have been $39.99.  Hotel tax in Dallas is a hurtful 15% though; however if you are staying more than 30 days and you pay upfront, tax is waived.  If you don't pay upfront, you will pay tax on the first 30 days, and then from the 31st on, there is no tax.  No weekly rate, but there is a Studio 6 (Motel 6's extended stay) a little further away from the airport.Rooms: Newly remodeled, very nice and clean.  I would say it's a very modern, kind of Japanese-type style.  32" LCD TV WITH AV CONNECTIONS FOR GAMING, WOOD-EFFECT FLOORS, WI-FI AVAILABLE FOR $2.99 PER 24 HOURS, BATHROOM WITH GRANITE COUNTERTOPS AND A RAISED WASH BASIN.Amenities: Pet friendly, no extra charge.  Free a.m. coffee, ice, vending, free local calls, HBO, outdoor pool, airport shuttle, coin laundry.  No in-room micro or fridge available - they suggested their Studio 6 for extended stay.  Only complaint was no chest-of-drawers (2 small, open shelves on wall instead) &amp; area for hanging clothes was small.General: My experience w/ the staff was great.  Smiling, cheery, helpful and friendly.  Check-in was quick and easy.  Noise level was fine - hear a lot of airplanes.  Hallway noise comes through door easily, but didn't notice anything from neighboring rooms.More</t>
   </si>
   <si>
+    <t>Travelin_Dyxie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r25195932-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -2188,6 +2509,9 @@
     <t>I must admit, I am a bit of a hotel snob.  To save money, my friend and I decided to stay at the Motel 6 near DFW.  I was expecting the worst and received a very pleasant surprise.  The room was under $50 per night and it was newly remodelled.  The room reminded me of a small loft apartment decorated from IKEA.  It was so cute!  There were a few pleasures lacking, like no fan in the bathroom and no coffee pot in the room, but for the price, you can't beat it.  They provide you with soap, but no shampoo, so make sure to bring your own (which I always do anyway).  Also, no hair dryer.  But like I said, for the price, it was a great deal.  The bed was very comfortable and the room came with a plasma TV and small desk for your computer.  The wireless is not free, but it will only cost you $2.99 for a 24 hour block.  Not bad.  Overall, a very good hotel with great service.More</t>
   </si>
   <si>
+    <t>travelingwoman72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r11245983-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -2209,6 +2533,9 @@
     <t>Upon check in I was required to wait for 5 minutes while the clerk was talking on the phone trying to get her deposit to work out.  It would have taken  30 seconds for her to put her call on hold and check us in.  We have stayed at this hotel before with no trouble.  It is certainly not spacious, but it is a clean room to stay in.  Everything was exactly what you would expect for 40.00 per night.  The thing I like about this hotel is the interior doors.  We will stay here again if we need to stay in this part of the Metroplex again.  Like I said, not bad for the money.More</t>
   </si>
   <si>
+    <t>cwa8807</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r7866928-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -2225,6 +2552,9 @@
   </si>
   <si>
     <t>June 2007</t>
+  </si>
+  <si>
+    <t>Yen68</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d243544-r1790436-Motel_6_Dallas_Ft_Worth_Airport_North-Irving_Texas.html</t>
@@ -2744,34 +3074,38 @@
       <c r="A2" t="n">
         <v>33028</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169264</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -2788,56 +3122,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33028</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169265</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2851,50 +3189,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33028</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169266</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2914,41 +3256,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33028</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169267</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
@@ -2967,50 +3313,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33028</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169268</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3028,50 +3378,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33028</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3085,50 +3439,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33028</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169269</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3148,50 +3506,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33028</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169270</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3211,50 +3573,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33028</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>12246</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -3274,50 +3640,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33028</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>3454</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3331,50 +3701,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33028</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169271</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -3394,50 +3768,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33028</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169272</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3451,50 +3829,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33028</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169273</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3512,50 +3894,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33028</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>22818</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3569,50 +3955,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33028</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>60877</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="O16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3632,50 +4022,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33028</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>169274</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3695,50 +4089,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33028</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>169275</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3752,50 +4150,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33028</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>12776</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3809,50 +4211,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33028</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>6673</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3866,50 +4272,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33028</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>333</v>
+      </c>
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3929,50 +4339,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33028</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>116824</v>
+      </c>
+      <c r="C22" t="s">
+        <v>190</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="J22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="O22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3992,50 +4406,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33028</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>169276</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="J23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4055,50 +4473,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33028</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>169277</v>
+      </c>
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4112,50 +4534,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33028</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>169278</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="J25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="O25" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4169,50 +4595,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33028</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>169279</v>
+      </c>
+      <c r="C26" t="s">
+        <v>216</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4232,41 +4662,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33028</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>2993</v>
+      </c>
+      <c r="C27" t="s">
+        <v>224</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="J27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
@@ -4285,50 +4719,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33028</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>10447</v>
+      </c>
+      <c r="C28" t="s">
+        <v>230</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="O28" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -4346,50 +4784,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33028</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>169280</v>
+      </c>
+      <c r="C29" t="s">
+        <v>238</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="O29" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4407,41 +4849,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33028</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>244</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="J30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="K30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="L30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
@@ -4458,56 +4904,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="X30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="Y30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33028</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>117263</v>
+      </c>
+      <c r="C31" t="s">
+        <v>253</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4521,50 +4971,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33028</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>169281</v>
+      </c>
+      <c r="C32" t="s">
+        <v>259</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="J32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="K32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4584,50 +5038,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33028</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>169282</v>
+      </c>
+      <c r="C33" t="s">
+        <v>266</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="J33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="K33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="O33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4641,50 +5099,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33028</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>169283</v>
+      </c>
+      <c r="C34" t="s">
+        <v>273</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="J34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="K34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4698,50 +5160,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33028</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>169284</v>
+      </c>
+      <c r="C35" t="s">
+        <v>279</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4759,56 +5225,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="X35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="Y35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33028</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>12779</v>
+      </c>
+      <c r="C36" t="s">
+        <v>288</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="J36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4824,56 +5294,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="X36" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="Y36" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33028</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>4344</v>
+      </c>
+      <c r="C37" t="s">
+        <v>298</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="J37" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="K37" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="O37" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4887,41 +5361,45 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33028</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>169285</v>
+      </c>
+      <c r="C38" t="s">
+        <v>304</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="J38" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="K38" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
@@ -4940,50 +5418,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33028</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>169286</v>
+      </c>
+      <c r="C39" t="s">
+        <v>310</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="J39" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="K39" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="O39" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5001,41 +5483,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33028</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>169287</v>
+      </c>
+      <c r="C40" t="s">
+        <v>318</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="J40" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="K40" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="L40" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -5054,50 +5540,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33028</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>169288</v>
+      </c>
+      <c r="C41" t="s">
+        <v>324</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="J41" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="K41" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="L41" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="O41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5111,41 +5601,45 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33028</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>169289</v>
+      </c>
+      <c r="C42" t="s">
+        <v>331</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="J42" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="K42" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
@@ -5174,41 +5668,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33028</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>169290</v>
+      </c>
+      <c r="C43" t="s">
+        <v>337</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="J43" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
@@ -5227,50 +5725,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33028</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>10066</v>
+      </c>
+      <c r="C44" t="s">
+        <v>343</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="J44" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="K44" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="O44" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5282,56 +5784,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="X44" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="Y44" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33028</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>169291</v>
+      </c>
+      <c r="C45" t="s">
+        <v>353</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="J45" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="K45" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="L45" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="O45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5351,50 +5857,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33028</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>169292</v>
+      </c>
+      <c r="C46" t="s">
+        <v>361</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="J46" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="K46" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="O46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5408,50 +5918,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33028</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>51195</v>
+      </c>
+      <c r="C47" t="s">
+        <v>368</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="J47" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="O47" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5471,50 +5985,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33028</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>169293</v>
+      </c>
+      <c r="C48" t="s">
+        <v>376</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="J48" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="K48" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="O48" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5528,50 +6046,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33028</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>169294</v>
+      </c>
+      <c r="C49" t="s">
+        <v>382</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="J49" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="K49" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="L49" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="O49" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5591,50 +6113,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33028</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>8909</v>
+      </c>
+      <c r="C50" t="s">
+        <v>389</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="J50" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="K50" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="O50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5654,50 +6180,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33028</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>169295</v>
+      </c>
+      <c r="C51" t="s">
+        <v>396</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="J51" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="K51" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L51" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="O51" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -5717,50 +6247,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33028</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>169296</v>
+      </c>
+      <c r="C52" t="s">
+        <v>403</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="J52" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
       <c r="K52" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="L52" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="O52" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5780,50 +6314,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33028</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>169297</v>
+      </c>
+      <c r="C53" t="s">
+        <v>410</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="J53" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="K53" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="O53" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5843,41 +6381,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33028</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>169298</v>
+      </c>
+      <c r="C54" t="s">
+        <v>417</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="J54" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="K54" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="L54" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
@@ -5896,50 +6438,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33028</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>30472</v>
+      </c>
+      <c r="C55" t="s">
+        <v>423</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="J55" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="K55" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="L55" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="O55" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5953,41 +6499,45 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33028</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>169299</v>
+      </c>
+      <c r="C56" t="s">
+        <v>429</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="J56" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="K56" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="L56" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
@@ -6016,50 +6566,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33028</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>126382</v>
+      </c>
+      <c r="C57" t="s">
+        <v>435</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="J57" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="K57" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="L57" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="O57" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -6083,50 +6637,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33028</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>7548</v>
+      </c>
+      <c r="C58" t="s">
+        <v>442</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="J58" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="K58" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="L58" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="O58" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6150,50 +6708,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33028</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>169300</v>
+      </c>
+      <c r="C59" t="s">
+        <v>448</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
       <c r="J59" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="K59" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="L59" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="O59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6207,50 +6769,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33028</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>169301</v>
+      </c>
+      <c r="C60" t="s">
+        <v>456</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="J60" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="K60" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
       <c r="L60" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="O60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6274,50 +6840,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>33028</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>169302</v>
+      </c>
+      <c r="C61" t="s">
+        <v>464</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="J61" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="K61" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="L61" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="O61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6341,50 +6911,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>33028</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>169303</v>
+      </c>
+      <c r="C62" t="s">
+        <v>471</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="J62" t="s">
-        <v>413</v>
+        <v>474</v>
       </c>
       <c r="K62" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="L62" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="O62" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6408,50 +6982,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>33028</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>58994</v>
+      </c>
+      <c r="C63" t="s">
+        <v>479</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="J63" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
       <c r="K63" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="L63" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="O63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6475,50 +7053,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>33028</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>18150</v>
+      </c>
+      <c r="C64" t="s">
+        <v>486</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="J64" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="K64" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="L64" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="O64" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6534,50 +7116,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>33028</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>169304</v>
+      </c>
+      <c r="C65" t="s">
+        <v>493</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="J65" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="K65" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="L65" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="O65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6601,50 +7187,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>33028</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>169305</v>
+      </c>
+      <c r="C66" t="s">
+        <v>500</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>436</v>
+        <v>501</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="J66" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
       <c r="K66" t="s">
-        <v>439</v>
+        <v>504</v>
       </c>
       <c r="L66" t="s">
-        <v>440</v>
+        <v>505</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="O66" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6668,50 +7258,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>33028</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>169306</v>
+      </c>
+      <c r="C67" t="s">
+        <v>508</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="J67" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="K67" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="L67" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="O67" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6725,50 +7319,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>33028</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>122474</v>
+      </c>
+      <c r="C68" t="s">
+        <v>514</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="J68" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="K68" t="s">
-        <v>451</v>
+        <v>518</v>
       </c>
       <c r="L68" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="O68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6792,50 +7390,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>33028</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>169307</v>
+      </c>
+      <c r="C69" t="s">
+        <v>521</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>454</v>
+        <v>522</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="J69" t="s">
-        <v>456</v>
+        <v>524</v>
       </c>
       <c r="K69" t="s">
-        <v>457</v>
+        <v>525</v>
       </c>
       <c r="L69" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="O69" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6859,50 +7461,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>33028</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>3572</v>
+      </c>
+      <c r="C70" t="s">
+        <v>528</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>461</v>
+        <v>530</v>
       </c>
       <c r="J70" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="K70" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="L70" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="O70" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6926,50 +7532,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>33028</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>49906</v>
+      </c>
+      <c r="C71" t="s">
+        <v>535</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
       <c r="J71" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
       <c r="K71" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="L71" t="s">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="O71" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6983,50 +7593,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>33028</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>29407</v>
+      </c>
+      <c r="C72" t="s">
+        <v>542</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>472</v>
+        <v>543</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="J72" t="s">
-        <v>474</v>
+        <v>545</v>
       </c>
       <c r="K72" t="s">
-        <v>475</v>
+        <v>546</v>
       </c>
       <c r="L72" t="s">
-        <v>476</v>
+        <v>547</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>477</v>
+        <v>548</v>
       </c>
       <c r="O72" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7050,50 +7664,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>476</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>33028</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>169308</v>
+      </c>
+      <c r="C73" t="s">
+        <v>549</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>478</v>
+        <v>550</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
       <c r="J73" t="s">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="K73" t="s">
-        <v>481</v>
+        <v>553</v>
       </c>
       <c r="L73" t="s">
-        <v>482</v>
+        <v>554</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>483</v>
+        <v>555</v>
       </c>
       <c r="O73" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7117,50 +7735,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>482</v>
+        <v>554</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>33028</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>169309</v>
+      </c>
+      <c r="C74" t="s">
+        <v>556</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>484</v>
+        <v>557</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>485</v>
+        <v>558</v>
       </c>
       <c r="J74" t="s">
-        <v>486</v>
+        <v>559</v>
       </c>
       <c r="K74" t="s">
-        <v>487</v>
+        <v>560</v>
       </c>
       <c r="L74" t="s">
-        <v>488</v>
+        <v>561</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>477</v>
+        <v>548</v>
       </c>
       <c r="O74" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7184,50 +7806,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>489</v>
+        <v>562</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>33028</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>169310</v>
+      </c>
+      <c r="C75" t="s">
+        <v>563</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>490</v>
+        <v>564</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="J75" t="s">
-        <v>486</v>
+        <v>559</v>
       </c>
       <c r="K75" t="s">
-        <v>492</v>
+        <v>566</v>
       </c>
       <c r="L75" t="s">
-        <v>493</v>
+        <v>567</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="O75" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7251,50 +7877,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>33028</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>169311</v>
+      </c>
+      <c r="C76" t="s">
+        <v>569</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>495</v>
+        <v>570</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>496</v>
+        <v>571</v>
       </c>
       <c r="J76" t="s">
-        <v>497</v>
+        <v>572</v>
       </c>
       <c r="K76" t="s">
-        <v>498</v>
+        <v>573</v>
       </c>
       <c r="L76" t="s">
-        <v>499</v>
+        <v>574</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="O76" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7318,50 +7948,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>501</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>33028</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>169312</v>
+      </c>
+      <c r="C77" t="s">
+        <v>577</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>502</v>
+        <v>578</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>503</v>
+        <v>579</v>
       </c>
       <c r="J77" t="s">
-        <v>504</v>
+        <v>580</v>
       </c>
       <c r="K77" t="s">
-        <v>505</v>
+        <v>581</v>
       </c>
       <c r="L77" t="s">
-        <v>506</v>
+        <v>582</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="O77" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7385,50 +8019,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>506</v>
+        <v>582</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>33028</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>169313</v>
+      </c>
+      <c r="C78" t="s">
+        <v>583</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>507</v>
+        <v>584</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>508</v>
+        <v>585</v>
       </c>
       <c r="J78" t="s">
-        <v>509</v>
+        <v>586</v>
       </c>
       <c r="K78" t="s">
-        <v>510</v>
+        <v>587</v>
       </c>
       <c r="L78" t="s">
-        <v>511</v>
+        <v>588</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>483</v>
+        <v>555</v>
       </c>
       <c r="O78" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7452,50 +8090,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>512</v>
+        <v>589</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>33028</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>169314</v>
+      </c>
+      <c r="C79" t="s">
+        <v>590</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>514</v>
+        <v>592</v>
       </c>
       <c r="J79" t="s">
-        <v>515</v>
+        <v>593</v>
       </c>
       <c r="K79" t="s">
-        <v>516</v>
+        <v>594</v>
       </c>
       <c r="L79" t="s">
-        <v>517</v>
+        <v>595</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>483</v>
+        <v>555</v>
       </c>
       <c r="O79" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -7509,50 +8151,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>517</v>
+        <v>595</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>33028</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>42163</v>
+      </c>
+      <c r="C80" t="s">
+        <v>596</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>518</v>
+        <v>597</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>519</v>
+        <v>598</v>
       </c>
       <c r="J80" t="s">
-        <v>520</v>
+        <v>599</v>
       </c>
       <c r="K80" t="s">
-        <v>521</v>
+        <v>600</v>
       </c>
       <c r="L80" t="s">
-        <v>522</v>
+        <v>601</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>523</v>
+        <v>602</v>
       </c>
       <c r="O80" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7576,50 +8222,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>524</v>
+        <v>603</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>33028</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>169315</v>
+      </c>
+      <c r="C81" t="s">
+        <v>604</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>525</v>
+        <v>605</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>526</v>
+        <v>606</v>
       </c>
       <c r="J81" t="s">
-        <v>527</v>
+        <v>607</v>
       </c>
       <c r="K81" t="s">
-        <v>528</v>
+        <v>608</v>
       </c>
       <c r="L81" t="s">
-        <v>529</v>
+        <v>609</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>530</v>
+        <v>610</v>
       </c>
       <c r="O81" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7643,50 +8293,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>531</v>
+        <v>611</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>33028</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>169316</v>
+      </c>
+      <c r="C82" t="s">
+        <v>612</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>533</v>
+        <v>614</v>
       </c>
       <c r="J82" t="s">
-        <v>534</v>
+        <v>615</v>
       </c>
       <c r="K82" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
       <c r="L82" t="s">
-        <v>536</v>
+        <v>617</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>537</v>
+        <v>618</v>
       </c>
       <c r="O82" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7710,50 +8364,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>536</v>
+        <v>617</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>33028</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>169317</v>
+      </c>
+      <c r="C83" t="s">
+        <v>619</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>538</v>
+        <v>620</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="J83" t="s">
-        <v>540</v>
+        <v>622</v>
       </c>
       <c r="K83" t="s">
-        <v>541</v>
+        <v>623</v>
       </c>
       <c r="L83" t="s">
-        <v>542</v>
+        <v>624</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>543</v>
+        <v>625</v>
       </c>
       <c r="O83" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7777,50 +8435,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>544</v>
+        <v>626</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>33028</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>169318</v>
+      </c>
+      <c r="C84" t="s">
+        <v>627</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>545</v>
+        <v>628</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>546</v>
+        <v>629</v>
       </c>
       <c r="J84" t="s">
-        <v>547</v>
+        <v>630</v>
       </c>
       <c r="K84" t="s">
-        <v>548</v>
+        <v>631</v>
       </c>
       <c r="L84" t="s">
-        <v>549</v>
+        <v>632</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>543</v>
+        <v>625</v>
       </c>
       <c r="O84" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7844,50 +8506,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>549</v>
+        <v>632</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>33028</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>169319</v>
+      </c>
+      <c r="C85" t="s">
+        <v>633</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>550</v>
+        <v>634</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="J85" t="s">
-        <v>552</v>
+        <v>636</v>
       </c>
       <c r="K85" t="s">
-        <v>553</v>
+        <v>637</v>
       </c>
       <c r="L85" t="s">
-        <v>554</v>
+        <v>638</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>555</v>
+        <v>639</v>
       </c>
       <c r="O85" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7911,50 +8577,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>554</v>
+        <v>638</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>33028</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>169320</v>
+      </c>
+      <c r="C86" t="s">
+        <v>640</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>556</v>
+        <v>641</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>557</v>
+        <v>642</v>
       </c>
       <c r="J86" t="s">
-        <v>558</v>
+        <v>643</v>
       </c>
       <c r="K86" t="s">
-        <v>559</v>
+        <v>644</v>
       </c>
       <c r="L86" t="s">
-        <v>560</v>
+        <v>645</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>561</v>
+        <v>646</v>
       </c>
       <c r="O86" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -7978,50 +8648,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>562</v>
+        <v>647</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>33028</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>169321</v>
+      </c>
+      <c r="C87" t="s">
+        <v>648</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>563</v>
+        <v>649</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>564</v>
+        <v>650</v>
       </c>
       <c r="J87" t="s">
-        <v>565</v>
+        <v>651</v>
       </c>
       <c r="K87" t="s">
-        <v>566</v>
+        <v>652</v>
       </c>
       <c r="L87" t="s">
-        <v>567</v>
+        <v>653</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>561</v>
+        <v>646</v>
       </c>
       <c r="O87" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8043,50 +8717,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>568</v>
+        <v>654</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>33028</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>169322</v>
+      </c>
+      <c r="C88" t="s">
+        <v>655</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>569</v>
+        <v>656</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>570</v>
+        <v>657</v>
       </c>
       <c r="J88" t="s">
-        <v>571</v>
+        <v>658</v>
       </c>
       <c r="K88" t="s">
-        <v>572</v>
+        <v>659</v>
       </c>
       <c r="L88" t="s">
-        <v>573</v>
+        <v>660</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>574</v>
+        <v>661</v>
       </c>
       <c r="O88" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8108,50 +8786,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>575</v>
+        <v>662</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>33028</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>169323</v>
+      </c>
+      <c r="C89" t="s">
+        <v>663</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>576</v>
+        <v>664</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>577</v>
+        <v>665</v>
       </c>
       <c r="J89" t="s">
-        <v>578</v>
+        <v>666</v>
       </c>
       <c r="K89" t="s">
-        <v>579</v>
+        <v>667</v>
       </c>
       <c r="L89" t="s">
-        <v>580</v>
+        <v>668</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>581</v>
+        <v>669</v>
       </c>
       <c r="O89" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8175,50 +8857,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>582</v>
+        <v>670</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>33028</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>169324</v>
+      </c>
+      <c r="C90" t="s">
+        <v>671</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>583</v>
+        <v>672</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>584</v>
+        <v>673</v>
       </c>
       <c r="J90" t="s">
-        <v>585</v>
+        <v>674</v>
       </c>
       <c r="K90" t="s">
-        <v>586</v>
+        <v>675</v>
       </c>
       <c r="L90" t="s">
-        <v>587</v>
+        <v>676</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>588</v>
+        <v>677</v>
       </c>
       <c r="O90" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8242,50 +8928,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>589</v>
+        <v>678</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>33028</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>169325</v>
+      </c>
+      <c r="C91" t="s">
+        <v>679</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>590</v>
+        <v>680</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>591</v>
+        <v>681</v>
       </c>
       <c r="J91" t="s">
-        <v>592</v>
+        <v>682</v>
       </c>
       <c r="K91" t="s">
-        <v>593</v>
+        <v>683</v>
       </c>
       <c r="L91" t="s">
-        <v>594</v>
+        <v>684</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>595</v>
+        <v>685</v>
       </c>
       <c r="O91" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8309,50 +8999,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>596</v>
+        <v>686</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>33028</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>169326</v>
+      </c>
+      <c r="C92" t="s">
+        <v>687</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>597</v>
+        <v>688</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>598</v>
+        <v>689</v>
       </c>
       <c r="J92" t="s">
-        <v>599</v>
+        <v>690</v>
       </c>
       <c r="K92" t="s">
-        <v>600</v>
+        <v>691</v>
       </c>
       <c r="L92" t="s">
-        <v>601</v>
+        <v>692</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>602</v>
+        <v>693</v>
       </c>
       <c r="O92" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8376,50 +9070,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>603</v>
+        <v>694</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>33028</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>169327</v>
+      </c>
+      <c r="C93" t="s">
+        <v>695</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>604</v>
+        <v>696</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>605</v>
+        <v>697</v>
       </c>
       <c r="J93" t="s">
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="K93" t="s">
-        <v>607</v>
+        <v>699</v>
       </c>
       <c r="L93" t="s">
-        <v>608</v>
+        <v>700</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>609</v>
+        <v>701</v>
       </c>
       <c r="O93" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8443,50 +9141,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>610</v>
+        <v>702</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>33028</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C94" t="s">
+        <v>703</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>611</v>
+        <v>704</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>612</v>
+        <v>705</v>
       </c>
       <c r="J94" t="s">
-        <v>613</v>
+        <v>706</v>
       </c>
       <c r="K94" t="s">
-        <v>614</v>
+        <v>707</v>
       </c>
       <c r="L94" t="s">
-        <v>615</v>
+        <v>708</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>602</v>
+        <v>693</v>
       </c>
       <c r="O94" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8510,50 +9212,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>616</v>
+        <v>709</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>33028</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>169329</v>
+      </c>
+      <c r="C95" t="s">
+        <v>710</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>617</v>
+        <v>711</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>618</v>
+        <v>712</v>
       </c>
       <c r="J95" t="s">
-        <v>619</v>
+        <v>713</v>
       </c>
       <c r="K95" t="s">
-        <v>620</v>
+        <v>714</v>
       </c>
       <c r="L95" t="s">
-        <v>621</v>
+        <v>715</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>622</v>
+        <v>716</v>
       </c>
       <c r="O95" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8577,50 +9283,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>623</v>
+        <v>717</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>33028</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>169330</v>
+      </c>
+      <c r="C96" t="s">
+        <v>718</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>624</v>
+        <v>719</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>625</v>
+        <v>720</v>
       </c>
       <c r="J96" t="s">
-        <v>626</v>
+        <v>721</v>
       </c>
       <c r="K96" t="s">
-        <v>627</v>
+        <v>722</v>
       </c>
       <c r="L96" t="s">
-        <v>628</v>
+        <v>723</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>602</v>
+        <v>693</v>
       </c>
       <c r="O96" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8644,50 +9354,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>629</v>
+        <v>724</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>33028</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>169331</v>
+      </c>
+      <c r="C97" t="s">
+        <v>725</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>630</v>
+        <v>726</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>631</v>
+        <v>727</v>
       </c>
       <c r="J97" t="s">
-        <v>632</v>
+        <v>728</v>
       </c>
       <c r="K97" t="s">
-        <v>633</v>
+        <v>729</v>
       </c>
       <c r="L97" t="s">
-        <v>634</v>
+        <v>730</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>635</v>
+        <v>731</v>
       </c>
       <c r="O97" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8711,50 +9425,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>634</v>
+        <v>730</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>33028</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>169332</v>
+      </c>
+      <c r="C98" t="s">
+        <v>732</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>636</v>
+        <v>733</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>637</v>
+        <v>734</v>
       </c>
       <c r="J98" t="s">
-        <v>638</v>
+        <v>735</v>
       </c>
       <c r="K98" t="s">
-        <v>639</v>
+        <v>736</v>
       </c>
       <c r="L98" t="s">
-        <v>640</v>
+        <v>737</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>641</v>
+        <v>738</v>
       </c>
       <c r="O98" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8778,50 +9496,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>640</v>
+        <v>737</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>33028</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>169333</v>
+      </c>
+      <c r="C99" t="s">
+        <v>739</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>642</v>
+        <v>740</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>643</v>
+        <v>741</v>
       </c>
       <c r="J99" t="s">
-        <v>644</v>
+        <v>742</v>
       </c>
       <c r="K99" t="s">
-        <v>645</v>
+        <v>743</v>
       </c>
       <c r="L99" t="s">
-        <v>646</v>
+        <v>744</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>641</v>
+        <v>738</v>
       </c>
       <c r="O99" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P99" t="n">
         <v>2</v>
@@ -8845,50 +9567,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>646</v>
+        <v>744</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>33028</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>169334</v>
+      </c>
+      <c r="C100" t="s">
+        <v>745</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>647</v>
+        <v>746</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>648</v>
+        <v>747</v>
       </c>
       <c r="J100" t="s">
-        <v>649</v>
+        <v>748</v>
       </c>
       <c r="K100" t="s">
-        <v>650</v>
+        <v>749</v>
       </c>
       <c r="L100" t="s">
-        <v>651</v>
+        <v>750</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>652</v>
+        <v>751</v>
       </c>
       <c r="O100" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -8912,50 +9638,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>651</v>
+        <v>750</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>33028</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>169335</v>
+      </c>
+      <c r="C101" t="s">
+        <v>752</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>653</v>
+        <v>753</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>654</v>
+        <v>754</v>
       </c>
       <c r="J101" t="s">
-        <v>655</v>
+        <v>755</v>
       </c>
       <c r="K101" t="s">
-        <v>656</v>
+        <v>756</v>
       </c>
       <c r="L101" t="s">
-        <v>657</v>
+        <v>757</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>658</v>
+        <v>758</v>
       </c>
       <c r="O101" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -8979,50 +9709,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>657</v>
+        <v>757</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>33028</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>169336</v>
+      </c>
+      <c r="C102" t="s">
+        <v>759</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>659</v>
+        <v>760</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>660</v>
+        <v>761</v>
       </c>
       <c r="J102" t="s">
-        <v>661</v>
+        <v>762</v>
       </c>
       <c r="K102" t="s">
-        <v>662</v>
+        <v>763</v>
       </c>
       <c r="L102" t="s">
-        <v>663</v>
+        <v>764</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>658</v>
+        <v>758</v>
       </c>
       <c r="O102" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9046,50 +9780,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>663</v>
+        <v>764</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>33028</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>169311</v>
+      </c>
+      <c r="C103" t="s">
+        <v>577</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>664</v>
+        <v>765</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>665</v>
+        <v>766</v>
       </c>
       <c r="J103" t="s">
-        <v>666</v>
+        <v>767</v>
       </c>
       <c r="K103" t="s">
-        <v>667</v>
+        <v>768</v>
       </c>
       <c r="L103" t="s">
-        <v>668</v>
+        <v>769</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>658</v>
+        <v>758</v>
       </c>
       <c r="O103" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P103" t="s"/>
       <c r="Q103" t="s"/>
@@ -9103,50 +9841,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>668</v>
+        <v>769</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>33028</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>169337</v>
+      </c>
+      <c r="C104" t="s">
+        <v>770</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>669</v>
+        <v>771</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>670</v>
+        <v>772</v>
       </c>
       <c r="J104" t="s">
-        <v>671</v>
+        <v>773</v>
       </c>
       <c r="K104" t="s">
-        <v>672</v>
+        <v>774</v>
       </c>
       <c r="L104" t="s">
-        <v>673</v>
+        <v>775</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>674</v>
+        <v>776</v>
       </c>
       <c r="O104" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9170,50 +9912,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>673</v>
+        <v>775</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>33028</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>169338</v>
+      </c>
+      <c r="C105" t="s">
+        <v>777</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>675</v>
+        <v>778</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>676</v>
+        <v>779</v>
       </c>
       <c r="J105" t="s">
-        <v>677</v>
+        <v>780</v>
       </c>
       <c r="K105" t="s">
-        <v>678</v>
+        <v>781</v>
       </c>
       <c r="L105" t="s">
-        <v>679</v>
+        <v>782</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>680</v>
+        <v>783</v>
       </c>
       <c r="O105" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9237,50 +9983,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>681</v>
+        <v>784</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>33028</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>169339</v>
+      </c>
+      <c r="C106" t="s">
+        <v>785</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>682</v>
+        <v>786</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>683</v>
+        <v>787</v>
       </c>
       <c r="J106" t="s">
-        <v>684</v>
+        <v>788</v>
       </c>
       <c r="K106" t="s">
-        <v>685</v>
+        <v>789</v>
       </c>
       <c r="L106" t="s">
-        <v>686</v>
+        <v>790</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>687</v>
+        <v>791</v>
       </c>
       <c r="O106" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9304,50 +10054,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>686</v>
+        <v>790</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>33028</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>169340</v>
+      </c>
+      <c r="C107" t="s">
+        <v>792</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>688</v>
+        <v>793</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>689</v>
+        <v>794</v>
       </c>
       <c r="J107" t="s">
-        <v>690</v>
+        <v>795</v>
       </c>
       <c r="K107" t="s">
-        <v>691</v>
+        <v>796</v>
       </c>
       <c r="L107" t="s">
-        <v>692</v>
+        <v>797</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>693</v>
+        <v>798</v>
       </c>
       <c r="O107" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9371,50 +10125,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>692</v>
+        <v>797</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>33028</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>169341</v>
+      </c>
+      <c r="C108" t="s">
+        <v>799</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>694</v>
+        <v>800</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>695</v>
+        <v>801</v>
       </c>
       <c r="J108" t="s">
-        <v>696</v>
+        <v>802</v>
       </c>
       <c r="K108" t="s">
-        <v>697</v>
+        <v>803</v>
       </c>
       <c r="L108" t="s">
-        <v>698</v>
+        <v>804</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>699</v>
+        <v>805</v>
       </c>
       <c r="O108" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -9438,50 +10196,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>700</v>
+        <v>806</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>33028</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>169342</v>
+      </c>
+      <c r="C109" t="s">
+        <v>807</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>701</v>
+        <v>808</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>702</v>
+        <v>809</v>
       </c>
       <c r="J109" t="s">
-        <v>703</v>
+        <v>810</v>
       </c>
       <c r="K109" t="s">
-        <v>704</v>
+        <v>811</v>
       </c>
       <c r="L109" t="s">
-        <v>705</v>
+        <v>812</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>706</v>
+        <v>813</v>
       </c>
       <c r="O109" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9505,50 +10267,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>707</v>
+        <v>814</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>33028</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>169343</v>
+      </c>
+      <c r="C110" t="s">
+        <v>815</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>708</v>
+        <v>816</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>709</v>
+        <v>817</v>
       </c>
       <c r="J110" t="s">
-        <v>710</v>
+        <v>818</v>
       </c>
       <c r="K110" t="s">
-        <v>711</v>
+        <v>819</v>
       </c>
       <c r="L110" t="s">
-        <v>712</v>
+        <v>820</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
       </c>
       <c r="N110" t="s">
-        <v>713</v>
+        <v>821</v>
       </c>
       <c r="O110" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P110" t="n">
         <v>3</v>
@@ -9572,50 +10338,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>714</v>
+        <v>822</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>33028</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>169344</v>
+      </c>
+      <c r="C111" t="s">
+        <v>823</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>715</v>
+        <v>824</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>716</v>
+        <v>825</v>
       </c>
       <c r="J111" t="s">
-        <v>717</v>
+        <v>826</v>
       </c>
       <c r="K111" t="s">
-        <v>718</v>
+        <v>827</v>
       </c>
       <c r="L111" t="s">
-        <v>719</v>
+        <v>828</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>720</v>
+        <v>829</v>
       </c>
       <c r="O111" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -9639,41 +10409,45 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>719</v>
+        <v>828</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>33028</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>169345</v>
+      </c>
+      <c r="C112" t="s">
+        <v>830</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>721</v>
+        <v>831</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>722</v>
+        <v>832</v>
       </c>
       <c r="J112" t="s">
-        <v>723</v>
+        <v>833</v>
       </c>
       <c r="K112" t="s">
-        <v>724</v>
+        <v>834</v>
       </c>
       <c r="L112" t="s">
-        <v>725</v>
+        <v>835</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
@@ -9692,7 +10466,7 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>725</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
